--- a/portfolios/portfolio.xlsx
+++ b/portfolios/portfolio.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,15 +467,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Latest Close</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Band</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Band</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>RSI signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MA signal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Signal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MACD Signal</t>
         </is>
@@ -492,17 +522,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" t="n">
+        <v>227.5200042724609</v>
+      </c>
+      <c r="D2" t="n">
+        <v>234.4621039962046</v>
+      </c>
+      <c r="E2" t="n">
+        <v>211.7178970472996</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61.96428678473706</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.167263978051295</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6054055665690726</v>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -519,17 +567,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="C3" t="n">
+        <v>191.8999938964844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>208.1830422738253</v>
+      </c>
+      <c r="E3" t="n">
+        <v>164.4692138611923</v>
+      </c>
+      <c r="F3" t="n">
+        <v>46.2834476104637</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3161585843020305</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.110502653856231</v>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -546,17 +612,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>112.7300033569336</v>
+      </c>
+      <c r="D4" t="n">
+        <v>119.4812046238025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.65976271451341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45.96717672691945</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5981797249991132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.278742458678598</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -573,17 +657,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>515.3800048828125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>591.1944749757961</v>
+      </c>
+      <c r="E5" t="n">
+        <v>507.7877815136192</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33.09637299021556</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-10.44587390987783</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-6.379760633203002</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -600,17 +702,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="C6" t="n">
+        <v>274.4299926757812</v>
+      </c>
+      <c r="D6" t="n">
+        <v>290.2602369098678</v>
+      </c>
+      <c r="E6" t="n">
+        <v>231.8891200552279</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59.34024769976354</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.763807013378994</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.781731321244157</v>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -627,17 +747,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="C7" t="n">
+        <v>209.6100006103516</v>
+      </c>
+      <c r="D7" t="n">
+        <v>248.6529855592442</v>
+      </c>
+      <c r="E7" t="n">
+        <v>161.662497780127</v>
+      </c>
+      <c r="F7" t="n">
+        <v>81.06952433097271</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5656684222625188</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2.486396256070291</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -654,17 +792,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="C8" t="n">
+        <v>167.4900054931641</v>
+      </c>
+      <c r="D8" t="n">
+        <v>179.6009392797407</v>
+      </c>
+      <c r="E8" t="n">
+        <v>123.4851911701081</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88.75114592510994</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>4.004716115735533</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.955620752995722</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -681,17 +837,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="C9" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>342.2548169544693</v>
+      </c>
+      <c r="E9" t="n">
+        <v>312.2638942586733</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48.60953437232427</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.5485135242529964</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.03816933369286</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -708,17 +882,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="C10" t="n">
+        <v>191.1600036621093</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.1312034099544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>161.4810555011784</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82.42043444208397</v>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4.159588280951027</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.118393493641597</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -735,17 +927,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="C11" t="n">
+        <v>852.4400024414062</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1084.415162447494</v>
+      </c>
+      <c r="E11" t="n">
+        <v>707.2283823956263</v>
+      </c>
+      <c r="F11" t="n">
+        <v>71.32100249322629</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-14.53526967713549</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-22.92679773974312</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -762,17 +972,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="C12" t="n">
+        <v>178.0899963378906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180.9891793039275</v>
+      </c>
+      <c r="E12" t="n">
+        <v>138.8533696817076</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88.66929471258452</v>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4.967628982114888</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.857071660703359</v>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -789,17 +1017,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="C13" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="D13" t="n">
+        <v>269.9339476263152</v>
+      </c>
+      <c r="E13" t="n">
+        <v>226.6473403729917</v>
+      </c>
+      <c r="F13" t="n">
+        <v>75.53531974910476</v>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5.305334595616955</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.683788597275992</v>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -816,17 +1062,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="C14" t="n">
+        <v>39.52000045776367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43.28190413514838</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36.90777270338803</v>
+      </c>
+      <c r="F14" t="n">
+        <v>56.73760831982857</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.0032524616430293</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.0095715018544325</v>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -843,17 +1107,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="C15" t="n">
+        <v>4268.93994140625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4255.682837238588</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3388.751331423206</v>
+      </c>
+      <c r="F15" t="n">
+        <v>94.3666081013556</v>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>114.5938274552045</v>
+      </c>
+      <c r="J15" t="n">
+        <v>83.7537189746723</v>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -870,17 +1152,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="C16" t="n">
+        <v>50.11999893188477</v>
+      </c>
+      <c r="D16" t="n">
+        <v>53.81762037841882</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39.71915416460506</v>
+      </c>
+      <c r="F16" t="n">
+        <v>58.53365098054319</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5838019749720473</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5973181135946853</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -897,17 +1197,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="C17" t="n">
+        <v>153.4700012207031</v>
+      </c>
+      <c r="D17" t="n">
+        <v>157.8353622366199</v>
+      </c>
+      <c r="E17" t="n">
+        <v>118.6381861603212</v>
+      </c>
+      <c r="F17" t="n">
+        <v>76.32849671776515</v>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>5.10582446346433</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.881062877181913</v>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -924,17 +1242,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="C18" t="n">
+        <v>61.70999908447266</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67.86267878366382</v>
+      </c>
+      <c r="E18" t="n">
+        <v>55.7899020928404</v>
+      </c>
+      <c r="F18" t="n">
+        <v>59.87932788861779</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1558978432537756</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.167748823951006</v>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -951,17 +1287,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="C19" t="n">
+        <v>1.039999961853027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.186264163686531</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8005422808968694</v>
+      </c>
+      <c r="F19" t="n">
+        <v>59.81012150857826</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0082008213409322</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0096500479652093</v>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -978,17 +1332,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="C20" t="n">
+        <v>390.9599914550781</v>
+      </c>
+      <c r="D20" t="n">
+        <v>373.7386318275739</v>
+      </c>
+      <c r="E20" t="n">
+        <v>313.995237171292</v>
+      </c>
+      <c r="F20" t="n">
+        <v>85.83897267159574</v>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>10.92062322820448</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.317660296613534</v>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1005,17 +1377,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="C21" t="n">
+        <v>41.02000045776367</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.31829709984777</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37.49299277973577</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62.01022235075075</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3489159060238691</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1791720266228732</v>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1032,17 +1422,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="C22" t="n">
+        <v>102.3099975585938</v>
+      </c>
+      <c r="D22" t="n">
+        <v>116.9726999103979</v>
+      </c>
+      <c r="E22" t="n">
+        <v>103.0063330367732</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40.56940012497154</v>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.8864492728469457</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.7751088496389174</v>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1059,17 +1467,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="C23" t="n">
+        <v>901.4400024414062</v>
+      </c>
+      <c r="D23" t="n">
+        <v>930.7753893150142</v>
+      </c>
+      <c r="E23" t="n">
+        <v>803.8546135989224</v>
+      </c>
+      <c r="F23" t="n">
+        <v>60.21789484183557</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>9.313179756333623</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.69053014062218</v>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1086,17 +1512,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="C24" t="n">
+        <v>275.760009765625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>271.370083474361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>239.6921723850139</v>
+      </c>
+      <c r="F24" t="n">
+        <v>84.60700249495859</v>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>4.534152335192061</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.934324100298974</v>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1113,17 +1557,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="C25" t="n">
+        <v>281.4800109863281</v>
+      </c>
+      <c r="D25" t="n">
+        <v>386.6034739848059</v>
+      </c>
+      <c r="E25" t="n">
+        <v>181.6029789078666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>73.38398309433055</v>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>5.207117467551768</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.714333292768755</v>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1140,17 +1602,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="C26" t="n">
+        <v>52.84999847412109</v>
+      </c>
+      <c r="D26" t="n">
+        <v>52.80525532913926</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44.17571277703828</v>
+      </c>
+      <c r="F26" t="n">
+        <v>91.27135906096136</v>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1.02888905132501</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8012487691570993</v>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1167,17 +1647,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="C27" t="n">
+        <v>59.0099983215332</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.04872532018688</v>
+      </c>
+      <c r="E27" t="n">
+        <v>55.38869432506104</v>
+      </c>
+      <c r="F27" t="n">
+        <v>57.51790247741791</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1196239885051824</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.0383849194728327</v>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1194,17 +1692,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="C28" t="n">
+        <v>141.9900054931641</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162.3217838080517</v>
+      </c>
+      <c r="E28" t="n">
+        <v>135.5269267750507</v>
+      </c>
+      <c r="F28" t="n">
+        <v>58.85392746829091</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.5117601331303661</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1.085311754860729</v>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1221,17 +1737,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="C29" t="n">
+        <v>411.4700012207031</v>
+      </c>
+      <c r="D29" t="n">
+        <v>412.1625946164929</v>
+      </c>
+      <c r="E29" t="n">
+        <v>339.2832160091372</v>
+      </c>
+      <c r="F29" t="n">
+        <v>80.68951048513105</v>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>9.472977935295605</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.337528009282895</v>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1248,17 +1782,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="C30" t="n">
+        <v>276.9299926757812</v>
+      </c>
+      <c r="D30" t="n">
+        <v>288.0836760293435</v>
+      </c>
+      <c r="E30" t="n">
+        <v>240.4124511915487</v>
+      </c>
+      <c r="F30" t="n">
+        <v>61.99954131446169</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1.75813305737978</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.858110351420534</v>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1275,17 +1827,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="C31" t="n">
+        <v>95.1999969482422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>99.3339436394546</v>
+      </c>
+      <c r="E31" t="n">
+        <v>84.41670141354753</v>
+      </c>
+      <c r="F31" t="n">
+        <v>89.2856612055427</v>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1.09986117704311</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5654973850124327</v>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1302,17 +1872,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="C32" t="n">
+        <v>520.280029296875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>561.4110940619596</v>
+      </c>
+      <c r="E32" t="n">
+        <v>507.8263287581008</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28.39165921765228</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>-3.822071530334711</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.323057070901566</v>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1329,17 +1917,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="C33" t="n">
+        <v>333.0199890136719</v>
+      </c>
+      <c r="D33" t="n">
+        <v>336.5580105029704</v>
+      </c>
+      <c r="E33" t="n">
+        <v>272.9448935891414</v>
+      </c>
+      <c r="F33" t="n">
+        <v>92.42449554118984</v>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>9.116972264142476</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.799934615352232</v>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1356,17 +1962,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="C34" t="n">
+        <v>266.3299865722656</v>
+      </c>
+      <c r="D34" t="n">
+        <v>314.8861898184257</v>
+      </c>
+      <c r="E34" t="n">
+        <v>267.1734843522837</v>
+      </c>
+      <c r="F34" t="n">
+        <v>39.74971554755832</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>-6.51671884012211</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-3.731603859013528</v>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1383,17 +2007,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="C35" t="n">
+        <v>184.5899963378907</v>
+      </c>
+      <c r="D35" t="n">
+        <v>185.6665917925345</v>
+      </c>
+      <c r="E35" t="n">
+        <v>152.0666338760958</v>
+      </c>
+      <c r="F35" t="n">
+        <v>81.58464482049052</v>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>5.494879737199909</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.260598932481348</v>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1410,17 +2052,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="C36" t="n">
+        <v>246.979995727539</v>
+      </c>
+      <c r="D36" t="n">
+        <v>243.8811368426369</v>
+      </c>
+      <c r="E36" t="n">
+        <v>213.1566045415616</v>
+      </c>
+      <c r="F36" t="n">
+        <v>83.9070726479093</v>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4.371756810410261</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.437604877232423</v>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1437,17 +2097,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="C37" t="n">
+        <v>163.8300018310547</v>
+      </c>
+      <c r="D37" t="n">
+        <v>192.1245819299011</v>
+      </c>
+      <c r="E37" t="n">
+        <v>146.5734820743202</v>
+      </c>
+      <c r="F37" t="n">
+        <v>77.43902744507514</v>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.3967138472127089</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.675569726226815</v>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1464,17 +2142,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="C38" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="D38" t="n">
+        <v>190.4098757534262</v>
+      </c>
+      <c r="E38" t="n">
+        <v>145.2549639603779</v>
+      </c>
+      <c r="F38" t="n">
+        <v>77.58063803432631</v>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.3082216310671697</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1.544992513363707</v>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1491,17 +2187,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="C39" t="n">
+        <v>496.9200134277344</v>
+      </c>
+      <c r="D39" t="n">
+        <v>516.2603694798687</v>
+      </c>
+      <c r="E39" t="n">
+        <v>461.4660837475128</v>
+      </c>
+      <c r="F39" t="n">
+        <v>59.7896320320992</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1.271278088868087</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.0156401111570039</v>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1518,17 +2232,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="C40" t="n">
+        <v>396.7000122070313</v>
+      </c>
+      <c r="D40" t="n">
+        <v>395.2760465047486</v>
+      </c>
+      <c r="E40" t="n">
+        <v>331.7823375599565</v>
+      </c>
+      <c r="F40" t="n">
+        <v>89.58737684858968</v>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>9.010088955988069</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7.138479497058844</v>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1545,17 +2277,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="C41" t="n">
+        <v>207.0299987792969</v>
+      </c>
+      <c r="D41" t="n">
+        <v>218.3337519216007</v>
+      </c>
+      <c r="E41" t="n">
+        <v>193.1346362974328</v>
+      </c>
+      <c r="F41" t="n">
+        <v>75.96266667616261</v>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5455570086577382</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0853149483401331</v>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1572,17 +2322,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="C42" t="n">
+        <v>223.4299926757812</v>
+      </c>
+      <c r="D42" t="n">
+        <v>221.4912457747477</v>
+      </c>
+      <c r="E42" t="n">
+        <v>169.0523028092367</v>
+      </c>
+      <c r="F42" t="n">
+        <v>86.77470650934694</v>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>6.921510015483335</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.246130033699969</v>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1599,17 +2367,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="C43" t="n">
+        <v>23.92000007629395</v>
+      </c>
+      <c r="D43" t="n">
+        <v>37.05287570900532</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.97551129916945</v>
+      </c>
+      <c r="F43" t="n">
+        <v>85.07673158483198</v>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2319582036567915</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.4293929989442629</v>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1626,17 +2412,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="C44" t="n">
+        <v>636.8300170898438</v>
+      </c>
+      <c r="D44" t="n">
+        <v>671.0147131192476</v>
+      </c>
+      <c r="E44" t="n">
+        <v>606.7968910421688</v>
+      </c>
+      <c r="F44" t="n">
+        <v>60.31943220305055</v>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1.070493836817604</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.232876126070837</v>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1653,17 +2457,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="C45" t="n">
+        <v>575.1099853515625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>580.6355401783178</v>
+      </c>
+      <c r="E45" t="n">
+        <v>530.1263931791671</v>
+      </c>
+      <c r="F45" t="n">
+        <v>85.50328660806208</v>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>5.689910960898828</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.526355065914159</v>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1680,17 +2502,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="C46" t="n">
+        <v>218.8500061035156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>228.1648825493939</v>
+      </c>
+      <c r="E46" t="n">
+        <v>199.3802790362601</v>
+      </c>
+      <c r="F46" t="n">
+        <v>72.265148939022</v>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1.877605989793807</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.537490336558349</v>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1707,17 +2547,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="C47" t="n">
+        <v>161.3899993896484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>171.9836994185629</v>
+      </c>
+      <c r="E47" t="n">
+        <v>146.5133989504203</v>
+      </c>
+      <c r="F47" t="n">
+        <v>40.311069489261</v>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.2290941566102162</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.111176192150155</v>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1734,17 +2592,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="C48" t="n">
+        <v>209.7799987792969</v>
+      </c>
+      <c r="D48" t="n">
+        <v>222.316213004496</v>
+      </c>
+      <c r="E48" t="n">
+        <v>198.9450780071913</v>
+      </c>
+      <c r="F48" t="n">
+        <v>45.90212433359387</v>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.7425117228653733</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.5852380813956723</v>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1761,17 +2637,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="C49" t="n">
+        <v>71.40000152587891</v>
+      </c>
+      <c r="D49" t="n">
+        <v>74.72108553565033</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62.01794733276574</v>
+      </c>
+      <c r="F49" t="n">
+        <v>52.29684646128339</v>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5101114453412663</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.7091781984196606</v>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1788,17 +2682,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="C50" t="n">
+        <v>481.6799926757813</v>
+      </c>
+      <c r="D50" t="n">
+        <v>484.3243234350655</v>
+      </c>
+      <c r="E50" t="n">
+        <v>426.8324522548287</v>
+      </c>
+      <c r="F50" t="n">
+        <v>77.42433465663839</v>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>4.992425429143452</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.384165336860001</v>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1815,17 +2727,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="C51" t="n">
+        <v>909.3200073242188</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1002.689911533659</v>
+      </c>
+      <c r="E51" t="n">
+        <v>796.516865731336</v>
+      </c>
+      <c r="F51" t="n">
+        <v>52.82068058054482</v>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1.671192097687026</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.905878665421938</v>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1842,17 +2772,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="C52" t="n">
+        <v>577.4000244140625</v>
+      </c>
+      <c r="D52" t="n">
+        <v>619.3655273754067</v>
+      </c>
+      <c r="E52" t="n">
+        <v>451.4238275026804</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60.41790650003306</v>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>7.126397151222591</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7.814858311652907</v>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1869,17 +2817,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="C53" t="n">
+        <v>265.6099853515625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>266.8383801802818</v>
+      </c>
+      <c r="E53" t="n">
+        <v>215.8025893730196</v>
+      </c>
+      <c r="F53" t="n">
+        <v>92.18269471516102</v>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>6.086386290786834</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.065432921508379</v>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1896,17 +2862,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="C54" t="n">
+        <v>847.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1104.149233749345</v>
+      </c>
+      <c r="E54" t="n">
+        <v>637.8256000775202</v>
+      </c>
+      <c r="F54" t="n">
+        <v>74.50736404331917</v>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>-7.26357974366033</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-20.17414716335407</v>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1923,17 +2907,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="C55" t="n">
+        <v>491.2699890136719</v>
+      </c>
+      <c r="D55" t="n">
+        <v>504.7374521784959</v>
+      </c>
+      <c r="E55" t="n">
+        <v>423.4925440412621</v>
+      </c>
+      <c r="F55" t="n">
+        <v>64.82096379628761</v>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>6.585796951054704</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.953436239135995</v>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1950,17 +2952,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="C56" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="D56" t="n">
+        <v>309.7135375996237</v>
+      </c>
+      <c r="E56" t="n">
+        <v>239.6903310448446</v>
+      </c>
+      <c r="F56" t="n">
+        <v>77.63876378690178</v>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>5.632552037850985</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.442870949930615</v>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1977,17 +2997,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="C57" t="n">
+        <v>74.31999969482422</v>
+      </c>
+      <c r="D57" t="n">
+        <v>77.20418841311553</v>
+      </c>
+      <c r="E57" t="n">
+        <v>63.14000458398629</v>
+      </c>
+      <c r="F57" t="n">
+        <v>40.57146261820095</v>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.905332921959456</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.204436484166528</v>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2004,17 +3042,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="C58" t="n">
+        <v>89.44999694824219</v>
+      </c>
+      <c r="D58" t="n">
+        <v>93.90255012056924</v>
+      </c>
+      <c r="E58" t="n">
+        <v>73.98744926907921</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46.71640567352628</v>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1.028359673625673</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.380131111355849</v>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2031,17 +3087,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="C59" t="n">
+        <v>567.8400268554688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>568.9355132559386</v>
+      </c>
+      <c r="E59" t="n">
+        <v>456.5873877253492</v>
+      </c>
+      <c r="F59" t="n">
+        <v>96.51671159086276</v>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>14.48231253560709</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10.22223548573819</v>
+      </c>
+      <c r="K59" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2058,17 +3132,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="C60" t="n">
+        <v>113.0899963378906</v>
+      </c>
+      <c r="D60" t="n">
+        <v>129.8520677882109</v>
+      </c>
+      <c r="E60" t="n">
+        <v>108.0918025101132</v>
+      </c>
+      <c r="F60" t="n">
+        <v>31.16574238663907</v>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.5772737567164512</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.3110689460218745</v>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2085,17 +3177,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="C61" t="n">
+        <v>104.5999984741211</v>
+      </c>
+      <c r="D61" t="n">
+        <v>107.3343272226385</v>
+      </c>
+      <c r="E61" t="n">
+        <v>93.85341421078201</v>
+      </c>
+      <c r="F61" t="n">
+        <v>78.66859631637153</v>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8401815109406954</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2634248108865201</v>
+      </c>
+      <c r="K61" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2112,17 +3222,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="C62" t="n">
+        <v>431.3099975585938</v>
+      </c>
+      <c r="D62" t="n">
+        <v>464.9954929041336</v>
+      </c>
+      <c r="E62" t="n">
+        <v>389.826439980821</v>
+      </c>
+      <c r="F62" t="n">
+        <v>75.12304403485004</v>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4.092365158025302</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.984787282454053</v>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2139,17 +3267,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="C63" t="n">
+        <v>109.879997253418</v>
+      </c>
+      <c r="D63" t="n">
+        <v>135.8336806191676</v>
+      </c>
+      <c r="E63" t="n">
+        <v>73.26244827526918</v>
+      </c>
+      <c r="F63" t="n">
+        <v>78.35423499335189</v>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.4415197650584446</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-2.866851195648449</v>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2166,17 +3312,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="C64" t="n">
+        <v>83.45999908447266</v>
+      </c>
+      <c r="D64" t="n">
+        <v>86.60106840876358</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69.05732003669067</v>
+      </c>
+      <c r="F64" t="n">
+        <v>64.21566244182901</v>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1.476891143655052</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.611224427711716</v>
+      </c>
+      <c r="K64" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2193,17 +3357,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="C65" t="n">
+        <v>711.4299926757812</v>
+      </c>
+      <c r="D65" t="n">
+        <v>728.9432471645794</v>
+      </c>
+      <c r="E65" t="n">
+        <v>606.0525571606474</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70.47533548826783</v>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>11.97292482237742</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10.26244051258228</v>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2220,17 +3402,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="C66" t="n">
+        <v>89.38999938964844</v>
+      </c>
+      <c r="D66" t="n">
+        <v>88.25608643641735</v>
+      </c>
+      <c r="E66" t="n">
+        <v>67.91681656296836</v>
+      </c>
+      <c r="F66" t="n">
+        <v>80.24861914840591</v>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2.134063581723922</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.301576713899196</v>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2247,17 +3447,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E67" s="4" t="inlineStr">
+      <c r="C67" t="n">
+        <v>884.8599853515625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>922.1058330593764</v>
+      </c>
+      <c r="E67" t="n">
+        <v>717.6751393291066</v>
+      </c>
+      <c r="F67" t="n">
+        <v>65.5425084611586</v>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>22.66493791014307</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.12847544558373</v>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2274,17 +3492,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="C68" t="n">
+        <v>124.0400009155273</v>
+      </c>
+      <c r="D68" t="n">
+        <v>135.7396709803436</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100.2932323832841</v>
+      </c>
+      <c r="F68" t="n">
+        <v>79.06275736663142</v>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1.123764154612218</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.0546934702894807</v>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2301,17 +3537,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="C69" t="n">
+        <v>124.3000030517578</v>
+      </c>
+      <c r="D69" t="n">
+        <v>144.6680352279135</v>
+      </c>
+      <c r="E69" t="n">
+        <v>122.9271259639652</v>
+      </c>
+      <c r="F69" t="n">
+        <v>40.2508651572594</v>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>-2.187786448067641</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1.11379732926335</v>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2328,17 +3582,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="C70" t="n">
+        <v>168.1000061035156</v>
+      </c>
+      <c r="D70" t="n">
+        <v>167.2005990249418</v>
+      </c>
+      <c r="E70" t="n">
+        <v>120.8952067277202</v>
+      </c>
+      <c r="F70" t="n">
+        <v>78.49556228284428</v>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>7.482246987928335</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6.964127512403115</v>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2355,17 +3627,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E71" s="4" t="inlineStr">
+      <c r="C71" t="n">
+        <v>338.7300109863281</v>
+      </c>
+      <c r="D71" t="n">
+        <v>364.9299847611854</v>
+      </c>
+      <c r="E71" t="n">
+        <v>308.1935641771967</v>
+      </c>
+      <c r="F71" t="n">
+        <v>52.43678117446949</v>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.3187745504221198</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5333255200894718</v>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2382,17 +3672,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
+      <c r="C72" t="n">
+        <v>169.6900024414062</v>
+      </c>
+      <c r="D72" t="n">
+        <v>181.4239491804963</v>
+      </c>
+      <c r="E72" t="n">
+        <v>162.2950828609919</v>
+      </c>
+      <c r="F72" t="n">
+        <v>24.41480925037203</v>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.9326089067638748</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1218518803823435</v>
+      </c>
+      <c r="K72" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2409,17 +3717,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E73" s="4" t="inlineStr">
+      <c r="C73" t="n">
+        <v>28.96999931335449</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30.76895475162068</v>
+      </c>
+      <c r="E73" t="n">
+        <v>27.58362565727549</v>
+      </c>
+      <c r="F73" t="n">
+        <v>54.84633441822253</v>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0620810248844883</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1081198738236505</v>
+      </c>
+      <c r="K73" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2436,17 +3762,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E74" s="4" t="inlineStr">
+      <c r="C74" t="n">
+        <v>173.2100067138672</v>
+      </c>
+      <c r="D74" t="n">
+        <v>177.4454959386144</v>
+      </c>
+      <c r="E74" t="n">
+        <v>161.8483740643783</v>
+      </c>
+      <c r="F74" t="n">
+        <v>44.48566715384414</v>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.7389905560192176</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.214521679213109</v>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2463,17 +3807,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E75" s="4" t="inlineStr">
+      <c r="C75" t="n">
+        <v>120.8499984741211</v>
+      </c>
+      <c r="D75" t="n">
+        <v>131.6277486783263</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100.4383799601565</v>
+      </c>
+      <c r="F75" t="n">
+        <v>33.22057870842356</v>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.4893414053626657</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.335195887000838</v>
+      </c>
+      <c r="K75" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2490,17 +3852,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D76" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr">
+      <c r="C76" t="n">
+        <v>80.08000183105469</v>
+      </c>
+      <c r="D76" t="n">
+        <v>79.17665024750059</v>
+      </c>
+      <c r="E76" t="n">
+        <v>53.88270435002178</v>
+      </c>
+      <c r="F76" t="n">
+        <v>84.3462463269766</v>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2.81689846430919</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.232315855237073</v>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2517,17 +3897,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
+      <c r="C77" t="n">
+        <v>172.6600036621094</v>
+      </c>
+      <c r="D77" t="n">
+        <v>207.9826979426789</v>
+      </c>
+      <c r="E77" t="n">
+        <v>145.5808504837954</v>
+      </c>
+      <c r="F77" t="n">
+        <v>69.77318220487415</v>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.4912301955781402</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1.418138314188866</v>
+      </c>
+      <c r="K77" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2544,17 +3942,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="C78" t="n">
+        <v>489.4700012207031</v>
+      </c>
+      <c r="D78" t="n">
+        <v>504.6747502049478</v>
+      </c>
+      <c r="E78" t="n">
+        <v>440.875248416839</v>
+      </c>
+      <c r="F78" t="n">
+        <v>90.04324126709199</v>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4.917810278243735</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.722372155016304</v>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2571,17 +3987,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
+      <c r="C79" t="n">
+        <v>120.3199996948242</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128.9524697341987</v>
+      </c>
+      <c r="E79" t="n">
+        <v>98.71269115250428</v>
+      </c>
+      <c r="F79" t="n">
+        <v>57.27554508644204</v>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.8562482950337795</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.057216538504453</v>
+      </c>
+      <c r="K79" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2598,17 +4032,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
+      <c r="C80" t="n">
+        <v>97.47000122070312</v>
+      </c>
+      <c r="D80" t="n">
+        <v>105.5721413238884</v>
+      </c>
+      <c r="E80" t="n">
+        <v>65.26753654830796</v>
+      </c>
+      <c r="F80" t="n">
+        <v>67.75279747870093</v>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2.018353410755054</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.524666829053764</v>
+      </c>
+      <c r="K80" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2625,17 +4077,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
+      <c r="C81" t="n">
+        <v>63.84000015258789</v>
+      </c>
+      <c r="D81" t="n">
+        <v>73.76483371009775</v>
+      </c>
+      <c r="E81" t="n">
+        <v>57.68419873500999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>55.91939352970879</v>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.09570672156182521</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.2707659894678785</v>
+      </c>
+      <c r="K81" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2652,17 +4122,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
+      <c r="C82" t="n">
+        <v>511.7000122070313</v>
+      </c>
+      <c r="D82" t="n">
+        <v>535.4186908889016</v>
+      </c>
+      <c r="E82" t="n">
+        <v>453.0884069091076</v>
+      </c>
+      <c r="F82" t="n">
+        <v>51.03475149162225</v>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>5.194550664614098</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7.18372779402498</v>
+      </c>
+      <c r="K82" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2679,17 +4167,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr">
+      <c r="C83" t="n">
+        <v>572.2999877929688</v>
+      </c>
+      <c r="D83" t="n">
+        <v>577.1848313472364</v>
+      </c>
+      <c r="E83" t="n">
+        <v>527.3993617286204</v>
+      </c>
+      <c r="F83" t="n">
+        <v>86.91636649919367</v>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>5.528207405485887</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.360941009092549</v>
+      </c>
+      <c r="K83" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2706,17 +4212,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
+      <c r="C84" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="D84" t="n">
+        <v>374.9566741484281</v>
+      </c>
+      <c r="E84" t="n">
+        <v>314.3610699528194</v>
+      </c>
+      <c r="F84" t="n">
+        <v>53.18311994205096</v>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4.143613767114175</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.736051119302576</v>
+      </c>
+      <c r="K84" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2733,17 +4257,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
+      <c r="C85" t="n">
+        <v>21.64999961853028</v>
+      </c>
+      <c r="D85" t="n">
+        <v>22.03357341292642</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17.63094260535656</v>
+      </c>
+      <c r="F85" t="n">
+        <v>60.69182767166736</v>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.4747108610086883</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5302958324488527</v>
+      </c>
+      <c r="K85" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2760,17 +4302,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
+      <c r="C86" t="n">
+        <v>118.0800018310547</v>
+      </c>
+      <c r="D86" t="n">
+        <v>121.4991944330947</v>
+      </c>
+      <c r="E86" t="n">
+        <v>107.6569339888118</v>
+      </c>
+      <c r="F86" t="n">
+        <v>62.30000480652222</v>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7178614815438493</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9575689596086456</v>
+      </c>
+      <c r="K86" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2787,17 +4347,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
+      <c r="C87" t="n">
+        <v>619.3300170898438</v>
+      </c>
+      <c r="D87" t="n">
+        <v>651.8880720649448</v>
+      </c>
+      <c r="E87" t="n">
+        <v>530.4396670353575</v>
+      </c>
+      <c r="F87" t="n">
+        <v>54.64359606609416</v>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2.613104895605716</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.959895340985105</v>
+      </c>
+      <c r="K87" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2814,17 +4392,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="C88" t="n">
+        <v>254.2200012207031</v>
+      </c>
+      <c r="D88" t="n">
+        <v>264.9463723353695</v>
+      </c>
+      <c r="E88" t="n">
+        <v>189.0220153914451</v>
+      </c>
+      <c r="F88" t="n">
+        <v>81.61072033102208</v>
+      </c>
+      <c r="G88" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>9.577140131840141</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6.311552747906563</v>
+      </c>
+      <c r="K88" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2841,17 +4437,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="C89" t="n">
+        <v>186.8300018310547</v>
+      </c>
+      <c r="D89" t="n">
+        <v>189.6427582448533</v>
+      </c>
+      <c r="E89" t="n">
+        <v>150.8159514719435</v>
+      </c>
+      <c r="F89" t="n">
+        <v>83.02882375681868</v>
+      </c>
+      <c r="G89" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3.751637154967796</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.726674624498964</v>
+      </c>
+      <c r="K89" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2868,17 +4482,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="C90" t="n">
+        <v>209.259994506836</v>
+      </c>
+      <c r="D90" t="n">
+        <v>213.2962774776853</v>
+      </c>
+      <c r="E90" t="n">
+        <v>188.1766263584728</v>
+      </c>
+      <c r="F90" t="n">
+        <v>64.65624720690914</v>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1.217791864307799</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.6859463089662597</v>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2895,17 +4527,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="inlineStr">
+      <c r="C91" t="n">
+        <v>76.69000244140625</v>
+      </c>
+      <c r="D91" t="n">
+        <v>78.42856262405601</v>
+      </c>
+      <c r="E91" t="n">
+        <v>62.04724395061164</v>
+      </c>
+      <c r="F91" t="n">
+        <v>68.83940368701008</v>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1.585683888102324</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.047465076526539</v>
+      </c>
+      <c r="K91" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2922,17 +4572,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
+      <c r="C92" t="n">
+        <v>574.8099975585938</v>
+      </c>
+      <c r="D92" t="n">
+        <v>628.6423985044888</v>
+      </c>
+      <c r="E92" t="n">
+        <v>501.4305060207759</v>
+      </c>
+      <c r="F92" t="n">
+        <v>29.90355127388571</v>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.8034101086968803</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.115380797855594</v>
+      </c>
+      <c r="K92" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2949,17 +4617,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
+      <c r="C93" t="n">
+        <v>243.229995727539</v>
+      </c>
+      <c r="D93" t="n">
+        <v>259.988342204546</v>
+      </c>
+      <c r="E93" t="n">
+        <v>224.7823039214936</v>
+      </c>
+      <c r="F93" t="n">
+        <v>40.67598347321289</v>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.00075089208309</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.231133358217463</v>
+      </c>
+      <c r="K93" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2976,17 +4662,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
+      <c r="C94" t="n">
+        <v>133.3300018310547</v>
+      </c>
+      <c r="D94" t="n">
+        <v>142.9888439598457</v>
+      </c>
+      <c r="E94" t="n">
+        <v>119.3366397929895</v>
+      </c>
+      <c r="F94" t="n">
+        <v>66.05656921102441</v>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.5799773642821151</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1174463027301929</v>
+      </c>
+      <c r="K94" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3003,17 +4707,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
+      <c r="C95" t="n">
+        <v>271.6900024414062</v>
+      </c>
+      <c r="D95" t="n">
+        <v>289.6222658763868</v>
+      </c>
+      <c r="E95" t="n">
+        <v>250.7864432497473</v>
+      </c>
+      <c r="F95" t="n">
+        <v>41.86441664242072</v>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1.653099650098</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.047659658168035</v>
+      </c>
+      <c r="K95" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -3030,17 +4752,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="C96" t="n">
+        <v>527.7000122070312</v>
+      </c>
+      <c r="D96" t="n">
+        <v>531.0387317301896</v>
+      </c>
+      <c r="E96" t="n">
+        <v>484.3932002884596</v>
+      </c>
+      <c r="F96" t="n">
+        <v>90.21226359183945</v>
+      </c>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>5.497703403898868</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.229622071197362</v>
+      </c>
+      <c r="K96" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3057,17 +4797,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="C97" t="n">
+        <v>44.61999893188477</v>
+      </c>
+      <c r="D97" t="n">
+        <v>44.70569328831923</v>
+      </c>
+      <c r="E97" t="n">
+        <v>38.56011309438301</v>
+      </c>
+      <c r="F97" t="n">
+        <v>78.58315815273235</v>
+      </c>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8658363714916746</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.827181565714825</v>
+      </c>
+      <c r="K97" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3084,17 +4842,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr">
+      <c r="C98" t="n">
+        <v>56.38999938964844</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.1906592024789</v>
+      </c>
+      <c r="E98" t="n">
+        <v>50.94417927093341</v>
+      </c>
+      <c r="F98" t="n">
+        <v>58.36248858126906</v>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.2807676118431743</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.4349451546214669</v>
+      </c>
+      <c r="K98" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3111,17 +4887,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
+      <c r="C99" t="n">
+        <v>79.91999816894531</v>
+      </c>
+      <c r="D99" t="n">
+        <v>82.24819729302533</v>
+      </c>
+      <c r="E99" t="n">
+        <v>64.19373735407333</v>
+      </c>
+      <c r="F99" t="n">
+        <v>63.42061559592932</v>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1.759008151029121</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.865074296388382</v>
+      </c>
+      <c r="K99" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -3138,17 +4932,35 @@
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="E100" s="3" t="inlineStr">
+      <c r="C100" t="n">
+        <v>112.8000030517578</v>
+      </c>
+      <c r="D100" t="n">
+        <v>120.2474650324484</v>
+      </c>
+      <c r="E100" t="n">
+        <v>110.61930900359</v>
+      </c>
+      <c r="F100" t="n">
+        <v>50.37244781255284</v>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.2036852952601151</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.4203760588456724</v>
+      </c>
+      <c r="K100" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>

--- a/portfolios/portfolio.xlsx
+++ b/portfolios/portfolio.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,27 +487,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Signal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Momentum</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RSI signal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MA signal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Signal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MACD Signal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Momentum Signal</t>
         </is>
       </c>
     </row>
@@ -534,23 +544,31 @@
       <c r="F2" t="n">
         <v>61.96428678473706</v>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1.167263978051295</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6054055665690726</v>
       </c>
       <c r="I2" t="n">
-        <v>1.167263978051295</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6054055665690726</v>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+        <v>1.080239338842784</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -579,25 +597,33 @@
       <c r="F3" t="n">
         <v>46.2834476104637</v>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.3161585843020305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.110502653856231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3161585843020305</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.110502653856231</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.118819899232568</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -624,25 +650,33 @@
       <c r="F4" t="n">
         <v>45.96717672691945</v>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.5981797249991132</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.278742458678598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5981797249991132</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.278742458678598</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.084881141218171</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -669,23 +703,31 @@
       <c r="F5" t="n">
         <v>33.09637299021556</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G5" t="n">
+        <v>-10.44587390987783</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-6.379760633203002</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.44587390987783</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-6.379760633203002</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+        <v>0.9277100213613168</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -714,25 +756,33 @@
       <c r="F6" t="n">
         <v>59.34024769976354</v>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G6" t="n">
+        <v>2.763807013378994</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.781731321244157</v>
       </c>
       <c r="I6" t="n">
-        <v>2.763807013378994</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.781731321244157</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.149733922111583</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -759,25 +809,33 @@
       <c r="F7" t="n">
         <v>81.06952433097271</v>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0.5656684222625188</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2.486396256070291</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5656684222625188</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-2.486396256070291</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8882155842672894</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -804,23 +862,31 @@
       <c r="F8" t="n">
         <v>88.75114592510994</v>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G8" t="n">
+        <v>4.004716115735533</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.955620752995722</v>
       </c>
       <c r="I8" t="n">
-        <v>4.004716115735533</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.955620752995722</v>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
+        <v>1.032550388759989</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -849,25 +915,33 @@
       <c r="F9" t="n">
         <v>48.60953437232427</v>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G9" t="n">
+        <v>-0.5485135242529964</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.03816933369286</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5485135242529964</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.03816933369286</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.021283384978964</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -894,25 +968,33 @@
       <c r="F10" t="n">
         <v>82.42043444208397</v>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G10" t="n">
+        <v>4.159588280951027</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.118393493641597</v>
       </c>
       <c r="I10" t="n">
-        <v>4.159588280951027</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.118393493641597</v>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9891850124818078</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -939,25 +1021,33 @@
       <c r="F11" t="n">
         <v>71.32100249322629</v>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G11" t="n">
+        <v>-14.53526967713549</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-22.92679773974312</v>
       </c>
       <c r="I11" t="n">
-        <v>-14.53526967713549</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-22.92679773974312</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8334946845409827</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -984,23 +1074,31 @@
       <c r="F12" t="n">
         <v>88.66929471258452</v>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G12" t="n">
+        <v>4.967628982114888</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.857071660703359</v>
       </c>
       <c r="I12" t="n">
-        <v>4.967628982114888</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.857071660703359</v>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
+        <v>1.109228748410117</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1029,23 +1127,31 @@
       <c r="F13" t="n">
         <v>75.53531974910476</v>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G13" t="n">
+        <v>5.305334595616955</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.683788597275992</v>
       </c>
       <c r="I13" t="n">
-        <v>5.305334595616955</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.683788597275992</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
+        <v>1.158065171074714</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1074,25 +1180,33 @@
       <c r="F14" t="n">
         <v>56.73760831982857</v>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G14" t="n">
+        <v>-0.0032524616430293</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.0095715018544325</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0032524616430293</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.0095715018544325</v>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9937138547366751</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1119,23 +1233,31 @@
       <c r="F15" t="n">
         <v>94.3666081013556</v>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G15" t="n">
+        <v>114.5938274552045</v>
+      </c>
+      <c r="H15" t="n">
+        <v>83.7537189746723</v>
       </c>
       <c r="I15" t="n">
-        <v>114.5938274552045</v>
-      </c>
-      <c r="J15" t="n">
-        <v>83.7537189746723</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
+        <v>1.077606952267134</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1164,25 +1286,33 @@
       <c r="F16" t="n">
         <v>58.53365098054319</v>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G16" t="n">
+        <v>0.5838019749720473</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5973181135946853</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5838019749720473</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5973181135946853</v>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.206838439804387</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1209,23 +1339,31 @@
       <c r="F17" t="n">
         <v>76.32849671776515</v>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G17" t="n">
+        <v>5.10582446346433</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.881062877181913</v>
       </c>
       <c r="I17" t="n">
-        <v>5.10582446346433</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.881062877181913</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
+        <v>1.239660722435855</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1254,25 +1392,33 @@
       <c r="F18" t="n">
         <v>59.87932788861779</v>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G18" t="n">
+        <v>0.1558978432537756</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.167748823951006</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1558978432537756</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-0.167748823951006</v>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9724235735069812</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1299,25 +1445,33 @@
       <c r="F19" t="n">
         <v>59.81012150857826</v>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G19" t="n">
+        <v>0.0082008213409322</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0096500479652093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0082008213409322</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0096500479652093</v>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.039999961853027</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1344,23 +1498,31 @@
       <c r="F20" t="n">
         <v>85.83897267159574</v>
       </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G20" t="n">
+        <v>10.92062322820448</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.317660296613534</v>
       </c>
       <c r="I20" t="n">
-        <v>10.92062322820448</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.317660296613534</v>
-      </c>
-      <c r="K20" s="3" t="inlineStr">
+        <v>1.173701543954886</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1389,23 +1551,31 @@
       <c r="F21" t="n">
         <v>62.01022235075075</v>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G21" t="n">
+        <v>0.3489159060238691</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1791720266228732</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3489159060238691</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1791720266228732</v>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
+        <v>1.047497462145023</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1434,23 +1604,31 @@
       <c r="F22" t="n">
         <v>40.56940012497154</v>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
+      <c r="G22" t="n">
+        <v>-0.8864492728469457</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.7751088496389174</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8864492728469457</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-0.7751088496389174</v>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+        <v>0.8944745586233741</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1479,25 +1657,33 @@
       <c r="F23" t="n">
         <v>60.21789484183557</v>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G23" t="n">
+        <v>9.313179756333623</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.69053014062218</v>
       </c>
       <c r="I23" t="n">
-        <v>9.313179756333623</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.69053014062218</v>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.06053013894063</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1524,23 +1710,31 @@
       <c r="F24" t="n">
         <v>84.60700249495859</v>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G24" t="n">
+        <v>4.534152335192061</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.934324100298974</v>
       </c>
       <c r="I24" t="n">
-        <v>4.534152335192061</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.934324100298974</v>
-      </c>
-      <c r="K24" s="3" t="inlineStr">
+        <v>1.072578775648089</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1569,25 +1763,33 @@
       <c r="F25" t="n">
         <v>73.38398309433055</v>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G25" t="n">
+        <v>5.207117467551768</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.714333292768755</v>
       </c>
       <c r="I25" t="n">
-        <v>5.207117467551768</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.714333292768755</v>
-      </c>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.7345703415875765</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1614,23 +1816,31 @@
       <c r="F26" t="n">
         <v>91.27135906096136</v>
       </c>
-      <c r="G26" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H26" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G26" t="n">
+        <v>1.02888905132501</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8012487691570993</v>
       </c>
       <c r="I26" t="n">
-        <v>1.02888905132501</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8012487691570993</v>
-      </c>
-      <c r="K26" s="3" t="inlineStr">
+        <v>1.112397397205708</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1659,25 +1869,33 @@
       <c r="F27" t="n">
         <v>57.51790247741791</v>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G27" t="n">
+        <v>0.1196239885051824</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0383849194728327</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1196239885051824</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.0383849194728327</v>
-      </c>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9991533516661849</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1704,25 +1922,33 @@
       <c r="F28" t="n">
         <v>58.85392746829091</v>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G28" t="n">
+        <v>-0.5117601331303661</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.085311754860729</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5117601331303661</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-1.085311754860729</v>
-      </c>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9077484155178434</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1749,23 +1975,31 @@
       <c r="F29" t="n">
         <v>80.68951048513105</v>
       </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G29" t="n">
+        <v>9.472977935295605</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.337528009282895</v>
       </c>
       <c r="I29" t="n">
-        <v>9.472977935295605</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8.337528009282895</v>
-      </c>
-      <c r="K29" s="3" t="inlineStr">
+        <v>1.101276652954462</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1794,25 +2028,33 @@
       <c r="F30" t="n">
         <v>61.99954131446169</v>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G30" t="n">
+        <v>1.75813305737978</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.858110351420534</v>
       </c>
       <c r="I30" t="n">
-        <v>1.75813305737978</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.858110351420534</v>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.108384974627722</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1839,25 +2081,33 @@
       <c r="F31" t="n">
         <v>89.2856612055427</v>
       </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G31" t="n">
+        <v>1.09986117704311</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5654973850124327</v>
       </c>
       <c r="I31" t="n">
-        <v>1.09986117704311</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5654973850124327</v>
-      </c>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9588074939110457</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1884,23 +2134,31 @@
       <c r="F32" t="n">
         <v>28.39165921765228</v>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G32" t="n">
+        <v>-3.822071530334711</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.323057070901566</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.822071530334711</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-0.323057070901566</v>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
+        <v>0.9601742947660432</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -1929,23 +2187,31 @@
       <c r="F33" t="n">
         <v>92.42449554118984</v>
       </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G33" t="n">
+        <v>9.116972264142476</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.799934615352232</v>
       </c>
       <c r="I33" t="n">
-        <v>9.116972264142476</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.799934615352232</v>
-      </c>
-      <c r="K33" s="3" t="inlineStr">
+        <v>1.062095365902418</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -1974,23 +2240,31 @@
       <c r="F34" t="n">
         <v>39.74971554755832</v>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
+      <c r="G34" t="n">
+        <v>-6.51671884012211</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-3.731603859013528</v>
       </c>
       <c r="I34" t="n">
-        <v>-6.51671884012211</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-3.731603859013528</v>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+        <v>0.8882403609428328</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2019,23 +2293,31 @@
       <c r="F35" t="n">
         <v>81.58464482049052</v>
       </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G35" t="n">
+        <v>5.494879737199909</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.260598932481348</v>
       </c>
       <c r="I35" t="n">
-        <v>5.494879737199909</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.260598932481348</v>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
+        <v>1.161162451534604</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2064,23 +2346,31 @@
       <c r="F36" t="n">
         <v>83.9070726479093</v>
       </c>
-      <c r="G36" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H36" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G36" t="n">
+        <v>4.371756810410261</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.437604877232423</v>
       </c>
       <c r="I36" t="n">
-        <v>4.371756810410261</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.437604877232423</v>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
+        <v>1.148690768045606</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2109,25 +2399,33 @@
       <c r="F37" t="n">
         <v>77.43902744507514</v>
       </c>
-      <c r="G37" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G37" t="n">
+        <v>-0.3967138472127089</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1.675569726226815</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3967138472127089</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-1.675569726226815</v>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8931959626351834</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2154,25 +2452,33 @@
       <c r="F38" t="n">
         <v>77.58063803432631</v>
       </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G38" t="n">
+        <v>-0.3082216310671697</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1.544992513363707</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.3082216310671697</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-1.544992513363707</v>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8933845796339598</v>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2199,23 +2505,31 @@
       <c r="F39" t="n">
         <v>59.7896320320992</v>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G39" t="n">
+        <v>1.271278088868087</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.0156401111570039</v>
       </c>
       <c r="I39" t="n">
-        <v>1.271278088868087</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-0.0156401111570039</v>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
+        <v>1.098602771005764</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2244,23 +2558,31 @@
       <c r="F40" t="n">
         <v>89.58737684858968</v>
       </c>
-      <c r="G40" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H40" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G40" t="n">
+        <v>9.010088955988069</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.138479497058844</v>
       </c>
       <c r="I40" t="n">
-        <v>9.010088955988069</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.138479497058844</v>
-      </c>
-      <c r="K40" s="3" t="inlineStr">
+        <v>1.152393746981398</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2289,25 +2611,33 @@
       <c r="F41" t="n">
         <v>75.96266667616261</v>
       </c>
-      <c r="G41" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G41" t="n">
+        <v>0.5455570086577382</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0853149483401331</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5455570086577382</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.0853149483401331</v>
-      </c>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9695139331670163</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2334,23 +2664,31 @@
       <c r="F42" t="n">
         <v>86.77470650934694</v>
       </c>
-      <c r="G42" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H42" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G42" t="n">
+        <v>6.921510015483335</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.246130033699969</v>
       </c>
       <c r="I42" t="n">
-        <v>6.921510015483335</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.246130033699969</v>
-      </c>
-      <c r="K42" s="3" t="inlineStr">
+        <v>1.291876245263224</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2379,25 +2717,33 @@
       <c r="F43" t="n">
         <v>85.07673158483198</v>
       </c>
-      <c r="G43" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G43" t="n">
+        <v>0.2319582036567915</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.4293929989442629</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2319582036567915</v>
-      </c>
-      <c r="J43" t="n">
-        <v>-0.4293929989442629</v>
-      </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.7723603683122934</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2424,23 +2770,31 @@
       <c r="F44" t="n">
         <v>60.31943220305055</v>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G44" t="n">
+        <v>1.070493836817604</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.232876126070837</v>
       </c>
       <c r="I44" t="n">
-        <v>1.070493836817604</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.232876126070837</v>
-      </c>
-      <c r="K44" s="4" t="inlineStr">
+        <v>0.9689901185291717</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -2469,23 +2823,31 @@
       <c r="F45" t="n">
         <v>85.50328660806208</v>
       </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G45" t="n">
+        <v>5.689910960898828</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.526355065914159</v>
       </c>
       <c r="I45" t="n">
-        <v>5.689910960898828</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.526355065914159</v>
-      </c>
-      <c r="K45" s="3" t="inlineStr">
+        <v>1.050947509964514</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2514,23 +2876,31 @@
       <c r="F46" t="n">
         <v>72.265148939022</v>
       </c>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G46" t="n">
+        <v>1.877605989793807</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.537490336558349</v>
       </c>
       <c r="I46" t="n">
-        <v>1.877605989793807</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.537490336558349</v>
-      </c>
-      <c r="K46" s="3" t="inlineStr">
+        <v>1.078663348424661</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2559,25 +2929,33 @@
       <c r="F47" t="n">
         <v>40.311069489261</v>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G47" t="n">
+        <v>0.2290941566102162</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.111176192150155</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2290941566102162</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.111176192150155</v>
-      </c>
-      <c r="K47" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.104200843910401</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2604,25 +2982,33 @@
       <c r="F48" t="n">
         <v>45.90212433359387</v>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G48" t="n">
+        <v>-0.7425117228653733</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.5852380813956723</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.7425117228653733</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-0.5852380813956723</v>
-      </c>
-      <c r="K48" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.037179889630654</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2649,25 +3035,33 @@
       <c r="F49" t="n">
         <v>52.29684646128339</v>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G49" t="n">
+        <v>0.5101114453412663</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.7091781984196606</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5101114453412663</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7091781984196606</v>
-      </c>
-      <c r="K49" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.121759620019003</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2694,23 +3088,31 @@
       <c r="F50" t="n">
         <v>77.42433465663839</v>
       </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G50" t="n">
+        <v>4.992425429143452</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.384165336860001</v>
       </c>
       <c r="I50" t="n">
-        <v>4.992425429143452</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.384165336860001</v>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
+        <v>1.097696030983121</v>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2739,25 +3141,33 @@
       <c r="F51" t="n">
         <v>52.82068058054482</v>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G51" t="n">
+        <v>1.671192097687026</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.905878665421938</v>
       </c>
       <c r="I51" t="n">
-        <v>1.671192097687026</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.905878665421938</v>
-      </c>
-      <c r="K51" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.004351766573325</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M51" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2784,25 +3194,33 @@
       <c r="F52" t="n">
         <v>60.41790650003306</v>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G52" t="n">
+        <v>7.126397151222591</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7.814858311652907</v>
       </c>
       <c r="I52" t="n">
-        <v>7.126397151222591</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7.814858311652907</v>
-      </c>
-      <c r="K52" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.236137908090934</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2829,23 +3247,31 @@
       <c r="F53" t="n">
         <v>92.18269471516102</v>
       </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G53" t="n">
+        <v>6.086386290786834</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.065432921508379</v>
       </c>
       <c r="I53" t="n">
-        <v>6.086386290786834</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.065432921508379</v>
-      </c>
-      <c r="K53" s="3" t="inlineStr">
+        <v>1.204798953382484</v>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M53" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -2874,25 +3300,33 @@
       <c r="F54" t="n">
         <v>74.50736404331917</v>
       </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G54" t="n">
+        <v>-7.26357974366033</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-20.17414716335407</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.26357974366033</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-20.17414716335407</v>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.7958867628593973</v>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2919,25 +3353,33 @@
       <c r="F55" t="n">
         <v>64.82096379628761</v>
       </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G55" t="n">
+        <v>6.585796951054704</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.953436239135995</v>
       </c>
       <c r="I55" t="n">
-        <v>6.585796951054704</v>
-      </c>
-      <c r="J55" t="n">
-        <v>7.953436239135995</v>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.113586873097278</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2964,23 +3406,31 @@
       <c r="F56" t="n">
         <v>77.63876378690178</v>
       </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G56" t="n">
+        <v>5.632552037850985</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.442870949930615</v>
       </c>
       <c r="I56" t="n">
-        <v>5.632552037850985</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.442870949930615</v>
-      </c>
-      <c r="K56" s="3" t="inlineStr">
+        <v>1.191531934782627</v>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3009,25 +3459,33 @@
       <c r="F57" t="n">
         <v>40.57146261820095</v>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G57" t="n">
+        <v>0.905332921959456</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.204436484166528</v>
       </c>
       <c r="I57" t="n">
-        <v>0.905332921959456</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.204436484166528</v>
-      </c>
-      <c r="K57" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.135696774482381</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M57" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3054,25 +3512,33 @@
       <c r="F58" t="n">
         <v>46.71640567352628</v>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G58" t="n">
+        <v>1.028359673625673</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.380131111355849</v>
       </c>
       <c r="I58" t="n">
-        <v>1.028359673625673</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.380131111355849</v>
-      </c>
-      <c r="K58" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.136450234896372</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3099,23 +3565,31 @@
       <c r="F59" t="n">
         <v>96.51671159086276</v>
       </c>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G59" t="n">
+        <v>14.48231253560709</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10.22223548573819</v>
       </c>
       <c r="I59" t="n">
-        <v>14.48231253560709</v>
-      </c>
-      <c r="J59" t="n">
-        <v>10.22223548573819</v>
-      </c>
-      <c r="K59" s="3" t="inlineStr">
+        <v>1.126175132840314</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M59" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3144,23 +3618,31 @@
       <c r="F60" t="n">
         <v>31.16574238663907</v>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G60" t="n">
+        <v>-0.5772737567164512</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.3110689460218745</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.5772737567164512</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-0.3110689460218745</v>
-      </c>
-      <c r="K60" s="4" t="inlineStr">
+        <v>0.9134894470932317</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -3189,23 +3671,31 @@
       <c r="F61" t="n">
         <v>78.66859631637153</v>
       </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G61" t="n">
+        <v>0.8401815109406954</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2634248108865201</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8401815109406954</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2634248108865201</v>
-      </c>
-      <c r="K61" s="3" t="inlineStr">
+        <v>1.076242369035665</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3234,25 +3724,33 @@
       <c r="F62" t="n">
         <v>75.12304403485004</v>
       </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G62" t="n">
+        <v>4.092365158025302</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.984787282454053</v>
       </c>
       <c r="I62" t="n">
-        <v>4.092365158025302</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.984787282454053</v>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9650072396883771</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -3279,25 +3777,33 @@
       <c r="F63" t="n">
         <v>78.35423499335189</v>
       </c>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G63" t="n">
+        <v>-0.4415197650584446</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-2.866851195648449</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.4415197650584446</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-2.866851195648449</v>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8353987552131972</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L63" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -3324,25 +3830,33 @@
       <c r="F64" t="n">
         <v>64.21566244182901</v>
       </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G64" t="n">
+        <v>1.476891143655052</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.611224427711716</v>
       </c>
       <c r="I64" t="n">
-        <v>1.476891143655052</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.611224427711716</v>
-      </c>
-      <c r="K64" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.178647111453595</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3369,23 +3883,31 @@
       <c r="F65" t="n">
         <v>70.47533548826783</v>
       </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G65" t="n">
+        <v>11.97292482237742</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10.26244051258228</v>
       </c>
       <c r="I65" t="n">
-        <v>11.97292482237742</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.26244051258228</v>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
+        <v>1.054157757717708</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L65" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M65" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3414,23 +3936,31 @@
       <c r="F66" t="n">
         <v>80.24861914840591</v>
       </c>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H66" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G66" t="n">
+        <v>2.134063581723922</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.301576713899196</v>
       </c>
       <c r="I66" t="n">
-        <v>2.134063581723922</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.301576713899196</v>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
+        <v>1.18601560477855</v>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3459,25 +3989,33 @@
       <c r="F67" t="n">
         <v>65.5425084611586</v>
       </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G67" t="n">
+        <v>22.66493791014307</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23.12847544558373</v>
       </c>
       <c r="I67" t="n">
-        <v>22.66493791014307</v>
-      </c>
-      <c r="J67" t="n">
-        <v>23.12847544558373</v>
-      </c>
-      <c r="K67" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.124817273538477</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3504,23 +4042,31 @@
       <c r="F68" t="n">
         <v>79.06275736663142</v>
       </c>
-      <c r="G68" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G68" t="n">
+        <v>1.123764154612218</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.0546934702894807</v>
       </c>
       <c r="I68" t="n">
-        <v>1.123764154612218</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-0.0546934702894807</v>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
+        <v>1.004047272108585</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3549,23 +4095,31 @@
       <c r="F69" t="n">
         <v>40.2508651572594</v>
       </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G69" t="n">
+        <v>-2.187786448067641</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-1.11379732926335</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.187786448067641</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-1.11379732926335</v>
-      </c>
-      <c r="K69" s="4" t="inlineStr">
+        <v>0.8708140554030638</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -3594,23 +4148,31 @@
       <c r="F70" t="n">
         <v>78.49556228284428</v>
       </c>
-      <c r="G70" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H70" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G70" t="n">
+        <v>7.482246987928335</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6.964127512403115</v>
       </c>
       <c r="I70" t="n">
-        <v>7.482246987928335</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.964127512403115</v>
-      </c>
-      <c r="K70" s="3" t="inlineStr">
+        <v>1.190509983970707</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3639,23 +4201,31 @@
       <c r="F71" t="n">
         <v>52.43678117446949</v>
       </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G71" t="n">
+        <v>-0.3187745504221198</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.5333255200894718</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.3187745504221198</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5333255200894718</v>
-      </c>
-      <c r="K71" s="4" t="inlineStr">
+        <v>0.9991740692863599</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
@@ -3684,25 +4254,33 @@
       <c r="F72" t="n">
         <v>24.41480925037203</v>
       </c>
-      <c r="G72" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G72" t="n">
+        <v>-0.9326089067638748</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.1218518803823435</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.9326089067638748</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.1218518803823435</v>
-      </c>
-      <c r="K72" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.028860789286411</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3729,25 +4307,33 @@
       <c r="F73" t="n">
         <v>54.84633441822253</v>
       </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G73" t="n">
+        <v>0.0620810248844883</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.1081198738236505</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0620810248844883</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.1081198738236505</v>
-      </c>
-      <c r="K73" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.035382408410112</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M73" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3774,25 +4360,33 @@
       <c r="F74" t="n">
         <v>44.48566715384414</v>
       </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G74" t="n">
+        <v>0.7389905560192176</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.214521679213109</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7389905560192176</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.214521679213109</v>
-      </c>
-      <c r="K74" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.050266848392937</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3819,25 +4413,33 @@
       <c r="F75" t="n">
         <v>33.22057870842356</v>
       </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G75" t="n">
+        <v>0.4893414053626657</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.335195887000838</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4893414053626657</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.335195887000838</v>
-      </c>
-      <c r="K75" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.192637879111181</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M75" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3864,23 +4466,31 @@
       <c r="F76" t="n">
         <v>84.3462463269766</v>
       </c>
-      <c r="G76" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H76" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
+      <c r="G76" t="n">
+        <v>2.81689846430919</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.232315855237073</v>
       </c>
       <c r="I76" t="n">
-        <v>2.81689846430919</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.232315855237073</v>
-      </c>
-      <c r="K76" s="3" t="inlineStr">
+        <v>1.37997593513003</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3909,25 +4519,33 @@
       <c r="F77" t="n">
         <v>69.77318220487415</v>
       </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G77" t="n">
+        <v>-0.4912301955781402</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-1.418138314188866</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.4912301955781402</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-1.418138314188866</v>
-      </c>
-      <c r="K77" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8668541520792189</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L77" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -3954,23 +4572,31 @@
       <c r="F78" t="n">
         <v>90.04324126709199</v>
       </c>
-      <c r="G78" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G78" t="n">
+        <v>4.917810278243735</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.722372155016304</v>
       </c>
       <c r="I78" t="n">
-        <v>4.917810278243735</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.722372155016304</v>
-      </c>
-      <c r="K78" s="3" t="inlineStr">
+        <v>1.021623460553715</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -3999,25 +4625,33 @@
       <c r="F79" t="n">
         <v>57.27554508644204</v>
       </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G79" t="n">
+        <v>0.8562482950337795</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.057216538504453</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8562482950337795</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.057216538504453</v>
-      </c>
-      <c r="K79" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.198525753823551</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L79" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M79" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4044,25 +4678,33 @@
       <c r="F80" t="n">
         <v>67.75279747870093</v>
       </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G80" t="n">
+        <v>2.018353410755054</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.524666829053764</v>
       </c>
       <c r="I80" t="n">
-        <v>2.018353410755054</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.524666829053764</v>
-      </c>
-      <c r="K80" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.252023161607436</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L80" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4089,25 +4731,33 @@
       <c r="F81" t="n">
         <v>55.91939352970879</v>
       </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G81" t="n">
+        <v>-0.09570672156182521</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.2707659894678785</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.09570672156182521</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-0.2707659894678785</v>
-      </c>
-      <c r="K81" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.8663319044309915</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -4134,25 +4784,33 @@
       <c r="F82" t="n">
         <v>51.03475149162225</v>
       </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G82" t="n">
+        <v>5.194550664614098</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7.18372779402498</v>
       </c>
       <c r="I82" t="n">
-        <v>5.194550664614098</v>
-      </c>
-      <c r="J82" t="n">
-        <v>7.18372779402498</v>
-      </c>
-      <c r="K82" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.147309444410384</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L82" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4179,23 +4837,31 @@
       <c r="F83" t="n">
         <v>86.91636649919367</v>
       </c>
-      <c r="G83" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G83" t="n">
+        <v>5.528207405485887</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4.360941009092549</v>
       </c>
       <c r="I83" t="n">
-        <v>5.528207405485887</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4.360941009092549</v>
-      </c>
-      <c r="K83" s="3" t="inlineStr">
+        <v>1.051596814893736</v>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L83" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M83" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4224,25 +4890,33 @@
       <c r="F84" t="n">
         <v>53.18311994205096</v>
       </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G84" t="n">
+        <v>4.143613767114175</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5.736051119302576</v>
       </c>
       <c r="I84" t="n">
-        <v>4.143613767114175</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.736051119302576</v>
-      </c>
-      <c r="K84" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.062013243507761</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L84" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4269,25 +4943,33 @@
       <c r="F85" t="n">
         <v>60.69182767166736</v>
       </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G85" t="n">
+        <v>0.4747108610086883</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.5302958324488527</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4747108610086883</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5302958324488527</v>
-      </c>
-      <c r="K85" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.132914648197491</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L85" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M85" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4314,25 +4996,33 @@
       <c r="F86" t="n">
         <v>62.30000480652222</v>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G86" t="n">
+        <v>0.7178614815438493</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9575689596086456</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7178614815438493</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.9575689596086456</v>
-      </c>
-      <c r="K86" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.072479595527054</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L86" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4359,25 +5049,33 @@
       <c r="F87" t="n">
         <v>54.64359606609416</v>
       </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G87" t="n">
+        <v>2.613104895605716</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.959895340985105</v>
       </c>
       <c r="I87" t="n">
-        <v>2.613104895605716</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.959895340985105</v>
-      </c>
-      <c r="K87" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.119945781355956</v>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L87" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M87" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4404,23 +5102,31 @@
       <c r="F88" t="n">
         <v>81.61072033102208</v>
       </c>
-      <c r="G88" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G88" t="n">
+        <v>9.577140131840141</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6.311552747906563</v>
       </c>
       <c r="I88" t="n">
-        <v>9.577140131840141</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.311552747906563</v>
-      </c>
-      <c r="K88" s="3" t="inlineStr">
+        <v>1.284717985383394</v>
+      </c>
+      <c r="J88" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4449,23 +5155,31 @@
       <c r="F89" t="n">
         <v>83.02882375681868</v>
       </c>
-      <c r="G89" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G89" t="n">
+        <v>3.751637154967796</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.726674624498964</v>
       </c>
       <c r="I89" t="n">
-        <v>3.751637154967796</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.726674624498964</v>
-      </c>
-      <c r="K89" s="3" t="inlineStr">
+        <v>1.07490940944333</v>
+      </c>
+      <c r="J89" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L89" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M89" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4494,23 +5208,31 @@
       <c r="F90" t="n">
         <v>64.65624720690914</v>
       </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G90" t="n">
+        <v>1.217791864307799</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6859463089662597</v>
       </c>
       <c r="I90" t="n">
-        <v>1.217791864307799</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6859463089662597</v>
-      </c>
-      <c r="K90" s="3" t="inlineStr">
+        <v>1.075720947000318</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4539,23 +5261,31 @@
       <c r="F91" t="n">
         <v>68.83940368701008</v>
       </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G91" t="n">
+        <v>1.585683888102324</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.047465076526539</v>
       </c>
       <c r="I91" t="n">
-        <v>1.585683888102324</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.047465076526539</v>
-      </c>
-      <c r="K91" s="3" t="inlineStr">
+        <v>1.055173391846352</v>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L91" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M91" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4584,25 +5314,33 @@
       <c r="F92" t="n">
         <v>29.90355127388571</v>
       </c>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G92" t="n">
+        <v>-0.8034101086968803</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.115380797855594</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.8034101086968803</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.115380797855594</v>
-      </c>
-      <c r="K92" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.128716149974424</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L92" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4629,25 +5367,33 @@
       <c r="F93" t="n">
         <v>40.67598347321289</v>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G93" t="n">
+        <v>0.00075089208309</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.231133358217463</v>
       </c>
       <c r="I93" t="n">
-        <v>0.00075089208309</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.231133358217463</v>
-      </c>
-      <c r="K93" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.075002217063125</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L93" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M93" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4674,25 +5420,33 @@
       <c r="F94" t="n">
         <v>66.05656921102441</v>
       </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G94" t="n">
+        <v>0.5799773642821151</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.1174463027301929</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5799773642821151</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.1174463027301929</v>
-      </c>
-      <c r="K94" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9742783769421366</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M94" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -4719,25 +5473,33 @@
       <c r="F95" t="n">
         <v>41.86441664242072</v>
       </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G95" t="n">
+        <v>1.653099650098</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.047659658168035</v>
       </c>
       <c r="I95" t="n">
-        <v>1.653099650098</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4.047659658168035</v>
-      </c>
-      <c r="K95" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.035127828619737</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L95" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M95" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4764,23 +5526,31 @@
       <c r="F96" t="n">
         <v>90.21226359183945</v>
       </c>
-      <c r="G96" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G96" t="n">
+        <v>5.497703403898868</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.229622071197362</v>
       </c>
       <c r="I96" t="n">
-        <v>5.497703403898868</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4.229622071197362</v>
-      </c>
-      <c r="K96" s="3" t="inlineStr">
+        <v>1.055125681432928</v>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4809,23 +5579,31 @@
       <c r="F97" t="n">
         <v>78.58315815273235</v>
       </c>
-      <c r="G97" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G97" t="n">
+        <v>0.8658363714916746</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.827181565714825</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8658363714916746</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.827181565714825</v>
-      </c>
-      <c r="K97" s="3" t="inlineStr">
+        <v>1.081959192915911</v>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L97" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M97" s="3" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
@@ -4854,25 +5632,33 @@
       <c r="F98" t="n">
         <v>58.36248858126906</v>
       </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G98" t="n">
+        <v>-0.2807676118431743</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.4349451546214669</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.2807676118431743</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-0.4349451546214669</v>
-      </c>
-      <c r="K98" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9494864450104221</v>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M98" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -4899,25 +5685,33 @@
       <c r="F99" t="n">
         <v>63.42061559592932</v>
       </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G99" t="n">
+        <v>1.759008151029121</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.865074296388382</v>
       </c>
       <c r="I99" t="n">
-        <v>1.759008151029121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.865074296388382</v>
-      </c>
-      <c r="K99" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+        <v>1.180327857769425</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L99" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="M99" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4944,25 +5738,33 @@
       <c r="F100" t="n">
         <v>50.37244781255284</v>
       </c>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
-        </is>
+      <c r="G100" t="n">
+        <v>-0.2036852952601151</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.4203760588456724</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.2036852952601151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-0.4203760588456724</v>
-      </c>
-      <c r="K100" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+        <v>0.9798471191845665</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+      <c r="L100" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>

--- a/portfolios/portfolio.xlsx
+++ b/portfolios/portfolio.xlsx
@@ -536,22 +536,22 @@
         <v>227.5200042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>234.4621039962046</v>
+        <v>233.586793139817</v>
       </c>
       <c r="E2" t="n">
-        <v>211.7178970472996</v>
+        <v>154.5617554786227</v>
       </c>
       <c r="F2" t="n">
         <v>61.96428678473706</v>
       </c>
       <c r="G2" t="n">
-        <v>1.167263978051295</v>
+        <v>1.230903626875829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6054055665690726</v>
+        <v>0.6989017858456537</v>
       </c>
       <c r="I2" t="n">
-        <v>1.080239338842784</v>
+        <v>1.293352525011241</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -589,22 +589,22 @@
         <v>191.8999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>208.1830422738253</v>
+        <v>200.4670762545045</v>
       </c>
       <c r="E3" t="n">
-        <v>164.4692138611923</v>
+        <v>134.5133259228754</v>
       </c>
       <c r="F3" t="n">
         <v>46.2834476104637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3161585843020305</v>
+        <v>0.3484506796686446</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110502653856231</v>
+        <v>1.157871317484508</v>
       </c>
       <c r="I3" t="n">
-        <v>1.118819899232568</v>
+        <v>1.30455307855976</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -642,22 +642,22 @@
         <v>112.7300033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>119.4812046238025</v>
+        <v>121.3699012231831</v>
       </c>
       <c r="E4" t="n">
-        <v>99.65976271451341</v>
+        <v>93.66840510537504</v>
       </c>
       <c r="F4" t="n">
         <v>45.96717672691945</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5981797249991132</v>
+        <v>0.5910066564677976</v>
       </c>
       <c r="H4" t="n">
-        <v>1.278742458678598</v>
+        <v>1.268248821027004</v>
       </c>
       <c r="I4" t="n">
-        <v>1.084881141218171</v>
+        <v>1.158884347133693</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -695,22 +695,22 @@
         <v>515.3800048828125</v>
       </c>
       <c r="D5" t="n">
-        <v>591.1944749757961</v>
+        <v>642.8492464156647</v>
       </c>
       <c r="E5" t="n">
-        <v>507.7877815136192</v>
+        <v>448.7122841590109</v>
       </c>
       <c r="F5" t="n">
         <v>33.09637299021556</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.44587390987783</v>
+        <v>-9.996961508720004</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.379760633203002</v>
+        <v>-5.721939117026475</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9277100213613168</v>
+        <v>1.063381436402124</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -727,9 +727,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -748,31 +748,31 @@
         <v>274.4299926757812</v>
       </c>
       <c r="D6" t="n">
-        <v>290.2602369098678</v>
+        <v>273.523809406069</v>
       </c>
       <c r="E6" t="n">
-        <v>231.8891200552279</v>
+        <v>218.3955462940239</v>
       </c>
       <c r="F6" t="n">
         <v>59.34024769976354</v>
       </c>
       <c r="G6" t="n">
-        <v>2.763807013378994</v>
+        <v>2.712619418341604</v>
       </c>
       <c r="H6" t="n">
-        <v>3.781731321244157</v>
+        <v>3.706770092682721</v>
       </c>
       <c r="I6" t="n">
-        <v>1.149733922111583</v>
+        <v>1.101474742199958</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -801,22 +801,22 @@
         <v>209.6100006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>248.6529855592442</v>
+        <v>250.4276762180594</v>
       </c>
       <c r="E7" t="n">
-        <v>161.662497780127</v>
+        <v>124.9921617336007</v>
       </c>
       <c r="F7" t="n">
         <v>81.06952433097271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5656684222625188</v>
+        <v>0.6296323992051498</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.486396256070291</v>
+        <v>-2.392492567548784</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8882155842672894</v>
+        <v>1.518385851708102</v>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
@@ -833,9 +833,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>167.4900054931641</v>
       </c>
       <c r="D8" t="n">
-        <v>179.6009392797407</v>
+        <v>201.7070563306422</v>
       </c>
       <c r="E8" t="n">
-        <v>123.4851911701081</v>
+        <v>100.8411691337172</v>
       </c>
       <c r="F8" t="n">
         <v>88.75114592510994</v>
       </c>
       <c r="G8" t="n">
-        <v>4.004716115735533</v>
+        <v>4.015793611380218</v>
       </c>
       <c r="H8" t="n">
-        <v>1.955620752995722</v>
+        <v>1.971785708971706</v>
       </c>
       <c r="I8" t="n">
-        <v>1.032550388759989</v>
+        <v>1.426939143996238</v>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
@@ -907,22 +907,22 @@
         <v>319.1000061035156</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2548169544693</v>
+        <v>344.0966499736445</v>
       </c>
       <c r="E9" t="n">
-        <v>312.2638942586733</v>
+        <v>249.0201261543245</v>
       </c>
       <c r="F9" t="n">
         <v>48.60953437232427</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5485135242529964</v>
+        <v>-0.5008827149864601</v>
       </c>
       <c r="H9" t="n">
-        <v>1.03816933369286</v>
+        <v>1.108076211476422</v>
       </c>
       <c r="I9" t="n">
-        <v>1.021283384978964</v>
+        <v>1.221846786194517</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -960,22 +960,22 @@
         <v>191.1600036621093</v>
       </c>
       <c r="D10" t="n">
-        <v>203.1312034099544</v>
+        <v>207.8391894749726</v>
       </c>
       <c r="E10" t="n">
-        <v>161.4810555011784</v>
+        <v>128.9387945288943</v>
       </c>
       <c r="F10" t="n">
         <v>82.42043444208397</v>
       </c>
       <c r="G10" t="n">
-        <v>4.159588280951027</v>
+        <v>4.217476552894112</v>
       </c>
       <c r="H10" t="n">
-        <v>3.118393493641597</v>
+        <v>3.203234071813353</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9891850124818078</v>
+        <v>1.371774966228763</v>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
@@ -992,9 +992,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1013,22 +1013,22 @@
         <v>852.4400024414062</v>
       </c>
       <c r="D11" t="n">
-        <v>1084.415162447494</v>
+        <v>1129.975678724164</v>
       </c>
       <c r="E11" t="n">
-        <v>707.2283823956263</v>
+        <v>573.5017382680235</v>
       </c>
       <c r="F11" t="n">
         <v>71.32100249322629</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.53526967713549</v>
+        <v>-14.41669518535707</v>
       </c>
       <c r="H11" t="n">
-        <v>-22.92679773974312</v>
+        <v>-22.752209657744</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8334946845409827</v>
+        <v>1.594438166336896</v>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
@@ -1045,9 +1045,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
         <v>178.0899963378906</v>
       </c>
       <c r="D12" t="n">
-        <v>180.9891793039275</v>
+        <v>182.4394681654907</v>
       </c>
       <c r="E12" t="n">
-        <v>138.8533696817076</v>
+        <v>77.10677384087268</v>
       </c>
       <c r="F12" t="n">
         <v>88.66929471258452</v>
       </c>
       <c r="G12" t="n">
-        <v>4.967628982114888</v>
+        <v>5.022921760206856</v>
       </c>
       <c r="H12" t="n">
-        <v>2.857071660703359</v>
+        <v>2.938369778313428</v>
       </c>
       <c r="I12" t="n">
-        <v>1.109228748410117</v>
+        <v>1.989699975063636</v>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
@@ -1119,22 +1119,22 @@
         <v>268.1499938964844</v>
       </c>
       <c r="D13" t="n">
-        <v>269.9339476263152</v>
+        <v>282.4305533968472</v>
       </c>
       <c r="E13" t="n">
-        <v>226.6473403729917</v>
+        <v>141.961945727003</v>
       </c>
       <c r="F13" t="n">
         <v>75.53531974910476</v>
       </c>
       <c r="G13" t="n">
-        <v>5.305334595616955</v>
+        <v>5.306680180418255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.683788597275992</v>
+        <v>4.6856759945774</v>
       </c>
       <c r="I13" t="n">
-        <v>1.158065171074714</v>
+        <v>1.669119662371211</v>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
@@ -1172,22 +1172,22 @@
         <v>39.52000045776367</v>
       </c>
       <c r="D14" t="n">
-        <v>43.28190413514838</v>
+        <v>44.70699035900972</v>
       </c>
       <c r="E14" t="n">
-        <v>36.90777270338803</v>
+        <v>26.27559005665445</v>
       </c>
       <c r="F14" t="n">
         <v>56.73760831982857</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0032524616430293</v>
+        <v>0.0006217805139741</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0095715018544325</v>
+        <v>-0.003891975054313</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9937138547366751</v>
+        <v>1.461797665319617</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
@@ -1204,9 +1204,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
         <v>4268.93994140625</v>
       </c>
       <c r="D15" t="n">
-        <v>4255.682837238588</v>
+        <v>4209.882313962855</v>
       </c>
       <c r="E15" t="n">
-        <v>3388.751331423206</v>
+        <v>2894.752107108844</v>
       </c>
       <c r="F15" t="n">
         <v>94.3666081013556</v>
       </c>
       <c r="G15" t="n">
-        <v>114.5938274552045</v>
+        <v>115.320146799042</v>
       </c>
       <c r="H15" t="n">
-        <v>83.7537189746723</v>
+        <v>84.82081240883223</v>
       </c>
       <c r="I15" t="n">
-        <v>1.077606952267134</v>
+        <v>1.174839001862447</v>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
@@ -1278,22 +1278,22 @@
         <v>50.11999893188477</v>
       </c>
       <c r="D16" t="n">
-        <v>53.81762037841882</v>
+        <v>57.31943667058958</v>
       </c>
       <c r="E16" t="n">
-        <v>39.71915416460506</v>
+        <v>40.06096660197767</v>
       </c>
       <c r="F16" t="n">
         <v>58.53365098054319</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5838019749720473</v>
+        <v>0.5784733742345338</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5973181135946853</v>
+        <v>0.5894973102492578</v>
       </c>
       <c r="I16" t="n">
-        <v>1.206838439804387</v>
+        <v>0.8489196526482309</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -1310,9 +1310,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1331,31 +1331,31 @@
         <v>153.4700012207031</v>
       </c>
       <c r="D17" t="n">
-        <v>157.8353622366199</v>
+        <v>150.3840807066689</v>
       </c>
       <c r="E17" t="n">
-        <v>118.6381861603212</v>
+        <v>96.79398357811721</v>
       </c>
       <c r="F17" t="n">
         <v>76.32849671776515</v>
       </c>
       <c r="G17" t="n">
-        <v>5.10582446346433</v>
+        <v>5.114202849047047</v>
       </c>
       <c r="H17" t="n">
-        <v>4.881062877181913</v>
+        <v>4.893355292916684</v>
       </c>
       <c r="I17" t="n">
-        <v>1.239660722435855</v>
+        <v>1.271649865766518</v>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
@@ -1384,22 +1384,22 @@
         <v>61.70999908447266</v>
       </c>
       <c r="D18" t="n">
-        <v>67.86267878366382</v>
+        <v>71.38209922483135</v>
       </c>
       <c r="E18" t="n">
-        <v>55.7899020928404</v>
+        <v>40.39636856878712</v>
       </c>
       <c r="F18" t="n">
         <v>59.87932788861779</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1558978432537756</v>
+        <v>0.1729042660496063</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.167748823951006</v>
+        <v>-0.1428787599970555</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9724235735069812</v>
+        <v>1.494320998957128</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1416,9 +1416,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1437,22 +1437,22 @@
         <v>1.039999961853027</v>
       </c>
       <c r="D19" t="n">
-        <v>1.186264163686531</v>
+        <v>2.337094991940469</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8005422808968694</v>
+        <v>0.4619775818020903</v>
       </c>
       <c r="F19" t="n">
         <v>59.81012150857826</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0082008213409322</v>
+        <v>0.0077324570994674</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0096500479652093</v>
+        <v>0.0089652416566123</v>
       </c>
       <c r="I19" t="n">
-        <v>1.039999961853027</v>
+        <v>0.4505434680145609</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
@@ -1469,9 +1469,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1490,31 +1490,31 @@
         <v>390.9599914550781</v>
       </c>
       <c r="D20" t="n">
-        <v>373.7386318275739</v>
+        <v>397.5304675543069</v>
       </c>
       <c r="E20" t="n">
-        <v>313.995237171292</v>
+        <v>237.4030799271069</v>
       </c>
       <c r="F20" t="n">
         <v>85.83897267159574</v>
       </c>
       <c r="G20" t="n">
-        <v>10.92062322820448</v>
+        <v>10.92240099661092</v>
       </c>
       <c r="H20" t="n">
-        <v>6.317660296613534</v>
+        <v>6.319996373801965</v>
       </c>
       <c r="I20" t="n">
-        <v>1.173701543954886</v>
+        <v>1.272044800145917</v>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
@@ -1543,22 +1543,22 @@
         <v>41.02000045776367</v>
       </c>
       <c r="D21" t="n">
-        <v>41.31829709984777</v>
+        <v>45.49182649619492</v>
       </c>
       <c r="E21" t="n">
-        <v>37.49299277973577</v>
+        <v>36.73341538022266</v>
       </c>
       <c r="F21" t="n">
         <v>62.01022235075075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3489159060238691</v>
+        <v>0.3543987156139963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1791720266228732</v>
+        <v>0.1871801237910296</v>
       </c>
       <c r="I21" t="n">
-        <v>1.047497462145023</v>
+        <v>0.8882894800359468</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1575,9 +1575,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1596,31 +1596,31 @@
         <v>102.3099975585938</v>
       </c>
       <c r="D22" t="n">
-        <v>116.9726999103979</v>
+        <v>129.1589748114242</v>
       </c>
       <c r="E22" t="n">
-        <v>103.0063330367732</v>
+        <v>102.1449769442225</v>
       </c>
       <c r="F22" t="n">
         <v>40.56940012497154</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.8864492728469457</v>
+        <v>-0.887577068389021</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.7751088496389174</v>
+        <v>-0.7768444767500102</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8944745586233741</v>
+        <v>0.9498719453998562</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1649,22 +1649,22 @@
         <v>901.4400024414062</v>
       </c>
       <c r="D23" t="n">
-        <v>930.7753893150142</v>
+        <v>955.4242276615028</v>
       </c>
       <c r="E23" t="n">
-        <v>803.8546135989224</v>
+        <v>522.3913398473178</v>
       </c>
       <c r="F23" t="n">
         <v>60.21789484183557</v>
       </c>
       <c r="G23" t="n">
-        <v>9.313179756333623</v>
+        <v>9.440559431519432</v>
       </c>
       <c r="H23" t="n">
-        <v>10.69053014062218</v>
+        <v>10.87789032785696</v>
       </c>
       <c r="I23" t="n">
-        <v>1.06053013894063</v>
+        <v>1.535681117668444</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -1702,31 +1702,31 @@
         <v>275.760009765625</v>
       </c>
       <c r="D24" t="n">
-        <v>271.370083474361</v>
+        <v>318.2649371758764</v>
       </c>
       <c r="E24" t="n">
-        <v>239.6921723850139</v>
+        <v>200.7318365746748</v>
       </c>
       <c r="F24" t="n">
         <v>84.60700249495859</v>
       </c>
       <c r="G24" t="n">
-        <v>4.534152335192061</v>
+        <v>4.605915592734846</v>
       </c>
       <c r="H24" t="n">
-        <v>1.934324100298974</v>
+        <v>2.039021565019112</v>
       </c>
       <c r="I24" t="n">
-        <v>1.072578775648089</v>
+        <v>1.290020126080694</v>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
@@ -1755,22 +1755,22 @@
         <v>281.4800109863281</v>
       </c>
       <c r="D25" t="n">
-        <v>386.6034739848059</v>
+        <v>399.8131167157119</v>
       </c>
       <c r="E25" t="n">
-        <v>181.6029789078666</v>
+        <v>166.8732942497462</v>
       </c>
       <c r="F25" t="n">
         <v>73.38398309433055</v>
       </c>
       <c r="G25" t="n">
-        <v>5.207117467551768</v>
+        <v>5.360127657778094</v>
       </c>
       <c r="H25" t="n">
-        <v>1.714333292768755</v>
+        <v>1.939053943223706</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7345703415875765</v>
+        <v>1.536451578093116</v>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
@@ -1787,9 +1787,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -1808,31 +1808,31 @@
         <v>52.84999847412109</v>
       </c>
       <c r="D26" t="n">
-        <v>52.80525532913926</v>
+        <v>53.60141463715752</v>
       </c>
       <c r="E26" t="n">
-        <v>44.17571277703828</v>
+        <v>44.83044025692679</v>
       </c>
       <c r="F26" t="n">
         <v>91.27135906096136</v>
       </c>
       <c r="G26" t="n">
-        <v>1.02888905132501</v>
+        <v>1.034755984598647</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8012487691570993</v>
+        <v>0.8098332049389609</v>
       </c>
       <c r="I26" t="n">
-        <v>1.112397397205708</v>
+        <v>0.8922595941145233</v>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
@@ -1840,9 +1840,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M26" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
         <v>59.0099983215332</v>
       </c>
       <c r="D27" t="n">
-        <v>61.04872532018688</v>
+        <v>83.34322091852533</v>
       </c>
       <c r="E27" t="n">
-        <v>55.38869432506104</v>
+        <v>50.7227469181623</v>
       </c>
       <c r="F27" t="n">
         <v>57.51790247741791</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1196239885051824</v>
+        <v>0.1110446601752883</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0383849194728327</v>
+        <v>-0.0509325727734833</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9991533516661849</v>
+        <v>0.8259434546825585</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -1914,22 +1914,22 @@
         <v>141.9900054931641</v>
       </c>
       <c r="D28" t="n">
-        <v>162.3217838080517</v>
+        <v>167.284197613063</v>
       </c>
       <c r="E28" t="n">
-        <v>135.5269267750507</v>
+        <v>137.9246739207308</v>
       </c>
       <c r="F28" t="n">
         <v>58.85392746829091</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5117601331303661</v>
+        <v>-0.5159224614093603</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.085311754860729</v>
+        <v>-1.091442908391282</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9077484155178434</v>
+        <v>0.8814699709969385</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -1967,22 +1967,22 @@
         <v>411.4700012207031</v>
       </c>
       <c r="D29" t="n">
-        <v>412.1625946164929</v>
+        <v>413.1816331455138</v>
       </c>
       <c r="E29" t="n">
-        <v>339.2832160091372</v>
+        <v>349.9240940194623</v>
       </c>
       <c r="F29" t="n">
         <v>80.68951048513105</v>
       </c>
       <c r="G29" t="n">
-        <v>9.472977935295605</v>
+        <v>9.436788162723817</v>
       </c>
       <c r="H29" t="n">
-        <v>8.337528009282895</v>
+        <v>8.284435011800767</v>
       </c>
       <c r="I29" t="n">
-        <v>1.101276652954462</v>
+        <v>0.9984485700354506</v>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
@@ -1999,9 +1999,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M29" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -2020,22 +2020,22 @@
         <v>276.9299926757812</v>
       </c>
       <c r="D30" t="n">
-        <v>288.0836760293435</v>
+        <v>287.6660833248507</v>
       </c>
       <c r="E30" t="n">
-        <v>240.4124511915487</v>
+        <v>199.2702867864302</v>
       </c>
       <c r="F30" t="n">
         <v>61.99954131446169</v>
       </c>
       <c r="G30" t="n">
-        <v>1.75813305737978</v>
+        <v>1.704868105675132</v>
       </c>
       <c r="H30" t="n">
-        <v>1.858110351420534</v>
+        <v>1.780104169957051</v>
       </c>
       <c r="I30" t="n">
-        <v>1.108384974627722</v>
+        <v>1.260082247826458</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -2073,22 +2073,22 @@
         <v>95.1999969482422</v>
       </c>
       <c r="D31" t="n">
-        <v>99.3339436394546</v>
+        <v>119.2910867503747</v>
       </c>
       <c r="E31" t="n">
-        <v>84.41670141354753</v>
+        <v>76.85584825112169</v>
       </c>
       <c r="F31" t="n">
         <v>89.2856612055427</v>
       </c>
       <c r="G31" t="n">
-        <v>1.09986117704311</v>
+        <v>1.073008392027546</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5654973850124327</v>
+        <v>0.5261568097949656</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9588074939110457</v>
+        <v>1.08718015068218</v>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
@@ -2105,9 +2105,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>520.280029296875</v>
       </c>
       <c r="D32" t="n">
-        <v>561.4110940619596</v>
+        <v>569.6006609747515</v>
       </c>
       <c r="E32" t="n">
-        <v>507.8263287581008</v>
+        <v>442.2974807016283</v>
       </c>
       <c r="F32" t="n">
         <v>28.39165921765228</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.822071530334711</v>
+        <v>-3.763350568672763</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.323057070901566</v>
+        <v>-0.2370802447425232</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9601742947660432</v>
+        <v>1.230650327582652</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -2158,9 +2158,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2179,22 +2179,22 @@
         <v>333.0199890136719</v>
       </c>
       <c r="D33" t="n">
-        <v>336.5580105029704</v>
+        <v>365.6630247056961</v>
       </c>
       <c r="E33" t="n">
-        <v>272.9448935891414</v>
+        <v>195.6902813570638</v>
       </c>
       <c r="F33" t="n">
         <v>92.42449554118984</v>
       </c>
       <c r="G33" t="n">
-        <v>9.116972264142476</v>
+        <v>9.042674781052426</v>
       </c>
       <c r="H33" t="n">
-        <v>5.799934615352232</v>
+        <v>5.691097961925449</v>
       </c>
       <c r="I33" t="n">
-        <v>1.062095365902418</v>
+        <v>1.438641474278845</v>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
@@ -2232,31 +2232,31 @@
         <v>266.3299865722656</v>
       </c>
       <c r="D34" t="n">
-        <v>314.8861898184257</v>
+        <v>304.5085619762403</v>
       </c>
       <c r="E34" t="n">
-        <v>267.1734843522837</v>
+        <v>223.9038561431287</v>
       </c>
       <c r="F34" t="n">
         <v>39.74971554755832</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.51671884012211</v>
+        <v>-6.196922428335029</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.731603859013528</v>
+        <v>-3.263341348155648</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8882403609428328</v>
+        <v>1.071932437018281</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -2264,9 +2264,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2285,22 +2285,22 @@
         <v>184.5899963378907</v>
       </c>
       <c r="D35" t="n">
-        <v>185.6665917925345</v>
+        <v>199.6305989351067</v>
       </c>
       <c r="E35" t="n">
-        <v>152.0666338760958</v>
+        <v>70.26239665313436</v>
       </c>
       <c r="F35" t="n">
         <v>81.58464482049052</v>
       </c>
       <c r="G35" t="n">
-        <v>5.494879737199909</v>
+        <v>5.476151814945524</v>
       </c>
       <c r="H35" t="n">
-        <v>4.260598932481348</v>
+        <v>4.233195494175625</v>
       </c>
       <c r="I35" t="n">
-        <v>1.161162451534604</v>
+        <v>1.957301426537059</v>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
@@ -2338,22 +2338,22 @@
         <v>246.979995727539</v>
       </c>
       <c r="D36" t="n">
-        <v>243.8811368426369</v>
+        <v>243.3502770409933</v>
       </c>
       <c r="E36" t="n">
-        <v>213.1566045415616</v>
+        <v>166.9573837078883</v>
       </c>
       <c r="F36" t="n">
         <v>83.9070726479093</v>
       </c>
       <c r="G36" t="n">
-        <v>4.371756810410261</v>
+        <v>4.367974711105944</v>
       </c>
       <c r="H36" t="n">
-        <v>3.437604877232423</v>
+        <v>3.432042136703795</v>
       </c>
       <c r="I36" t="n">
-        <v>1.148690768045606</v>
+        <v>1.337518489983344</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
@@ -2391,22 +2391,22 @@
         <v>163.8300018310547</v>
       </c>
       <c r="D37" t="n">
-        <v>192.1245819299011</v>
+        <v>189.5864574582448</v>
       </c>
       <c r="E37" t="n">
-        <v>146.5734820743202</v>
+        <v>120.3644289297341</v>
       </c>
       <c r="F37" t="n">
         <v>77.43902744507514</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.3967138472127089</v>
+        <v>-0.3547819249862414</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.675569726226815</v>
+        <v>-1.614029894233479</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8931959626351834</v>
+        <v>1.207146558994575</v>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
@@ -2423,9 +2423,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2444,22 +2444,22 @@
         <v>162.7299957275391</v>
       </c>
       <c r="D38" t="n">
-        <v>190.4098757534262</v>
+        <v>187.9531647961531</v>
       </c>
       <c r="E38" t="n">
-        <v>145.2549639603779</v>
+        <v>119.1601421722897</v>
       </c>
       <c r="F38" t="n">
         <v>77.58063803432631</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.3082216310671697</v>
+        <v>-0.264692909716274</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.544992513363707</v>
+        <v>-1.481114234833175</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8933845796339598</v>
+        <v>1.202206195521079</v>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
@@ -2476,9 +2476,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2497,22 +2497,22 @@
         <v>496.9200134277344</v>
       </c>
       <c r="D39" t="n">
-        <v>516.2603694798687</v>
+        <v>534.7050334861768</v>
       </c>
       <c r="E39" t="n">
-        <v>461.4660837475128</v>
+        <v>290.5700467947424</v>
       </c>
       <c r="F39" t="n">
         <v>59.7896320320992</v>
       </c>
       <c r="G39" t="n">
-        <v>1.271278088868087</v>
+        <v>1.273023271802799</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0156401111570039</v>
+        <v>-0.0130066773271635</v>
       </c>
       <c r="I39" t="n">
-        <v>1.098602771005764</v>
+        <v>1.566781755144967</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -2550,31 +2550,31 @@
         <v>396.7000122070313</v>
       </c>
       <c r="D40" t="n">
-        <v>395.2760465047486</v>
+        <v>400.4332308344208</v>
       </c>
       <c r="E40" t="n">
-        <v>331.7823375599565</v>
+        <v>289.290719705445</v>
       </c>
       <c r="F40" t="n">
         <v>89.58737684858968</v>
       </c>
       <c r="G40" t="n">
-        <v>9.010088955988069</v>
+        <v>9.029723348484538</v>
       </c>
       <c r="H40" t="n">
-        <v>7.138479497058844</v>
+        <v>7.167339883220789</v>
       </c>
       <c r="I40" t="n">
-        <v>1.152393746981398</v>
+        <v>1.200913929392562</v>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
@@ -2603,22 +2603,22 @@
         <v>207.0299987792969</v>
       </c>
       <c r="D41" t="n">
-        <v>218.3337519216007</v>
+        <v>216.9021168105015</v>
       </c>
       <c r="E41" t="n">
-        <v>193.1346362974328</v>
+        <v>182.5249800178362</v>
       </c>
       <c r="F41" t="n">
         <v>75.96266667616261</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5455570086577382</v>
+        <v>0.581538458980134</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0853149483401331</v>
+        <v>0.1381589323318161</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9695139331670163</v>
+        <v>1.086797032202721</v>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
@@ -2635,9 +2635,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2656,22 +2656,22 @@
         <v>223.4299926757812</v>
       </c>
       <c r="D42" t="n">
-        <v>221.4912457747477</v>
+        <v>214.0671909262697</v>
       </c>
       <c r="E42" t="n">
-        <v>169.0523028092367</v>
+        <v>137.2291000558844</v>
       </c>
       <c r="F42" t="n">
         <v>86.77470650934694</v>
       </c>
       <c r="G42" t="n">
-        <v>6.921510015483335</v>
+        <v>6.93815519375184</v>
       </c>
       <c r="H42" t="n">
-        <v>6.246130033699969</v>
+        <v>6.270512364621975</v>
       </c>
       <c r="I42" t="n">
-        <v>1.291876245263224</v>
+        <v>1.37748574392393</v>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
@@ -2709,22 +2709,22 @@
         <v>23.92000007629395</v>
       </c>
       <c r="D43" t="n">
-        <v>37.05287570900532</v>
+        <v>53.09685591297694</v>
       </c>
       <c r="E43" t="n">
-        <v>12.97551129916945</v>
+        <v>18.3308053828831</v>
       </c>
       <c r="F43" t="n">
         <v>85.07673158483198</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2319582036567915</v>
+        <v>0.2319277978797522</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.4293929989442629</v>
+        <v>-0.4294543933157388</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7723603683122934</v>
+        <v>0.5834743674067782</v>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
@@ -2762,22 +2762,22 @@
         <v>636.8300170898438</v>
       </c>
       <c r="D44" t="n">
-        <v>671.0147131192476</v>
+        <v>704.0603928339419</v>
       </c>
       <c r="E44" t="n">
-        <v>606.7968910421688</v>
+        <v>520.6179130073194</v>
       </c>
       <c r="F44" t="n">
         <v>60.31943220305055</v>
       </c>
       <c r="G44" t="n">
-        <v>1.070493836817604</v>
+        <v>1.413292228165574</v>
       </c>
       <c r="H44" t="n">
-        <v>1.232876126070837</v>
+        <v>1.734824714522107</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9689901185291717</v>
+        <v>1.259443858676145</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
@@ -2794,9 +2794,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -2815,22 +2815,22 @@
         <v>575.1099853515625</v>
       </c>
       <c r="D45" t="n">
-        <v>580.6355401783178</v>
+        <v>592.7728294139702</v>
       </c>
       <c r="E45" t="n">
-        <v>530.1263931791671</v>
+        <v>422.1666064833647</v>
       </c>
       <c r="F45" t="n">
         <v>85.50328660806208</v>
       </c>
       <c r="G45" t="n">
-        <v>5.689910960898828</v>
+        <v>5.750586643260476</v>
       </c>
       <c r="H45" t="n">
-        <v>4.526355065914159</v>
+        <v>4.615473279703362</v>
       </c>
       <c r="I45" t="n">
-        <v>1.050947509964514</v>
+        <v>1.29558792511108</v>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
@@ -2868,22 +2868,22 @@
         <v>218.8500061035156</v>
       </c>
       <c r="D46" t="n">
-        <v>228.1648825493939</v>
+        <v>227.996661960234</v>
       </c>
       <c r="E46" t="n">
-        <v>199.3802790362601</v>
+        <v>169.3187420088231</v>
       </c>
       <c r="F46" t="n">
         <v>72.265148939022</v>
       </c>
       <c r="G46" t="n">
-        <v>1.877605989793807</v>
+        <v>1.884723747810739</v>
       </c>
       <c r="H46" t="n">
-        <v>1.537490336558349</v>
+        <v>1.547861450899167</v>
       </c>
       <c r="I46" t="n">
-        <v>1.078663348424661</v>
+        <v>1.218130547275683</v>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
@@ -2921,22 +2921,22 @@
         <v>161.3899993896484</v>
       </c>
       <c r="D47" t="n">
-        <v>171.9836994185629</v>
+        <v>167.1174441515062</v>
       </c>
       <c r="E47" t="n">
-        <v>146.5133989504203</v>
+        <v>143.0244113959989</v>
       </c>
       <c r="F47" t="n">
         <v>40.311069489261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2290941566102162</v>
+        <v>0.2190784716740665</v>
       </c>
       <c r="H47" t="n">
-        <v>1.111176192150155</v>
+        <v>1.096493213300503</v>
       </c>
       <c r="I47" t="n">
-        <v>1.104200843910401</v>
+        <v>1.025394795980688</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
@@ -2974,22 +2974,22 @@
         <v>209.7799987792969</v>
       </c>
       <c r="D48" t="n">
-        <v>222.316213004496</v>
+        <v>231.0099217232595</v>
       </c>
       <c r="E48" t="n">
-        <v>198.9450780071913</v>
+        <v>138.2341103674506</v>
       </c>
       <c r="F48" t="n">
         <v>45.90212433359387</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.7425117228653733</v>
+        <v>-0.7029050893246165</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.5852380813956723</v>
+        <v>-0.5272680535940236</v>
       </c>
       <c r="I48" t="n">
-        <v>1.037179889630654</v>
+        <v>1.471447428288629</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -3027,31 +3027,31 @@
         <v>71.40000152587891</v>
       </c>
       <c r="D49" t="n">
-        <v>74.72108553565033</v>
+        <v>71.20667082332834</v>
       </c>
       <c r="E49" t="n">
-        <v>62.01794733276574</v>
+        <v>52.38937793170214</v>
       </c>
       <c r="F49" t="n">
         <v>52.29684646128339</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5101114453412663</v>
+        <v>0.5147992175019027</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7091781984196606</v>
+        <v>0.7160560687648688</v>
       </c>
       <c r="I49" t="n">
-        <v>1.121759620019003</v>
+        <v>1.237382878376133</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
@@ -3080,22 +3080,22 @@
         <v>481.6799926757813</v>
       </c>
       <c r="D50" t="n">
-        <v>484.3243234350655</v>
+        <v>488.161284253293</v>
       </c>
       <c r="E50" t="n">
-        <v>426.8324522548287</v>
+        <v>373.5454898122785</v>
       </c>
       <c r="F50" t="n">
         <v>77.42433465663839</v>
       </c>
       <c r="G50" t="n">
-        <v>4.992425429143452</v>
+        <v>5.000627411040227</v>
       </c>
       <c r="H50" t="n">
-        <v>4.384165336860001</v>
+        <v>4.396254493218435</v>
       </c>
       <c r="I50" t="n">
-        <v>1.097696030983121</v>
+        <v>1.232111572287984</v>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
@@ -3133,22 +3133,22 @@
         <v>909.3200073242188</v>
       </c>
       <c r="D51" t="n">
-        <v>1002.689911533659</v>
+        <v>1002.447328472939</v>
       </c>
       <c r="E51" t="n">
-        <v>796.516865731336</v>
+        <v>496.0767046120537</v>
       </c>
       <c r="F51" t="n">
         <v>52.82068058054482</v>
       </c>
       <c r="G51" t="n">
-        <v>1.671192097687026</v>
+        <v>2.05031988982239</v>
       </c>
       <c r="H51" t="n">
-        <v>3.905878665421938</v>
+        <v>4.462232994561228</v>
       </c>
       <c r="I51" t="n">
-        <v>1.004351766573325</v>
+        <v>1.730628574033236</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
@@ -3186,31 +3186,31 @@
         <v>577.4000244140625</v>
       </c>
       <c r="D52" t="n">
-        <v>619.3655273754067</v>
+        <v>560.1621838322742</v>
       </c>
       <c r="E52" t="n">
-        <v>451.4238275026804</v>
+        <v>379.7460421809094</v>
       </c>
       <c r="F52" t="n">
         <v>60.41790650003306</v>
       </c>
       <c r="G52" t="n">
-        <v>7.126397151222591</v>
+        <v>7.144522615986034</v>
       </c>
       <c r="H52" t="n">
-        <v>7.814858311652907</v>
+        <v>7.841436522998943</v>
       </c>
       <c r="I52" t="n">
-        <v>1.236137908090934</v>
+        <v>1.373865842687582</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
@@ -3239,31 +3239,31 @@
         <v>265.6099853515625</v>
       </c>
       <c r="D53" t="n">
-        <v>266.8383801802818</v>
+        <v>262.4314852538044</v>
       </c>
       <c r="E53" t="n">
-        <v>215.8025893730196</v>
+        <v>188.5478702198677</v>
       </c>
       <c r="F53" t="n">
         <v>92.18269471516102</v>
       </c>
       <c r="G53" t="n">
-        <v>6.086386290786834</v>
+        <v>6.063293525740306</v>
       </c>
       <c r="H53" t="n">
-        <v>5.065432921508379</v>
+        <v>5.031595012305265</v>
       </c>
       <c r="I53" t="n">
-        <v>1.204798953382484</v>
+        <v>1.166812438753288</v>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L53" s="3" t="inlineStr">
@@ -3292,22 +3292,22 @@
         <v>847.5</v>
       </c>
       <c r="D54" t="n">
-        <v>1104.149233749345</v>
+        <v>1109.737131610813</v>
       </c>
       <c r="E54" t="n">
-        <v>637.8256000775202</v>
+        <v>586.9514975395774</v>
       </c>
       <c r="F54" t="n">
         <v>74.50736404331917</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.26357974366033</v>
+        <v>-6.825055720458067</v>
       </c>
       <c r="H54" t="n">
-        <v>-20.17414716335407</v>
+        <v>-19.53076437744984</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7958867628593973</v>
+        <v>1.410886331309986</v>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
@@ -3324,9 +3324,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
         <v>491.2699890136719</v>
       </c>
       <c r="D55" t="n">
-        <v>504.7374521784959</v>
+        <v>505.3170964967497</v>
       </c>
       <c r="E55" t="n">
-        <v>423.4925440412621</v>
+        <v>383.9871782776172</v>
       </c>
       <c r="F55" t="n">
         <v>64.82096379628761</v>
       </c>
       <c r="G55" t="n">
-        <v>6.585796951054704</v>
+        <v>6.51222015746589</v>
       </c>
       <c r="H55" t="n">
-        <v>7.953436239135995</v>
+        <v>7.845748179969984</v>
       </c>
       <c r="I55" t="n">
-        <v>1.113586873097278</v>
+        <v>1.184059578699386</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
@@ -3398,22 +3398,22 @@
         <v>303.6499938964844</v>
       </c>
       <c r="D56" t="n">
-        <v>309.7135375996237</v>
+        <v>307.2363971769926</v>
       </c>
       <c r="E56" t="n">
-        <v>239.6903310448446</v>
+        <v>244.1735207159557</v>
       </c>
       <c r="F56" t="n">
         <v>77.63876378690178</v>
       </c>
       <c r="G56" t="n">
-        <v>5.632552037850985</v>
+        <v>5.601759512728847</v>
       </c>
       <c r="H56" t="n">
-        <v>5.442870949930615</v>
+        <v>5.397709992262902</v>
       </c>
       <c r="I56" t="n">
-        <v>1.191531934782627</v>
+        <v>1.066420931589476</v>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
@@ -3451,22 +3451,22 @@
         <v>74.31999969482422</v>
       </c>
       <c r="D57" t="n">
-        <v>77.20418841311553</v>
+        <v>76.55479610617704</v>
       </c>
       <c r="E57" t="n">
-        <v>63.14000458398629</v>
+        <v>63.56084927168965</v>
       </c>
       <c r="F57" t="n">
         <v>40.57146261820095</v>
       </c>
       <c r="G57" t="n">
-        <v>0.905332921959456</v>
+        <v>0.8884494227433777</v>
       </c>
       <c r="H57" t="n">
-        <v>1.204436484166528</v>
+        <v>1.179697368841086</v>
       </c>
       <c r="I57" t="n">
-        <v>1.135696774482381</v>
+        <v>1.026135216401784</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
@@ -3504,22 +3504,22 @@
         <v>89.44999694824219</v>
       </c>
       <c r="D58" t="n">
-        <v>93.90255012056924</v>
+        <v>91.72334831417518</v>
       </c>
       <c r="E58" t="n">
-        <v>73.98744926907921</v>
+        <v>71.97834482074796</v>
       </c>
       <c r="F58" t="n">
         <v>46.71640567352628</v>
       </c>
       <c r="G58" t="n">
-        <v>1.028359673625673</v>
+        <v>1.006964345693291</v>
       </c>
       <c r="H58" t="n">
-        <v>1.380131111355849</v>
+        <v>1.348785036656193</v>
       </c>
       <c r="I58" t="n">
-        <v>1.136450234896372</v>
+        <v>1.075607626804967</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
@@ -3557,22 +3557,22 @@
         <v>567.8400268554688</v>
       </c>
       <c r="D59" t="n">
-        <v>568.9355132559386</v>
+        <v>601.7053180966212</v>
       </c>
       <c r="E59" t="n">
-        <v>456.5873877253492</v>
+        <v>284.0614559886389</v>
       </c>
       <c r="F59" t="n">
         <v>96.51671159086276</v>
       </c>
       <c r="G59" t="n">
-        <v>14.48231253560709</v>
+        <v>14.55044957670248</v>
       </c>
       <c r="H59" t="n">
-        <v>10.22223548573819</v>
+        <v>10.32244275854826</v>
       </c>
       <c r="I59" t="n">
-        <v>1.126175132840314</v>
+        <v>1.751287413672615</v>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
@@ -3610,22 +3610,22 @@
         <v>113.0899963378906</v>
       </c>
       <c r="D60" t="n">
-        <v>129.8520677882109</v>
+        <v>138.8055560178957</v>
       </c>
       <c r="E60" t="n">
-        <v>108.0918025101132</v>
+        <v>98.67097547230721</v>
       </c>
       <c r="F60" t="n">
         <v>31.16574238663907</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.5772737567164512</v>
+        <v>-0.6248739760964241</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3110689460218745</v>
+        <v>-0.380686399479973</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9134894470932317</v>
+        <v>1.104924370420597</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
@@ -3642,9 +3642,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3663,22 +3663,22 @@
         <v>104.5999984741211</v>
       </c>
       <c r="D61" t="n">
-        <v>107.3343272226385</v>
+        <v>108.764244798348</v>
       </c>
       <c r="E61" t="n">
-        <v>93.85341421078201</v>
+        <v>73.21414211138294</v>
       </c>
       <c r="F61" t="n">
         <v>78.66859631637153</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8401815109406954</v>
+        <v>0.8438967937262163</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2634248108865201</v>
+        <v>0.2688627297491889</v>
       </c>
       <c r="I61" t="n">
-        <v>1.076242369035665</v>
+        <v>1.251585559087243</v>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
@@ -3716,22 +3716,22 @@
         <v>431.3099975585938</v>
       </c>
       <c r="D62" t="n">
-        <v>464.9954929041336</v>
+        <v>469.1810664744629</v>
       </c>
       <c r="E62" t="n">
-        <v>389.826439980821</v>
+        <v>336.4764342540212</v>
       </c>
       <c r="F62" t="n">
         <v>75.12304403485004</v>
       </c>
       <c r="G62" t="n">
-        <v>4.092365158025302</v>
+        <v>4.174700387623318</v>
       </c>
       <c r="H62" t="n">
-        <v>2.984787282454053</v>
+        <v>3.105755266292181</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9650072396883771</v>
+        <v>1.308359275172403</v>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
@@ -3748,9 +3748,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3769,22 +3769,22 @@
         <v>109.879997253418</v>
       </c>
       <c r="D63" t="n">
-        <v>135.8336806191676</v>
+        <v>142.9290339393522</v>
       </c>
       <c r="E63" t="n">
-        <v>73.26244827526918</v>
+        <v>55.08943368691183</v>
       </c>
       <c r="F63" t="n">
         <v>78.35423499335189</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4415197650584446</v>
+        <v>-0.4709677289649221</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.866851195648449</v>
+        <v>-2.909718943409011</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8353987552131972</v>
+        <v>1.573719811492433</v>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
@@ -3801,9 +3801,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M63" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M63" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -3822,22 +3822,22 @@
         <v>83.45999908447266</v>
       </c>
       <c r="D64" t="n">
-        <v>86.60106840876358</v>
+        <v>85.24797607611578</v>
       </c>
       <c r="E64" t="n">
-        <v>69.05732003669067</v>
+        <v>47.06766938788923</v>
       </c>
       <c r="F64" t="n">
         <v>64.21566244182901</v>
       </c>
       <c r="G64" t="n">
-        <v>1.476891143655052</v>
+        <v>1.454549881001412</v>
       </c>
       <c r="H64" t="n">
-        <v>1.611224427711716</v>
+        <v>1.578523181661634</v>
       </c>
       <c r="I64" t="n">
-        <v>1.178647111453595</v>
+        <v>1.484372030625837</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
@@ -3875,22 +3875,22 @@
         <v>711.4299926757812</v>
       </c>
       <c r="D65" t="n">
-        <v>728.9432471645794</v>
+        <v>766.0142866371126</v>
       </c>
       <c r="E65" t="n">
-        <v>606.0525571606474</v>
+        <v>381.1319238180128</v>
       </c>
       <c r="F65" t="n">
         <v>70.47533548826783</v>
       </c>
       <c r="G65" t="n">
-        <v>11.97292482237742</v>
+        <v>12.12089500370723</v>
       </c>
       <c r="H65" t="n">
-        <v>10.26244051258228</v>
+        <v>10.4798011877683</v>
       </c>
       <c r="I65" t="n">
-        <v>1.054157757717708</v>
+        <v>1.743801420131011</v>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         <v>89.38999938964844</v>
       </c>
       <c r="D66" t="n">
-        <v>88.25608643641735</v>
+        <v>119.5171389222475</v>
       </c>
       <c r="E66" t="n">
-        <v>67.91681656296836</v>
+        <v>70.61778027508115</v>
       </c>
       <c r="F66" t="n">
         <v>80.24861914840591</v>
       </c>
       <c r="G66" t="n">
-        <v>2.134063581723922</v>
+        <v>1.984423671896252</v>
       </c>
       <c r="H66" t="n">
-        <v>1.301576713899196</v>
+        <v>1.082639398928586</v>
       </c>
       <c r="I66" t="n">
-        <v>1.18601560477855</v>
+        <v>0.8724619514597509</v>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="K66" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
@@ -3960,9 +3960,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -3981,22 +3981,22 @@
         <v>884.8599853515625</v>
       </c>
       <c r="D67" t="n">
-        <v>922.1058330593764</v>
+        <v>899.6132673959237</v>
       </c>
       <c r="E67" t="n">
-        <v>717.6751393291066</v>
+        <v>571.4622951119518</v>
       </c>
       <c r="F67" t="n">
         <v>65.5425084611586</v>
       </c>
       <c r="G67" t="n">
-        <v>22.66493791014307</v>
+        <v>23.10104335900928</v>
       </c>
       <c r="H67" t="n">
-        <v>23.12847544558373</v>
+        <v>23.76713357981276</v>
       </c>
       <c r="I67" t="n">
-        <v>1.124817273538477</v>
+        <v>1.498676250603503</v>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
@@ -4034,22 +4034,22 @@
         <v>124.0400009155273</v>
       </c>
       <c r="D68" t="n">
-        <v>135.7396709803436</v>
+        <v>144.6370695663425</v>
       </c>
       <c r="E68" t="n">
-        <v>100.2932323832841</v>
+        <v>24.5775192449781</v>
       </c>
       <c r="F68" t="n">
         <v>79.06275736663142</v>
       </c>
       <c r="G68" t="n">
-        <v>1.123764154612218</v>
+        <v>1.163326251338376</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.0546934702894807</v>
+        <v>0.0035558309641502</v>
       </c>
       <c r="I68" t="n">
-        <v>1.004047272108585</v>
+        <v>2.743512940641517</v>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
@@ -4087,22 +4087,22 @@
         <v>124.3000030517578</v>
       </c>
       <c r="D69" t="n">
-        <v>144.6680352279135</v>
+        <v>152.5394634418724</v>
       </c>
       <c r="E69" t="n">
-        <v>122.9271259639652</v>
+        <v>89.74731079351463</v>
       </c>
       <c r="F69" t="n">
         <v>40.2508651572594</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.187786448067641</v>
+        <v>-2.164331269859957</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.11379732926335</v>
+        <v>-1.079315999002275</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8708140554030638</v>
+        <v>1.498583907961913</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
@@ -4119,9 +4119,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M69" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M69" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4140,22 +4140,22 @@
         <v>168.1000061035156</v>
       </c>
       <c r="D70" t="n">
-        <v>167.2005990249418</v>
+        <v>154.6709761106985</v>
       </c>
       <c r="E70" t="n">
-        <v>120.8952067277202</v>
+        <v>91.33878114657848</v>
       </c>
       <c r="F70" t="n">
         <v>78.49556228284428</v>
       </c>
       <c r="G70" t="n">
-        <v>7.482246987928335</v>
+        <v>7.551434993521411</v>
       </c>
       <c r="H70" t="n">
-        <v>6.964127512403115</v>
+        <v>7.0656606216356</v>
       </c>
       <c r="I70" t="n">
-        <v>1.190509983970707</v>
+        <v>1.283197393408149</v>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
@@ -4193,22 +4193,22 @@
         <v>338.7300109863281</v>
       </c>
       <c r="D71" t="n">
-        <v>364.9299847611854</v>
+        <v>373.3113631418139</v>
       </c>
       <c r="E71" t="n">
-        <v>308.1935641771967</v>
+        <v>236.1024260535852</v>
       </c>
       <c r="F71" t="n">
         <v>52.43678117446949</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3187745504221198</v>
+        <v>-0.1184275714792875</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5333255200894718</v>
+        <v>0.8268791605550281</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9991740692863599</v>
+        <v>1.44980353431365</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
@@ -4225,9 +4225,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M71" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4246,22 +4246,22 @@
         <v>169.6900024414062</v>
       </c>
       <c r="D72" t="n">
-        <v>181.4239491804963</v>
+        <v>179.7796895088088</v>
       </c>
       <c r="E72" t="n">
-        <v>162.2950828609919</v>
+        <v>159.5501486594277</v>
       </c>
       <c r="F72" t="n">
         <v>24.41480925037203</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.9326089067638748</v>
+        <v>-0.9679131560951646</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1218518803823435</v>
+        <v>0.0700703093639527</v>
       </c>
       <c r="I72" t="n">
-        <v>1.028860789286411</v>
+        <v>1.019802601760213</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -4299,22 +4299,22 @@
         <v>28.96999931335449</v>
       </c>
       <c r="D73" t="n">
-        <v>30.76895475162068</v>
+        <v>31.91339905027464</v>
       </c>
       <c r="E73" t="n">
-        <v>27.58362565727549</v>
+        <v>25.39781052070236</v>
       </c>
       <c r="F73" t="n">
         <v>54.84633441822253</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0620810248844883</v>
+        <v>0.062163340726606</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1081198738236505</v>
+        <v>0.1082339897956035</v>
       </c>
       <c r="I73" t="n">
-        <v>1.035382408410112</v>
+        <v>0.8459045446713543</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
@@ -4331,9 +4331,9 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="M73" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -4352,22 +4352,22 @@
         <v>173.2100067138672</v>
       </c>
       <c r="D74" t="n">
-        <v>177.4454959386144</v>
+        <v>177.4616114889497</v>
       </c>
       <c r="E74" t="n">
-        <v>161.8483740643783</v>
+        <v>141.6522594394147</v>
       </c>
       <c r="F74" t="n">
         <v>44.48566715384414</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7389905560192176</v>
+        <v>0.7268140052579497</v>
       </c>
       <c r="H74" t="n">
-        <v>1.214521679213109</v>
+        <v>1.196744792167418</v>
       </c>
       <c r="I74" t="n">
-        <v>1.050266848392937</v>
+        <v>1.156553449585567</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
@@ -4405,22 +4405,22 @@
         <v>120.8499984741211</v>
       </c>
       <c r="D75" t="n">
-        <v>131.6277486783263</v>
+        <v>121.3369035312877</v>
       </c>
       <c r="E75" t="n">
-        <v>100.4383799601565</v>
+        <v>77.78858031999124</v>
       </c>
       <c r="F75" t="n">
         <v>33.22057870842356</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4893414053626657</v>
+        <v>0.4900497340643994</v>
       </c>
       <c r="H75" t="n">
-        <v>1.335195887000838</v>
+        <v>1.336263286442954</v>
       </c>
       <c r="I75" t="n">
-        <v>1.192637879111181</v>
+        <v>1.289683783685432</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
@@ -4458,22 +4458,22 @@
         <v>80.08000183105469</v>
       </c>
       <c r="D76" t="n">
-        <v>79.17665024750059</v>
+        <v>72.60923828848503</v>
       </c>
       <c r="E76" t="n">
-        <v>53.88270435002178</v>
+        <v>51.79358389838493</v>
       </c>
       <c r="F76" t="n">
         <v>84.3462463269766</v>
       </c>
       <c r="G76" t="n">
-        <v>2.81689846430919</v>
+        <v>2.78805552859788</v>
       </c>
       <c r="H76" t="n">
-        <v>2.232315855237073</v>
+        <v>2.190031728150585</v>
       </c>
       <c r="I76" t="n">
-        <v>1.37997593513003</v>
+        <v>1.160177610111762</v>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
@@ -4511,22 +4511,22 @@
         <v>172.6600036621094</v>
       </c>
       <c r="D77" t="n">
-        <v>207.9826979426789</v>
+        <v>219.1320784309032</v>
       </c>
       <c r="E77" t="n">
-        <v>145.5808504837954</v>
+        <v>103.2792927386486</v>
       </c>
       <c r="F77" t="n">
         <v>69.77318220487415</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4912301955781402</v>
+        <v>-0.5330226597975809</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.418138314188866</v>
+        <v>-1.479178134396643</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8668541520792189</v>
+        <v>1.560216010068329</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
@@ -4543,9 +4543,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M77" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M77" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4564,22 +4564,22 @@
         <v>489.4700012207031</v>
       </c>
       <c r="D78" t="n">
-        <v>504.6747502049478</v>
+        <v>509.6525329616224</v>
       </c>
       <c r="E78" t="n">
-        <v>440.875248416839</v>
+        <v>356.1109336580538</v>
       </c>
       <c r="F78" t="n">
         <v>90.04324126709199</v>
       </c>
       <c r="G78" t="n">
-        <v>4.917810278243735</v>
+        <v>5.001028447919907</v>
       </c>
       <c r="H78" t="n">
-        <v>2.722372155016304</v>
+        <v>2.844613658494725</v>
       </c>
       <c r="I78" t="n">
-        <v>1.021623460553715</v>
+        <v>1.313237005489548</v>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
@@ -4617,22 +4617,22 @@
         <v>120.3199996948242</v>
       </c>
       <c r="D79" t="n">
-        <v>128.9524697341987</v>
+        <v>124.6392593785426</v>
       </c>
       <c r="E79" t="n">
-        <v>98.71269115250428</v>
+        <v>68.84985347546132</v>
       </c>
       <c r="F79" t="n">
         <v>57.27554508644204</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8562482950337795</v>
+        <v>0.8254010313131772</v>
       </c>
       <c r="H79" t="n">
-        <v>1.057216538504453</v>
+        <v>1.012033657802498</v>
       </c>
       <c r="I79" t="n">
-        <v>1.198525753823551</v>
+        <v>1.659097374350261</v>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
@@ -4670,22 +4670,22 @@
         <v>97.47000122070312</v>
       </c>
       <c r="D80" t="n">
-        <v>105.5721413238884</v>
+        <v>106.8251717646979</v>
       </c>
       <c r="E80" t="n">
-        <v>65.26753654830796</v>
+        <v>71.73587698910204</v>
       </c>
       <c r="F80" t="n">
         <v>67.75279747870093</v>
       </c>
       <c r="G80" t="n">
-        <v>2.018353410755054</v>
+        <v>2.002184612112032</v>
       </c>
       <c r="H80" t="n">
-        <v>2.524666829053764</v>
+        <v>2.500997997850599</v>
       </c>
       <c r="I80" t="n">
-        <v>1.252023161607436</v>
+        <v>1.041150006726894</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
@@ -4723,22 +4723,22 @@
         <v>63.84000015258789</v>
       </c>
       <c r="D81" t="n">
-        <v>73.76483371009775</v>
+        <v>80.12267453812514</v>
       </c>
       <c r="E81" t="n">
-        <v>57.68419873500999</v>
+        <v>51.57764785916844</v>
       </c>
       <c r="F81" t="n">
         <v>55.91939352970879</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09570672156182521</v>
+        <v>-0.09541920250896389</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.2707659894678785</v>
+        <v>-0.2703541386504264</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8663319044309915</v>
+        <v>1.218113992274152</v>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
@@ -4755,9 +4755,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M81" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M81" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -4776,22 +4776,22 @@
         <v>511.7000122070313</v>
       </c>
       <c r="D82" t="n">
-        <v>535.4186908889016</v>
+        <v>520.3134205594585</v>
       </c>
       <c r="E82" t="n">
-        <v>453.0884069091076</v>
+        <v>355.541902985936</v>
       </c>
       <c r="F82" t="n">
         <v>51.03475149162225</v>
       </c>
       <c r="G82" t="n">
-        <v>5.194550664614098</v>
+        <v>5.265592465738791</v>
       </c>
       <c r="H82" t="n">
-        <v>7.18372779402498</v>
+        <v>7.287936344664529</v>
       </c>
       <c r="I82" t="n">
-        <v>1.147309444410384</v>
+        <v>1.344159006967065</v>
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
@@ -4829,22 +4829,22 @@
         <v>572.2999877929688</v>
       </c>
       <c r="D83" t="n">
-        <v>577.1848313472364</v>
+        <v>589.5521147648825</v>
       </c>
       <c r="E83" t="n">
-        <v>527.3993617286204</v>
+        <v>420.2969174833377</v>
       </c>
       <c r="F83" t="n">
         <v>86.91636649919367</v>
       </c>
       <c r="G83" t="n">
-        <v>5.528207405485887</v>
+        <v>5.583180620279791</v>
       </c>
       <c r="H83" t="n">
-        <v>4.360941009092549</v>
+        <v>4.441713107311731</v>
       </c>
       <c r="I83" t="n">
-        <v>1.051596814893736</v>
+        <v>1.294306265905657</v>
       </c>
       <c r="J83" s="4" t="inlineStr">
         <is>
@@ -4882,22 +4882,22 @@
         <v>361.3500061035156</v>
       </c>
       <c r="D84" t="n">
-        <v>374.9566741484281</v>
+        <v>385.0272697241404</v>
       </c>
       <c r="E84" t="n">
-        <v>314.3610699528194</v>
+        <v>265.296279608017</v>
       </c>
       <c r="F84" t="n">
         <v>53.18311994205096</v>
       </c>
       <c r="G84" t="n">
-        <v>4.143613767114175</v>
+        <v>4.135652569621584</v>
       </c>
       <c r="H84" t="n">
-        <v>5.736051119302576</v>
+        <v>5.7244470915834</v>
       </c>
       <c r="I84" t="n">
-        <v>1.062013243507761</v>
+        <v>1.220311195941599</v>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
@@ -4935,31 +4935,31 @@
         <v>21.64999961853028</v>
       </c>
       <c r="D85" t="n">
-        <v>22.03357341292642</v>
+        <v>20.84263585716709</v>
       </c>
       <c r="E85" t="n">
-        <v>17.63094260535656</v>
+        <v>14.21115441219238</v>
       </c>
       <c r="F85" t="n">
         <v>60.69182767166736</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4747108610086883</v>
+        <v>0.4833835906914139</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5302958324488527</v>
+        <v>0.5430044744470907</v>
       </c>
       <c r="I85" t="n">
-        <v>1.132914648197491</v>
+        <v>1.301295163824605</v>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K85" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L85" s="4" t="inlineStr">
@@ -4988,22 +4988,22 @@
         <v>118.0800018310547</v>
       </c>
       <c r="D86" t="n">
-        <v>121.4991944330947</v>
+        <v>120.0586801156362</v>
       </c>
       <c r="E86" t="n">
-        <v>107.6569339888118</v>
+        <v>80.96156140638369</v>
       </c>
       <c r="F86" t="n">
         <v>62.30000480652222</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7178614815438493</v>
+        <v>0.743604236635008</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9575689596086456</v>
+        <v>0.9953889305968432</v>
       </c>
       <c r="I86" t="n">
-        <v>1.072479595527054</v>
+        <v>1.257104228386286</v>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
@@ -5041,22 +5041,22 @@
         <v>619.3300170898438</v>
       </c>
       <c r="D87" t="n">
-        <v>651.8880720649448</v>
+        <v>647.0251825230024</v>
       </c>
       <c r="E87" t="n">
-        <v>530.4396670353575</v>
+        <v>457.5849795351818</v>
       </c>
       <c r="F87" t="n">
         <v>54.64359606609416</v>
       </c>
       <c r="G87" t="n">
-        <v>2.613104895605716</v>
+        <v>2.485452770380789</v>
       </c>
       <c r="H87" t="n">
-        <v>3.959895340985105</v>
+        <v>3.772789311851332</v>
       </c>
       <c r="I87" t="n">
-        <v>1.119945781355956</v>
+        <v>1.217632449296743</v>
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
@@ -5094,22 +5094,22 @@
         <v>254.2200012207031</v>
       </c>
       <c r="D88" t="n">
-        <v>264.9463723353695</v>
+        <v>269.8099186847488</v>
       </c>
       <c r="E88" t="n">
-        <v>189.0220153914451</v>
+        <v>147.304032967532</v>
       </c>
       <c r="F88" t="n">
         <v>81.61072033102208</v>
       </c>
       <c r="G88" t="n">
-        <v>9.577140131840141</v>
+        <v>9.703163184869965</v>
       </c>
       <c r="H88" t="n">
-        <v>6.311552747906563</v>
+        <v>6.496199550634435</v>
       </c>
       <c r="I88" t="n">
-        <v>1.284717985383394</v>
+        <v>0.8511128545106036</v>
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
@@ -5126,9 +5126,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M88" s="3" t="inlineStr">
-        <is>
-          <t>Buy</t>
+      <c r="M88" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
     </row>
@@ -5147,22 +5147,22 @@
         <v>186.8300018310547</v>
       </c>
       <c r="D89" t="n">
-        <v>189.6427582448533</v>
+        <v>196.6031652040756</v>
       </c>
       <c r="E89" t="n">
-        <v>150.8159514719435</v>
+        <v>74.42393139045805</v>
       </c>
       <c r="F89" t="n">
         <v>83.02882375681868</v>
       </c>
       <c r="G89" t="n">
-        <v>3.751637154967796</v>
+        <v>3.818335632144056</v>
       </c>
       <c r="H89" t="n">
-        <v>1.726674624498964</v>
+        <v>1.824589803339229</v>
       </c>
       <c r="I89" t="n">
-        <v>1.07490940944333</v>
+        <v>1.984711964465911</v>
       </c>
       <c r="J89" s="4" t="inlineStr">
         <is>
@@ -5200,22 +5200,22 @@
         <v>209.259994506836</v>
       </c>
       <c r="D90" t="n">
-        <v>213.2962774776853</v>
+        <v>215.7645453234674</v>
       </c>
       <c r="E90" t="n">
-        <v>188.1766263584728</v>
+        <v>137.9360992619267</v>
       </c>
       <c r="F90" t="n">
         <v>64.65624720690914</v>
       </c>
       <c r="G90" t="n">
-        <v>1.217791864307799</v>
+        <v>1.225412684978181</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6859463089662597</v>
+        <v>0.6971553450849639</v>
       </c>
       <c r="I90" t="n">
-        <v>1.075720947000318</v>
+        <v>1.262456996114375</v>
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
@@ -5253,22 +5253,22 @@
         <v>76.69000244140625</v>
       </c>
       <c r="D91" t="n">
-        <v>78.42856262405601</v>
+        <v>85.73828388886527</v>
       </c>
       <c r="E91" t="n">
-        <v>62.04724395061164</v>
+        <v>46.21615176728234</v>
       </c>
       <c r="F91" t="n">
         <v>68.83940368701008</v>
       </c>
       <c r="G91" t="n">
-        <v>1.585683888102324</v>
+        <v>1.613335209317327</v>
       </c>
       <c r="H91" t="n">
-        <v>1.047465076526539</v>
+        <v>1.087979578015547</v>
       </c>
       <c r="I91" t="n">
-        <v>1.055173391846352</v>
+        <v>1.592162935005342</v>
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
@@ -5306,22 +5306,22 @@
         <v>574.8099975585938</v>
       </c>
       <c r="D92" t="n">
-        <v>628.6423985044888</v>
+        <v>595.4730952485792</v>
       </c>
       <c r="E92" t="n">
-        <v>501.4305060207759</v>
+        <v>452.9748097689045</v>
       </c>
       <c r="F92" t="n">
         <v>29.90355127388571</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.8034101086968803</v>
+        <v>-0.6744152611584013</v>
       </c>
       <c r="H92" t="n">
-        <v>2.115380797855594</v>
+        <v>2.303901117686458</v>
       </c>
       <c r="I92" t="n">
-        <v>1.128716149974424</v>
+        <v>1.126396752825828</v>
       </c>
       <c r="J92" s="3" t="inlineStr">
         <is>
@@ -5359,22 +5359,22 @@
         <v>243.229995727539</v>
       </c>
       <c r="D93" t="n">
-        <v>259.988342204546</v>
+        <v>263.2991223873967</v>
       </c>
       <c r="E93" t="n">
-        <v>224.7823039214936</v>
+        <v>208.0975720420624</v>
       </c>
       <c r="F93" t="n">
         <v>40.67598347321289</v>
       </c>
       <c r="G93" t="n">
-        <v>0.00075089208309</v>
+        <v>-0.0130366163624842</v>
       </c>
       <c r="H93" t="n">
-        <v>1.231133358217463</v>
+        <v>1.210786968618987</v>
       </c>
       <c r="I93" t="n">
-        <v>1.075002217063125</v>
+        <v>1.202674730793138</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
@@ -5412,22 +5412,22 @@
         <v>133.3300018310547</v>
       </c>
       <c r="D94" t="n">
-        <v>142.9888439598457</v>
+        <v>164.9462131051633</v>
       </c>
       <c r="E94" t="n">
-        <v>119.3366397929895</v>
+        <v>123.7208036932868</v>
       </c>
       <c r="F94" t="n">
         <v>66.05656921102441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5799773642821151</v>
+        <v>0.5683514104987069</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1174463027301929</v>
+        <v>0.1003397705041207</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9742783769421366</v>
+        <v>0.828927015307887</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
@@ -5465,22 +5465,22 @@
         <v>271.6900024414062</v>
       </c>
       <c r="D95" t="n">
-        <v>289.6222658763868</v>
+        <v>295.6063529023282</v>
       </c>
       <c r="E95" t="n">
-        <v>250.7864432497473</v>
+        <v>237.93122838764</v>
       </c>
       <c r="F95" t="n">
         <v>41.86441664242072</v>
       </c>
       <c r="G95" t="n">
-        <v>1.653099650098</v>
+        <v>1.566272310024488</v>
       </c>
       <c r="H95" t="n">
-        <v>4.047659658168035</v>
+        <v>3.920568859744554</v>
       </c>
       <c r="I95" t="n">
-        <v>1.035127828619737</v>
+        <v>1.153629882233451</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
@@ -5518,22 +5518,22 @@
         <v>527.7000122070312</v>
       </c>
       <c r="D96" t="n">
-        <v>531.0387317301896</v>
+        <v>542.1857817318512</v>
       </c>
       <c r="E96" t="n">
-        <v>484.3932002884596</v>
+        <v>386.1361531219794</v>
       </c>
       <c r="F96" t="n">
         <v>90.21226359183945</v>
       </c>
       <c r="G96" t="n">
-        <v>5.497703403898868</v>
+        <v>5.543305756548421</v>
       </c>
       <c r="H96" t="n">
-        <v>4.229622071197362</v>
+        <v>4.296677762220446</v>
       </c>
       <c r="I96" t="n">
-        <v>1.055125681432928</v>
+        <v>1.294674886032195</v>
       </c>
       <c r="J96" s="4" t="inlineStr">
         <is>
@@ -5571,22 +5571,22 @@
         <v>44.61999893188477</v>
       </c>
       <c r="D97" t="n">
-        <v>44.70569328831923</v>
+        <v>45.20313087898238</v>
       </c>
       <c r="E97" t="n">
-        <v>38.56011309438301</v>
+        <v>33.65251446996643</v>
       </c>
       <c r="F97" t="n">
         <v>78.58315815273235</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8658363714916746</v>
+        <v>0.8723836644954446</v>
       </c>
       <c r="H97" t="n">
-        <v>0.827181565714825</v>
+        <v>0.8367714125452312</v>
       </c>
       <c r="I97" t="n">
-        <v>1.081959192915911</v>
+        <v>1.260705309413564</v>
       </c>
       <c r="J97" s="4" t="inlineStr">
         <is>
@@ -5624,22 +5624,22 @@
         <v>56.38999938964844</v>
       </c>
       <c r="D98" t="n">
-        <v>62.1906592024789</v>
+        <v>66.41069839749619</v>
       </c>
       <c r="E98" t="n">
-        <v>50.94417927093341</v>
+        <v>39.20946265902237</v>
       </c>
       <c r="F98" t="n">
         <v>58.36248858126906</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2807676118431743</v>
+        <v>-0.2735697300634001</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.4349451546214669</v>
+        <v>-0.4244411056441247</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9494864450104221</v>
+        <v>1.377682374500218</v>
       </c>
       <c r="J98" s="2" t="inlineStr">
         <is>
@@ -5656,9 +5656,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M98" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M98" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>
@@ -5677,31 +5677,31 @@
         <v>79.91999816894531</v>
       </c>
       <c r="D99" t="n">
-        <v>82.24819729302533</v>
+        <v>78.18509235187899</v>
       </c>
       <c r="E99" t="n">
-        <v>64.19373735407333</v>
+        <v>45.01899327503082</v>
       </c>
       <c r="F99" t="n">
         <v>63.42061559592932</v>
       </c>
       <c r="G99" t="n">
-        <v>1.759008151029121</v>
+        <v>1.7700857362791</v>
       </c>
       <c r="H99" t="n">
-        <v>1.865074296388382</v>
+        <v>1.881353440582834</v>
       </c>
       <c r="I99" t="n">
-        <v>1.180327857769425</v>
+        <v>1.371267910967971</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
           <t>Hold</t>
         </is>
       </c>
-      <c r="K99" s="2" t="inlineStr">
-        <is>
-          <t>Hold</t>
+      <c r="K99" s="4" t="inlineStr">
+        <is>
+          <t>Sell</t>
         </is>
       </c>
       <c r="L99" s="4" t="inlineStr">
@@ -5730,22 +5730,22 @@
         <v>112.8000030517578</v>
       </c>
       <c r="D100" t="n">
-        <v>120.2474650324484</v>
+        <v>124.0392696585569</v>
       </c>
       <c r="E100" t="n">
-        <v>110.61930900359</v>
+        <v>96.78742359942096</v>
       </c>
       <c r="F100" t="n">
         <v>50.37244781255284</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2036852952601151</v>
+        <v>-0.1902239080329479</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.4203760588456724</v>
+        <v>-0.4007095676657604</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9798471191845665</v>
+        <v>1.026809704896227</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
@@ -5762,9 +5762,9 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="M100" s="4" t="inlineStr">
-        <is>
-          <t>Sell</t>
+      <c r="M100" s="3" t="inlineStr">
+        <is>
+          <t>Buy</t>
         </is>
       </c>
     </row>

--- a/portfolios/portfolio.xlsx
+++ b/portfolios/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Quantitative-Momentum-Strategy\portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B3850C-4E04-4F4F-8E41-204C73BCDD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F31867-760B-455D-A41D-1F8692502B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-17</t>
   </si>
   <si>
     <t>Hold</t>
@@ -753,9 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,25 +808,25 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>227.55000305175781</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="D2">
-        <v>231.82078248201341</v>
+        <v>235.03080698491721</v>
       </c>
       <c r="E2">
-        <v>221.33921682044189</v>
+        <v>226.45776200224799</v>
       </c>
       <c r="F2">
-        <v>51.63241047100712</v>
+        <v>55.662340699169867</v>
       </c>
       <c r="G2">
-        <v>1.1430937141975339</v>
+        <v>2.0404405663424261</v>
       </c>
       <c r="H2">
-        <v>1.118912840946152</v>
+        <v>1.551990904683876</v>
       </c>
       <c r="I2">
-        <v>1.3266134079342169</v>
+        <v>1.288557003069388</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -850,25 +849,25 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>194.19000244140619</v>
+        <v>188.57000732421881</v>
       </c>
       <c r="D3">
-        <v>195.7958367342392</v>
+        <v>198.02927104609509</v>
       </c>
       <c r="E3">
-        <v>192.6755900933278</v>
+        <v>187.63644812243169</v>
       </c>
       <c r="F3">
-        <v>51.156813347702993</v>
+        <v>32.72224657037232</v>
       </c>
       <c r="G3">
-        <v>0.34969645522130571</v>
+        <v>-0.53537616020426526</v>
       </c>
       <c r="H3">
-        <v>0.59289364696831781</v>
+        <v>0.1775356592968155</v>
       </c>
       <c r="I3">
-        <v>1.1036091307054039</v>
+        <v>1.089577430402729</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -891,28 +890,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>116.120002746582</v>
+        <v>117.88999938964839</v>
       </c>
       <c r="D4">
-        <v>117.60788121153981</v>
+        <v>118.57844702486619</v>
       </c>
       <c r="E4">
-        <v>111.1206910889624</v>
+        <v>114.7644114258872</v>
       </c>
       <c r="F4">
-        <v>56.127248941768919</v>
+        <v>72.303949526247578</v>
       </c>
       <c r="G4">
-        <v>0.52229340969937255</v>
+        <v>1.0197127393970931</v>
       </c>
       <c r="H4">
-        <v>0.37870479731815271</v>
+        <v>0.66890361347619809</v>
       </c>
       <c r="I4">
-        <v>0.98077754557306518</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>1.0210743290207289</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -920,8 +919,8 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -932,25 +931,25 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>495.42001342773438</v>
+        <v>496.82998657226563</v>
       </c>
       <c r="D5">
-        <v>512.11100054458711</v>
+        <v>513.78105752248314</v>
       </c>
       <c r="E5">
-        <v>484.35470641690853</v>
+        <v>489.1103696538562</v>
       </c>
       <c r="F5">
-        <v>31.34417863197088</v>
+        <v>40.806483689832582</v>
       </c>
       <c r="G5">
-        <v>-13.254389445250069</v>
+        <v>-10.180892214531299</v>
       </c>
       <c r="H5">
-        <v>-12.517736887023039</v>
+        <v>-11.4035318877892</v>
       </c>
       <c r="I5">
-        <v>1.166409420280649</v>
+        <v>1.102024397348716</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -958,8 +957,8 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -973,28 +972,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>288.3599853515625</v>
+        <v>291.95999145507813</v>
       </c>
       <c r="D6">
-        <v>290.01989388774439</v>
+        <v>293.27822351249603</v>
       </c>
       <c r="E6">
-        <v>281.51153049841622</v>
+        <v>285.79034512589692</v>
       </c>
       <c r="F6">
-        <v>69.263792104898641</v>
+        <v>83.125025828717725</v>
       </c>
       <c r="G6">
-        <v>4.1231095408168699</v>
+        <v>4.7029341318441311</v>
       </c>
       <c r="H6">
-        <v>3.6017796145155838</v>
+        <v>4.1800733141943027</v>
       </c>
       <c r="I6">
-        <v>1.1397001438961369</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>1.0827877118417339</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -1014,25 +1013,25 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>205.05999755859369</v>
+        <v>183.24000549316409</v>
       </c>
       <c r="D7">
-        <v>207.00644939839199</v>
+        <v>221.696948952757</v>
       </c>
       <c r="E7">
-        <v>197.75069607454341</v>
+        <v>174.53733885416261</v>
       </c>
       <c r="F7">
-        <v>62.288145542502242</v>
+        <v>33.078361044191439</v>
       </c>
       <c r="G7">
-        <v>2.685599551507551</v>
+        <v>-0.54718464737294426</v>
       </c>
       <c r="H7">
-        <v>1.868526208043344</v>
+        <v>1.4214710275386111</v>
       </c>
       <c r="I7">
-        <v>0.9930027715461559</v>
+        <v>0.8289848077331079</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1040,8 +1039,8 @@
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>16</v>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>18</v>
@@ -1055,25 +1054,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>167.88999938964841</v>
+        <v>156.25</v>
       </c>
       <c r="D8">
-        <v>176.29542536573501</v>
+        <v>174.76060880855931</v>
       </c>
       <c r="E8">
-        <v>161.021717665794</v>
+        <v>150.20510687224419</v>
       </c>
       <c r="F8">
-        <v>62.699488695249222</v>
+        <v>40.324888876252217</v>
       </c>
       <c r="G8">
-        <v>5.124891488584268</v>
+        <v>2.0309823185914411</v>
       </c>
       <c r="H8">
-        <v>4.8749719895310761</v>
+        <v>3.7996473792094139</v>
       </c>
       <c r="I8">
-        <v>0.77755678560099328</v>
+        <v>0.75190290805135995</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1081,8 +1080,8 @@
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>16</v>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>18</v>
@@ -1096,25 +1095,25 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>328.35000610351563</v>
+        <v>321.32998657226563</v>
       </c>
       <c r="D9">
-        <v>328.43292978807023</v>
+        <v>328.83923256755929</v>
       </c>
       <c r="E9">
-        <v>312.72136708692977</v>
+        <v>318.14362527284248</v>
       </c>
       <c r="F9">
-        <v>43.499301822911683</v>
+        <v>47.855270047437067</v>
       </c>
       <c r="G9">
-        <v>-1.7053666390893909</v>
+        <v>-1.209873813986746</v>
       </c>
       <c r="H9">
-        <v>-1.9589060962529621</v>
+        <v>-1.5199798637140629</v>
       </c>
       <c r="I9">
-        <v>1.2416037216304669</v>
+        <v>1.1574651866018419</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -1137,25 +1136,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>188.82000732421881</v>
+        <v>187.5299987792969</v>
       </c>
       <c r="D10">
-        <v>190.48674388724959</v>
+        <v>189.4362182201385</v>
       </c>
       <c r="E10">
-        <v>178.83611465069691</v>
+        <v>184.93235129018521</v>
       </c>
       <c r="F10">
-        <v>41.666666666666671</v>
+        <v>49.189980887189471</v>
       </c>
       <c r="G10">
-        <v>1.0521728413719129</v>
+        <v>1.1040431269647679</v>
       </c>
       <c r="H10">
-        <v>1.4835809010152019</v>
+        <v>1.2643591652444011</v>
       </c>
       <c r="I10">
-        <v>1.023391823609026</v>
+        <v>0.96205447803291033</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -1166,8 +1165,8 @@
       <c r="L10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>16</v>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1178,34 +1177,34 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>840.69000244140625</v>
+        <v>700.5999755859375</v>
       </c>
       <c r="D11">
-        <v>851.63724795241899</v>
+        <v>944.25263483310823</v>
       </c>
       <c r="E11">
-        <v>813.35703218150968</v>
+        <v>629.28450941912388</v>
       </c>
       <c r="F11">
-        <v>62.175067966627921</v>
+        <v>28.664856863089671</v>
       </c>
       <c r="G11">
-        <v>-1.2888739925454049</v>
+        <v>-23.67146729881506</v>
       </c>
       <c r="H11">
-        <v>-5.7327080778728838</v>
+        <v>-10.431964842020991</v>
       </c>
       <c r="I11">
-        <v>0.96134903265631699</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
+        <v>0.7597876388759438</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>16</v>
+      <c r="L11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>18</v>
@@ -1219,25 +1218,25 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>181.47999572753901</v>
+        <v>181.5299987792969</v>
       </c>
       <c r="D12">
-        <v>190.30948299851011</v>
+        <v>189.1536035560506</v>
       </c>
       <c r="E12">
-        <v>168.9648002743694</v>
+        <v>173.6349663030453</v>
       </c>
       <c r="F12">
-        <v>60.205541524967863</v>
+        <v>60.045450383966617</v>
       </c>
       <c r="G12">
-        <v>5.7535538984671462</v>
+        <v>4.6278189660090447</v>
       </c>
       <c r="H12">
-        <v>4.8784019802093814</v>
+        <v>4.9114659879248714</v>
       </c>
       <c r="I12">
-        <v>1.317847052225567</v>
+        <v>1.016320451768814</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -1245,8 +1244,8 @@
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>16</v>
@@ -1260,25 +1259,25 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>276.16000366210938</v>
+        <v>285.77999877929688</v>
       </c>
       <c r="D13">
-        <v>278.46618383926671</v>
+        <v>287.81219585754411</v>
       </c>
       <c r="E13">
-        <v>265.96524752234041</v>
+        <v>266.28494595328169</v>
       </c>
       <c r="F13">
-        <v>62.103824612631762</v>
+        <v>68.308411974095037</v>
       </c>
       <c r="G13">
-        <v>4.7491838856175832</v>
+        <v>5.8721903483511264</v>
       </c>
       <c r="H13">
-        <v>4.9860415160130636</v>
+        <v>5.1992890406501422</v>
       </c>
       <c r="I13">
-        <v>1.1839695410943429</v>
+        <v>1.065206017631787</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -1286,8 +1285,8 @@
       <c r="K13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>18</v>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>16</v>
@@ -1301,31 +1300,31 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>41.950000762939453</v>
+        <v>42.599998474121087</v>
       </c>
       <c r="D14">
-        <v>41.85889260922211</v>
+        <v>43.898898023129483</v>
       </c>
       <c r="E14">
-        <v>38.529678993735473</v>
+        <v>39.403958422183017</v>
       </c>
       <c r="F14">
-        <v>69.697020051758599</v>
+        <v>79.629634862416424</v>
       </c>
       <c r="G14">
-        <v>0.26044205726697811</v>
+        <v>0.71166403614893881</v>
       </c>
       <c r="H14">
-        <v>7.4706410221828598E-2</v>
+        <v>0.37648022746498733</v>
       </c>
       <c r="I14">
-        <v>1.1508048623439391</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
+        <v>1.0333244483053581</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
@@ -1342,25 +1341,25 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4284.72998046875</v>
+        <v>4370.77001953125</v>
       </c>
       <c r="D15">
-        <v>4366.8968418365566</v>
+        <v>4374.5574980614192</v>
       </c>
       <c r="E15">
-        <v>4078.7518746812998</v>
+        <v>4247.8654930100101</v>
       </c>
       <c r="F15">
-        <v>65.148960089938157</v>
+        <v>62.05080729491447</v>
       </c>
       <c r="G15">
-        <v>101.248749670538</v>
+        <v>104.5102264844372</v>
       </c>
       <c r="H15">
-        <v>98.907022398114719</v>
+        <v>101.0993411010803</v>
       </c>
       <c r="I15">
-        <v>1.145065291194824</v>
+        <v>1.022901422420746</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -1383,25 +1382,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>52.200000762939453</v>
+        <v>53.180000305175781</v>
       </c>
       <c r="D16">
-        <v>54.667046130219738</v>
+        <v>53.585428033094459</v>
       </c>
       <c r="E16">
-        <v>51.470096596133487</v>
+        <v>51.951714039310673</v>
       </c>
       <c r="F16">
-        <v>62.429075188959629</v>
+        <v>65.569282308117778</v>
       </c>
       <c r="G16">
-        <v>1.0586891962588749</v>
+        <v>0.94785669703187381</v>
       </c>
       <c r="H16">
-        <v>1.1103583811857269</v>
+        <v>1.0268456427560559</v>
       </c>
       <c r="I16">
-        <v>0.95433703892470723</v>
+        <v>0.94398140373908357</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -1424,34 +1423,34 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>153.03999328613281</v>
+        <v>169.72999572753909</v>
       </c>
       <c r="D17">
-        <v>153.79968190430111</v>
+        <v>170.50999417192031</v>
       </c>
       <c r="E17">
-        <v>146.80603098632389</v>
+        <v>141.4157216832694</v>
       </c>
       <c r="F17">
-        <v>40.224997531980527</v>
+        <v>74.064424572761297</v>
       </c>
       <c r="G17">
-        <v>1.556821389976534</v>
+        <v>3.5564018126480899</v>
       </c>
       <c r="H17">
-        <v>2.533275153901243</v>
+        <v>2.5831678156553441</v>
       </c>
       <c r="I17">
-        <v>1.139153390572005</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>15</v>
+        <v>1.0414703881452909</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>18</v>
+      <c r="L17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>16</v>
@@ -1465,25 +1464,25 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>65.739997863769531</v>
+        <v>63.970001220703118</v>
       </c>
       <c r="D18">
-        <v>66.078880444947245</v>
+        <v>66.70566218517699</v>
       </c>
       <c r="E18">
-        <v>60.529691288799967</v>
+        <v>61.925767214585839</v>
       </c>
       <c r="F18">
-        <v>63.232819957073453</v>
+        <v>57.619745622303533</v>
       </c>
       <c r="G18">
-        <v>0.95068406754195678</v>
+        <v>0.94319145207241917</v>
       </c>
       <c r="H18">
-        <v>0.58057316669756975</v>
+        <v>0.82195567919576396</v>
       </c>
       <c r="I18">
-        <v>1.0873112085750101</v>
+        <v>0.96347624960721001</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -1494,8 +1493,8 @@
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>16</v>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1506,25 +1505,25 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>0.95499998331069957</v>
+        <v>0.95599997043609619</v>
       </c>
       <c r="D19">
-        <v>1.07917068253477</v>
+        <v>1.0226803530283599</v>
       </c>
       <c r="E19">
-        <v>0.91511500314071481</v>
+        <v>0.92189107390819858</v>
       </c>
       <c r="F19">
-        <v>51.592356123665922</v>
+        <v>39.256195192020662</v>
       </c>
       <c r="G19">
-        <v>-4.5777057175839999E-4</v>
+        <v>-2.9610825686307999E-3</v>
       </c>
       <c r="H19">
-        <v>7.5068785158152003E-3</v>
+        <v>2.4529956021754999E-3</v>
       </c>
       <c r="I19">
-        <v>0.68805967759225706</v>
+        <v>0.59096776565329534</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -1547,37 +1546,37 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>402.01998901367188</v>
+        <v>394.489990234375</v>
       </c>
       <c r="D20">
-        <v>404.93660125531198</v>
+        <v>403.38380071908171</v>
       </c>
       <c r="E20">
-        <v>386.27482452593802</v>
+        <v>386.58762610848521</v>
       </c>
       <c r="F20">
-        <v>71.214408031697005</v>
+        <v>52.941179567278972</v>
       </c>
       <c r="G20">
-        <v>12.80243067118988</v>
+        <v>9.7898903088823204</v>
       </c>
       <c r="H20">
-        <v>12.53537715312671</v>
+        <v>11.374179752897289</v>
       </c>
       <c r="I20">
-        <v>1.0263135281168161</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
+        <v>0.90344521493646945</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>16</v>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1588,25 +1587,25 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>41.259998321533203</v>
+        <v>42.229999542236328</v>
       </c>
       <c r="D21">
-        <v>41.613308183370137</v>
+        <v>42.740749025108443</v>
       </c>
       <c r="E21">
-        <v>40.463834804562332</v>
+        <v>40.779250887698481</v>
       </c>
       <c r="F21">
-        <v>54.545448597066809</v>
+        <v>56.689344365103743</v>
       </c>
       <c r="G21">
-        <v>0.37762829195201419</v>
+        <v>0.53072592408228303</v>
       </c>
       <c r="H21">
-        <v>0.40164647646208779</v>
+        <v>0.45510756388636281</v>
       </c>
       <c r="I21">
-        <v>0.92518118473953426</v>
+        <v>0.92352532464506154</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -1614,8 +1613,8 @@
       <c r="K21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>18</v>
+      <c r="L21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>18</v>
@@ -1629,25 +1628,25 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>110.4899978637695</v>
+        <v>106.15000152587891</v>
       </c>
       <c r="D22">
-        <v>115.7561095673816</v>
+        <v>114.2341379226845</v>
       </c>
       <c r="E22">
-        <v>108.7581770188349</v>
+        <v>102.71157784531221</v>
       </c>
       <c r="F22">
-        <v>51.530212715284442</v>
+        <v>53.153949938093177</v>
       </c>
       <c r="G22">
-        <v>0.91758131880382621</v>
+        <v>-0.28515192833307879</v>
       </c>
       <c r="H22">
-        <v>0.5160423493134918</v>
+        <v>0.25962899461074501</v>
       </c>
       <c r="I22">
-        <v>0.94793402238976865</v>
+        <v>0.85839199100755625</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -1655,8 +1654,8 @@
       <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>18</v>
@@ -1670,25 +1669,25 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>889.030029296875</v>
+        <v>885.28997802734375</v>
       </c>
       <c r="D23">
-        <v>911.83603503992242</v>
+        <v>908.57687831922794</v>
       </c>
       <c r="E23">
-        <v>863.74967575806863</v>
+        <v>876.79454676447733</v>
       </c>
       <c r="F23">
-        <v>39.359688827662858</v>
+        <v>49.837413873254377</v>
       </c>
       <c r="G23">
-        <v>1.0481637146302769</v>
+        <v>0.3083545093286375</v>
       </c>
       <c r="H23">
-        <v>1.90051598894873</v>
+        <v>1.2074971585404739</v>
       </c>
       <c r="I23">
-        <v>1.2298003099071539</v>
+        <v>1.180618395224831</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -1711,28 +1710,28 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>288.10000610351563</v>
+        <v>291.1099853515625</v>
       </c>
       <c r="D24">
-        <v>294.40141100802418</v>
+        <v>292.88321201883991</v>
       </c>
       <c r="E24">
-        <v>280.1671750689847</v>
+        <v>286.58822352803509</v>
       </c>
       <c r="F24">
-        <v>72.440349446923079</v>
+        <v>64.357974297169307</v>
       </c>
       <c r="G24">
-        <v>8.5890853608865996</v>
+        <v>8.1672915874472665</v>
       </c>
       <c r="H24">
-        <v>7.3247844952032803</v>
+        <v>7.9368738381856181</v>
       </c>
       <c r="I24">
-        <v>0.85923964745056958</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>18</v>
+        <v>0.79110862749180533</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
@@ -1752,25 +1751,25 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>320.20999145507813</v>
+        <v>310.33999633789063</v>
       </c>
       <c r="D25">
-        <v>326.3098490019201</v>
+        <v>323.83375313523538</v>
       </c>
       <c r="E25">
-        <v>270.67300883848168</v>
+        <v>294.1319538262602</v>
       </c>
       <c r="F25">
-        <v>66.435941022285817</v>
+        <v>63.269742886645211</v>
       </c>
       <c r="G25">
-        <v>9.9274787462113636</v>
+        <v>10.04471559392454</v>
       </c>
       <c r="H25">
-        <v>6.4419766748915563</v>
+        <v>8.5832073621382481</v>
       </c>
       <c r="I25">
-        <v>0.87844132469785274</v>
+        <v>0.74786015231000735</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -1793,25 +1792,25 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>54.25</v>
+        <v>56.400001525878913</v>
       </c>
       <c r="D26">
-        <v>54.472205133252388</v>
+        <v>57.103630016898968</v>
       </c>
       <c r="E26">
-        <v>51.747794997537227</v>
+        <v>52.176372032138417</v>
       </c>
       <c r="F26">
-        <v>74.759587389880622</v>
+        <v>78.839577779730689</v>
       </c>
       <c r="G26">
-        <v>0.97865756042887142</v>
+        <v>1.304037877670126</v>
       </c>
       <c r="H26">
-        <v>0.94788050045321559</v>
+        <v>1.0710590829375159</v>
       </c>
       <c r="I26">
-        <v>1.032904161052729</v>
+        <v>0.97233357982028246</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>18</v>
@@ -1822,8 +1821,8 @@
       <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>16</v>
+      <c r="M26" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1834,34 +1833,34 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>66.629997253417969</v>
+        <v>63.669998168945313</v>
       </c>
       <c r="D27">
-        <v>68.152984128969024</v>
+        <v>68.428205006802798</v>
       </c>
       <c r="E27">
-        <v>62.735585294161552</v>
+        <v>63.171792377404792</v>
       </c>
       <c r="F27">
-        <v>87.192107272541634</v>
+        <v>58.78740593166625</v>
       </c>
       <c r="G27">
-        <v>2.216937597622533</v>
+        <v>1.8292325933960001</v>
       </c>
       <c r="H27">
-        <v>1.5873416454031739</v>
+        <v>1.864901640407163</v>
       </c>
       <c r="I27">
-        <v>0.73953489082721069</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
+        <v>0.7378306180765094</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
+      <c r="L27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>18</v>
@@ -1875,25 +1874,25 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>151.41999816894531</v>
+        <v>151.19999694824219</v>
       </c>
       <c r="D28">
-        <v>152.44792196105561</v>
+        <v>153.18523107455329</v>
       </c>
       <c r="E28">
-        <v>148.56636026550689</v>
+        <v>147.1376187440851</v>
       </c>
       <c r="F28">
-        <v>59.353935436215338</v>
+        <v>64.588651564320116</v>
       </c>
       <c r="G28">
-        <v>1.599567715708758</v>
+        <v>1.3280682793629519</v>
       </c>
       <c r="H28">
-        <v>1.0937016009693381</v>
+        <v>1.2695348617560529</v>
       </c>
       <c r="I28">
-        <v>0.95114107390286073</v>
+        <v>0.89474362012453557</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>15</v>
@@ -1916,25 +1915,25 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>411.07998657226563</v>
+        <v>405.1400146484375</v>
       </c>
       <c r="D29">
-        <v>413.24897100971413</v>
+        <v>412.6665870785277</v>
       </c>
       <c r="E29">
-        <v>399.71388473805382</v>
+        <v>400.6305582200215</v>
       </c>
       <c r="F29">
-        <v>52.336010678140937</v>
+        <v>36.962693272017603</v>
       </c>
       <c r="G29">
-        <v>5.213146031809174</v>
+        <v>3.502517388897274</v>
       </c>
       <c r="H29">
-        <v>6.9385523282826203</v>
+        <v>5.1876368551300427</v>
       </c>
       <c r="I29">
-        <v>1.006129464764731</v>
+        <v>0.95956137084427873</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -1945,8 +1944,8 @@
       <c r="L29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>16</v>
+      <c r="M29" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1957,25 +1956,25 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>270.32998657226563</v>
+        <v>271.98001098632813</v>
       </c>
       <c r="D30">
-        <v>271.94461611710761</v>
+        <v>274.56202591709967</v>
       </c>
       <c r="E30">
-        <v>266.38681350063803</v>
+        <v>265.51226258736472</v>
       </c>
       <c r="F30">
-        <v>46.170543946371197</v>
+        <v>44.206301593028172</v>
       </c>
       <c r="G30">
-        <v>-0.33949580081076641</v>
+        <v>-0.1614659424360525</v>
       </c>
       <c r="H30">
-        <v>0.48707481319072399</v>
+        <v>8.7678180181884793E-2</v>
       </c>
       <c r="I30">
-        <v>1.079831612467373</v>
+        <v>1.0475778661510391</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -1998,25 +1997,25 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>94.129997253417955</v>
+        <v>96.540000915527344</v>
       </c>
       <c r="D31">
-        <v>95.420857011179578</v>
+        <v>97.610789733668597</v>
       </c>
       <c r="E31">
-        <v>91.550569816387394</v>
+        <v>91.874923680114875</v>
       </c>
       <c r="F31">
-        <v>54.38727403993483</v>
+        <v>51.826321235677163</v>
       </c>
       <c r="G31">
-        <v>0.63125259861766381</v>
+        <v>0.97297886974433823</v>
       </c>
       <c r="H31">
-        <v>0.81935208268146897</v>
+        <v>0.8254261106429942</v>
       </c>
       <c r="I31">
-        <v>0.80732469599979806</v>
+        <v>0.75355616744710507</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
@@ -2024,8 +2023,8 @@
       <c r="K31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>18</v>
+      <c r="L31" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>18</v>
@@ -2039,31 +2038,31 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>501.8800048828125</v>
+        <v>444.35000610351563</v>
       </c>
       <c r="D32">
-        <v>502.82282764928073</v>
+        <v>531.09508781179125</v>
       </c>
       <c r="E32">
-        <v>485.57145946009427</v>
+        <v>446.55348047782928</v>
       </c>
       <c r="F32">
-        <v>26.047272093046612</v>
+        <v>23.024264100106919</v>
       </c>
       <c r="G32">
-        <v>-12.39798889225108</v>
+        <v>-15.044449548957971</v>
       </c>
       <c r="H32">
-        <v>-10.474684790666251</v>
+        <v>-11.77907176013032</v>
       </c>
       <c r="I32">
-        <v>1.085386286932555</v>
+        <v>1.0529271011306101</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>15</v>
+      <c r="K32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>18</v>
@@ -2080,28 +2079,28 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>341.3900146484375</v>
+        <v>348.489990234375</v>
       </c>
       <c r="D33">
-        <v>344.33506714792799</v>
+        <v>349.93458712084839</v>
       </c>
       <c r="E33">
-        <v>326.17921507863451</v>
+        <v>332.87112925749977</v>
       </c>
       <c r="F33">
-        <v>65.287315086585849</v>
+        <v>71.05926496055416</v>
       </c>
       <c r="G33">
-        <v>8.6984811855873545</v>
+        <v>8.8745439602399756</v>
       </c>
       <c r="H33">
-        <v>8.3193135580000614</v>
+        <v>8.5870768798310824</v>
       </c>
       <c r="I33">
-        <v>1.030312181820435</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>15</v>
+        <v>0.90317574525636479</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>15</v>
@@ -2109,8 +2108,8 @@
       <c r="L33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
+      <c r="M33" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2121,25 +2120,25 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>264.3599853515625</v>
+        <v>274.260009765625</v>
       </c>
       <c r="D34">
-        <v>266.16798314126248</v>
+        <v>275.49320112319919</v>
       </c>
       <c r="E34">
-        <v>259.00057852168391</v>
+        <v>259.56394522166681</v>
       </c>
       <c r="F34">
-        <v>57.070284869140252</v>
+        <v>59.099554859546522</v>
       </c>
       <c r="G34">
-        <v>-6.0440598150153733</v>
+        <v>-3.3809305256650082</v>
       </c>
       <c r="H34">
-        <v>-6.1769123394338497</v>
+        <v>-5.1040541202450349</v>
       </c>
       <c r="I34">
-        <v>1.179557017383478</v>
+        <v>1.068680392758975</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>15</v>
@@ -2162,25 +2161,25 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>191.16000366210929</v>
+        <v>192.6199951171875</v>
       </c>
       <c r="D35">
-        <v>192.2204024215232</v>
+        <v>194.411750645523</v>
       </c>
       <c r="E35">
-        <v>182.91102806815309</v>
+        <v>187.462534371218</v>
       </c>
       <c r="F35">
-        <v>54.636878048558707</v>
+        <v>64.151669341032317</v>
       </c>
       <c r="G35">
-        <v>3.9944970213138049</v>
+        <v>4.0443313435145569</v>
       </c>
       <c r="H35">
-        <v>4.2112614644813444</v>
+        <v>4.1234186155770436</v>
       </c>
       <c r="I35">
-        <v>1.2955109526235351</v>
+        <v>1.1436887707885719</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>15</v>
@@ -2203,25 +2202,25 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>245.4700012207031</v>
+        <v>248.6300048828125</v>
       </c>
       <c r="D36">
-        <v>247.2102192880532</v>
+        <v>250.26088902930201</v>
       </c>
       <c r="E36">
-        <v>240.32406939079721</v>
+        <v>240.05625836188099</v>
       </c>
       <c r="F36">
-        <v>56.794945356815823</v>
+        <v>60.284900235359167</v>
       </c>
       <c r="G36">
-        <v>2.5983660267494879</v>
+        <v>2.730885816676448</v>
       </c>
       <c r="H36">
-        <v>3.205170239047856</v>
+        <v>2.8576728512013831</v>
       </c>
       <c r="I36">
-        <v>1.158129214914662</v>
+        <v>1.1419022799865759</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>15</v>
@@ -2244,25 +2243,25 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>164.52000427246091</v>
+        <v>164.50999450683591</v>
       </c>
       <c r="D37">
-        <v>169.34249657276561</v>
+        <v>168.3028214894465</v>
       </c>
       <c r="E37">
-        <v>161.12035917500219</v>
+        <v>161.77146265536379</v>
       </c>
       <c r="F37">
-        <v>53.858434862544762</v>
+        <v>48.053893127446059</v>
       </c>
       <c r="G37">
-        <v>0.61258776843760643</v>
+        <v>0.73157992027648788</v>
       </c>
       <c r="H37">
-        <v>0.64649923133042886</v>
+        <v>0.72604663744117182</v>
       </c>
       <c r="I37">
-        <v>1.1613561422019989</v>
+        <v>1.022791443219385</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>15</v>
@@ -2270,8 +2269,8 @@
       <c r="K37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>18</v>
+      <c r="L37" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>16</v>
@@ -2285,25 +2284,25 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>163.24000549316409</v>
+        <v>162.92999267578119</v>
       </c>
       <c r="D38">
-        <v>167.82242437323131</v>
+        <v>166.68386498444431</v>
       </c>
       <c r="E38">
-        <v>160.02329183073081</v>
+        <v>160.6561400727544</v>
       </c>
       <c r="F38">
-        <v>53.766936638384827</v>
+        <v>47.38461056922975</v>
       </c>
       <c r="G38">
-        <v>0.63294121642039158</v>
+        <v>0.69382469740202168</v>
       </c>
       <c r="H38">
-        <v>0.66991160697407515</v>
+        <v>0.72544834346108733</v>
       </c>
       <c r="I38">
-        <v>1.1572461634702971</v>
+        <v>1.0224931702448661</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>15</v>
@@ -2326,28 +2325,28 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>516.29998779296875</v>
+        <v>529</v>
       </c>
       <c r="D39">
-        <v>519.03636268225841</v>
+        <v>539.63924927354083</v>
       </c>
       <c r="E39">
-        <v>480.29220700245139</v>
+        <v>497.27217127612431</v>
       </c>
       <c r="F39">
-        <v>64.506231717428605</v>
+        <v>73.306857669668815</v>
       </c>
       <c r="G39">
-        <v>3.9059381632076788</v>
+        <v>8.9614939241313323</v>
       </c>
       <c r="H39">
-        <v>1.86143383671066</v>
+        <v>5.242877693609028</v>
       </c>
       <c r="I39">
-        <v>1.3177604174999611</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>15</v>
+        <v>1.159290312677014</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>15</v>
@@ -2367,28 +2366,28 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>411.89999389648438</v>
+        <v>415.60000610351563</v>
       </c>
       <c r="D40">
-        <v>417.3477766523967</v>
+        <v>420.48274410555689</v>
       </c>
       <c r="E40">
-        <v>405.54078187159888</v>
+        <v>408.98582278897442</v>
       </c>
       <c r="F40">
-        <v>71.158748416479497</v>
+        <v>69.431701103209249</v>
       </c>
       <c r="G40">
-        <v>10.45201644453914</v>
+        <v>9.7304306923342665</v>
       </c>
       <c r="H40">
-        <v>10.53490666333639</v>
+        <v>10.233880859767149</v>
       </c>
       <c r="I40">
-        <v>0.98732682033304819</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>18</v>
+        <v>0.9110576332784911</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>15</v>
@@ -2408,25 +2407,25 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>215.99000549316409</v>
+        <v>219.55000305175781</v>
       </c>
       <c r="D41">
-        <v>219.92233779361001</v>
+        <v>221.3909576351258</v>
       </c>
       <c r="E41">
-        <v>197.30052336012889</v>
+        <v>211.94333627530941</v>
       </c>
       <c r="F41">
-        <v>76.774788870835096</v>
+        <v>75.711841634943312</v>
       </c>
       <c r="G41">
-        <v>2.131185977561159</v>
+        <v>3.7733405242629199</v>
       </c>
       <c r="H41">
-        <v>1.012544066714018</v>
+        <v>2.3890778033174782</v>
       </c>
       <c r="I41">
-        <v>1.051697107058978</v>
+        <v>0.98386135703049937</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
@@ -2437,8 +2436,8 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
+      <c r="M41" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2449,25 +2448,25 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>233.25999450683599</v>
+        <v>232.8800048828125</v>
       </c>
       <c r="D42">
-        <v>238.0061934826862</v>
+        <v>235.37779963705731</v>
       </c>
       <c r="E42">
-        <v>220.57666174192309</v>
+        <v>231.8650592496615</v>
       </c>
       <c r="F42">
-        <v>76.62772784559823</v>
+        <v>74.83504239608709</v>
       </c>
       <c r="G42">
-        <v>7.0771319887027184</v>
+        <v>6.7179271002390237</v>
       </c>
       <c r="H42">
-        <v>6.5581491943741188</v>
+        <v>6.794048516270327</v>
       </c>
       <c r="I42">
-        <v>1.057884529934761</v>
+        <v>1.0460657210934989</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>18</v>
@@ -2475,8 +2474,8 @@
       <c r="K42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
+      <c r="L42" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
@@ -2490,25 +2489,25 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>23.559999465942379</v>
+        <v>22.440000534057621</v>
       </c>
       <c r="D43">
-        <v>24.056215790512901</v>
+        <v>24.068426840055519</v>
       </c>
       <c r="E43">
-        <v>21.883783381152838</v>
+        <v>21.957286944298559</v>
       </c>
       <c r="F43">
-        <v>59.57854182134944</v>
+        <v>35.946473174771803</v>
       </c>
       <c r="G43">
-        <v>0.44273882837252643</v>
+        <v>0.25843866734766863</v>
       </c>
       <c r="H43">
-        <v>0.32209332981678951</v>
+        <v>0.33043040230946469</v>
       </c>
       <c r="I43">
-        <v>0.51688558234074267</v>
+        <v>0.44530882142935518</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>15</v>
@@ -2516,8 +2515,8 @@
       <c r="K43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
+      <c r="L43" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>18</v>
@@ -2531,25 +2530,25 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>616.67999267578125</v>
+        <v>609.22998046875</v>
       </c>
       <c r="D44">
-        <v>627.33372500441567</v>
+        <v>625.45770767648673</v>
       </c>
       <c r="E44">
-        <v>597.77197044759316</v>
+        <v>606.3308491036471</v>
       </c>
       <c r="F44">
-        <v>35.546920509126679</v>
+        <v>43.023882267477227</v>
       </c>
       <c r="G44">
-        <v>-5.9016306606164326</v>
+        <v>-5.5967183955908686</v>
       </c>
       <c r="H44">
-        <v>-5.5437567774628018</v>
+        <v>-5.4777408221851349</v>
       </c>
       <c r="I44">
-        <v>1.007577679508846</v>
+        <v>0.94446408799393855</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>15</v>
@@ -2560,8 +2559,8 @@
       <c r="L44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
+      <c r="M44" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2572,25 +2571,25 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>582.3499755859375</v>
+        <v>585.25</v>
       </c>
       <c r="D45">
-        <v>585.29459559194004</v>
+        <v>589.03355764102309</v>
       </c>
       <c r="E45">
-        <v>567.19112218149746</v>
+        <v>576.96644235897691</v>
       </c>
       <c r="F45">
-        <v>59.147630510545042</v>
+        <v>62.168068990897837</v>
       </c>
       <c r="G45">
-        <v>4.9404029411903139</v>
+        <v>5.7256421879491199</v>
       </c>
       <c r="H45">
-        <v>4.7116292009197576</v>
+        <v>5.2493548421748617</v>
       </c>
       <c r="I45">
-        <v>1.1042807738596421</v>
+        <v>1.035740155111343</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>15</v>
@@ -2613,25 +2612,25 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>221.25999450683599</v>
+        <v>226.1199951171875</v>
       </c>
       <c r="D46">
-        <v>221.45629776552551</v>
+        <v>229.61728717053009</v>
       </c>
       <c r="E46">
-        <v>214.6751283644968</v>
+        <v>214.66557154180251</v>
       </c>
       <c r="F46">
-        <v>51.098419279189173</v>
+        <v>62.918331732101556</v>
       </c>
       <c r="G46">
-        <v>0.86949739748015986</v>
+        <v>2.1330076004384182</v>
       </c>
       <c r="H46">
-        <v>1.04082628339743</v>
+        <v>1.444885887585337</v>
       </c>
       <c r="I46">
-        <v>1.087298047770616</v>
+        <v>0.99980759572736311</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>15</v>
@@ -2639,11 +2638,11 @@
       <c r="K46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2654,25 +2653,25 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>161.46000671386719</v>
+        <v>164.4700012207031</v>
       </c>
       <c r="D47">
-        <v>161.66080191374391</v>
+        <v>165.98419194159521</v>
       </c>
       <c r="E47">
-        <v>159.09062369311991</v>
+        <v>158.89295300818151</v>
       </c>
       <c r="F47">
-        <v>40.022697901655121</v>
+        <v>68.252116452995324</v>
       </c>
       <c r="G47">
-        <v>-0.72806350362864691</v>
+        <v>7.1047101140976496E-2</v>
       </c>
       <c r="H47">
-        <v>-0.50985053065311881</v>
+        <v>-0.3274171687400424</v>
       </c>
       <c r="I47">
-        <v>1.048552334619915</v>
+        <v>1.055409341141653</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>15</v>
@@ -2680,8 +2679,8 @@
       <c r="K47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>18</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
@@ -2695,28 +2694,28 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>222.28999328613281</v>
+        <v>224.41999816894531</v>
       </c>
       <c r="D48">
-        <v>222.60468291952361</v>
+        <v>229.74540345106439</v>
       </c>
       <c r="E48">
-        <v>202.16102491390279</v>
+        <v>210.3917338257213</v>
       </c>
       <c r="F48">
-        <v>69.149294287784087</v>
+        <v>73.673458901710077</v>
       </c>
       <c r="G48">
-        <v>0.87065786112705723</v>
+        <v>3.0530373590365798</v>
       </c>
       <c r="H48">
-        <v>-0.27267255608199892</v>
+        <v>1.3407751396608121</v>
       </c>
       <c r="I48">
-        <v>1.181292692836251</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>15</v>
+        <v>1.0673164338371359</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>15</v>
@@ -2736,28 +2735,28 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>69.569999694824219</v>
+        <v>69.900001525878906</v>
       </c>
       <c r="D49">
-        <v>70.711328736285864</v>
+        <v>70.923616326664956</v>
       </c>
       <c r="E49">
-        <v>68.50867030459024</v>
+        <v>68.944953183658697</v>
       </c>
       <c r="F49">
-        <v>28.740065240506791</v>
+        <v>33.678742821904173</v>
       </c>
       <c r="G49">
-        <v>-0.32275188191781012</v>
+        <v>-0.21312149653870449</v>
       </c>
       <c r="H49">
-        <v>-1.00183424131981E-2</v>
+        <v>-0.1394013402698035</v>
       </c>
       <c r="I49">
-        <v>1.210253839813169</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+        <v>1.176451098950734</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>15</v>
@@ -2777,25 +2776,25 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>474.04000854492188</v>
+        <v>486.05999755859381</v>
       </c>
       <c r="D50">
-        <v>475.43969633051978</v>
+        <v>490.64206650236918</v>
       </c>
       <c r="E50">
-        <v>462.74316499760522</v>
+        <v>464.03222374595668</v>
       </c>
       <c r="F50">
-        <v>45.86862258557715</v>
+        <v>57.981943841151029</v>
       </c>
       <c r="G50">
-        <v>1.1364738917306449</v>
+        <v>3.433263839794392</v>
       </c>
       <c r="H50">
-        <v>2.1363344249030209</v>
+        <v>2.4329541508969661</v>
       </c>
       <c r="I50">
-        <v>1.0213997154786481</v>
+        <v>0.97973411551181755</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>15</v>
@@ -2803,11 +2802,11 @@
       <c r="K50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>16</v>
+      <c r="L50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2818,25 +2817,25 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>932.05999755859375</v>
+        <v>917.11999511718761</v>
       </c>
       <c r="D51">
-        <v>941.17288716485155</v>
+        <v>935.92388638934403</v>
       </c>
       <c r="E51">
-        <v>872.34709748916634</v>
+        <v>903.75039513967397</v>
       </c>
       <c r="F51">
-        <v>54.865592447331217</v>
+        <v>68.062825757529041</v>
       </c>
       <c r="G51">
-        <v>0.13754985633033809</v>
+        <v>2.1584597968183061</v>
       </c>
       <c r="H51">
-        <v>-2.7377364292302122</v>
+        <v>3.0968144046042399E-2</v>
       </c>
       <c r="I51">
-        <v>1.272949124581662</v>
+        <v>1.171954937979103</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>15</v>
@@ -2859,34 +2858,34 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>604.16998291015625</v>
+        <v>609.6199951171875</v>
       </c>
       <c r="D52">
-        <v>611.07786449412902</v>
+        <v>616.75864945469277</v>
       </c>
       <c r="E52">
-        <v>597.86783165542465</v>
+        <v>596.12419792253934</v>
       </c>
       <c r="F52">
-        <v>70.502615419604268</v>
+        <v>68.610058301749064</v>
       </c>
       <c r="G52">
-        <v>11.43550842320974</v>
+        <v>11.0574062345122</v>
       </c>
       <c r="H52">
-        <v>11.259620258308431</v>
+        <v>11.25808398242736</v>
       </c>
       <c r="I52">
-        <v>1.3035197238278959</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>18</v>
+        <v>1.2786126911282449</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
+      <c r="L52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
@@ -2900,28 +2899,28 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>275.760009765625</v>
+        <v>281.30999755859369</v>
       </c>
       <c r="D53">
-        <v>279.42497954626691</v>
+        <v>286.85613623459813</v>
       </c>
       <c r="E53">
-        <v>265.1264469325277</v>
+        <v>271.44957142444213</v>
       </c>
       <c r="F53">
-        <v>70.219138197512962</v>
+        <v>68.969199695395972</v>
       </c>
       <c r="G53">
-        <v>6.5413614819374288</v>
+        <v>7.3659955618722961</v>
       </c>
       <c r="H53">
-        <v>6.4591415400422614</v>
+        <v>6.9234910334303912</v>
       </c>
       <c r="I53">
-        <v>1.015404749471978</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>18</v>
+        <v>0.93413792168043575</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>15</v>
@@ -2929,8 +2928,8 @@
       <c r="L53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>16</v>
+      <c r="M53" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2941,25 +2940,25 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>82.889999389648438</v>
+        <v>73.139999389648438</v>
       </c>
       <c r="D54">
-        <v>83.5376314416756</v>
+        <v>89.48405451602919</v>
       </c>
       <c r="E54">
-        <v>79.913797652911441</v>
+        <v>69.701658025823477</v>
       </c>
       <c r="F54">
-        <v>62.071755915307321</v>
+        <v>31.271031670325531</v>
       </c>
       <c r="G54">
-        <v>0.5406878920064031</v>
+        <v>-0.7884354899298387</v>
       </c>
       <c r="H54">
-        <v>8.6611693294880304E-2</v>
+        <v>-3.3838142020219099E-2</v>
       </c>
       <c r="I54">
-        <v>0.90211952116955929</v>
+        <v>0.74684755700517969</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -2967,8 +2966,8 @@
       <c r="K54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
+      <c r="L54" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>18</v>
@@ -2982,37 +2981,37 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>502.260009765625</v>
+        <v>513.760009765625</v>
       </c>
       <c r="D55">
-        <v>504.33644724828889</v>
+        <v>518.68305367555877</v>
       </c>
       <c r="E55">
-        <v>490.309269827604</v>
+        <v>493.30267281718687</v>
       </c>
       <c r="F55">
-        <v>55.810237421403258</v>
+        <v>75.012367861164307</v>
       </c>
       <c r="G55">
-        <v>5.0054154687833261</v>
+        <v>7.0011273714534923</v>
       </c>
       <c r="H55">
-        <v>5.3576249258953066</v>
+        <v>5.9359503590531624</v>
       </c>
       <c r="I55">
-        <v>1.0157829686601401</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>15</v>
+        <v>0.9743778258924255</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>16</v>
+      <c r="L55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3023,34 +3022,34 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>305.04000854492188</v>
+        <v>314.70001220703119</v>
       </c>
       <c r="D56">
-        <v>306.10089227597268</v>
+        <v>318.56497136362691</v>
       </c>
       <c r="E56">
-        <v>300.43340076253168</v>
+        <v>299.63789205713209</v>
       </c>
       <c r="F56">
-        <v>69.315267255332188</v>
+        <v>75.784595680935851</v>
       </c>
       <c r="G56">
-        <v>4.2608065406067226</v>
+        <v>5.5125467442572926</v>
       </c>
       <c r="H56">
-        <v>4.8050547804084331</v>
+        <v>5.008386502799679</v>
       </c>
       <c r="I56">
-        <v>1.0341047091570219</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>15</v>
+        <v>1.0210912813884749</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>18</v>
+      <c r="L56" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>16</v>
@@ -3064,25 +3063,25 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>70.660003662109375</v>
+        <v>71.120002746582031</v>
       </c>
       <c r="D57">
-        <v>71.585989761553236</v>
+        <v>72.215915245688436</v>
       </c>
       <c r="E57">
-        <v>70.519727488725778</v>
+        <v>70.129803138100627</v>
       </c>
       <c r="F57">
-        <v>15.761850616163899</v>
+        <v>28.370835579110459</v>
       </c>
       <c r="G57">
-        <v>-0.55721469210573105</v>
+        <v>-0.51464915143468204</v>
       </c>
       <c r="H57">
-        <v>-0.11667633165614</v>
+        <v>-0.3674779954287411</v>
       </c>
       <c r="I57">
-        <v>1.0149822976479681</v>
+        <v>1.0429303214710559</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
@@ -3105,25 +3104,25 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>89.360000610351563</v>
+        <v>89.790000915527344</v>
       </c>
       <c r="D58">
-        <v>89.738059966816238</v>
+        <v>90.733934813259339</v>
       </c>
       <c r="E58">
-        <v>86.767653359774172</v>
+        <v>88.177492275886863</v>
       </c>
       <c r="F58">
-        <v>46.736293988518057</v>
+        <v>52.876379732177867</v>
       </c>
       <c r="G58">
-        <v>0.200997046075372</v>
+        <v>0.39701150738130758</v>
       </c>
       <c r="H58">
-        <v>0.40779186495903053</v>
+        <v>0.37933151818804028</v>
       </c>
       <c r="I58">
-        <v>1.0599497685117349</v>
+        <v>1.0776884719222559</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -3131,8 +3130,8 @@
       <c r="K58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>18</v>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
@@ -3146,25 +3145,25 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>589.95001220703125</v>
+        <v>576.92999267578125</v>
       </c>
       <c r="D59">
-        <v>598.63552602398033</v>
+        <v>597.06051811809459</v>
       </c>
       <c r="E59">
-        <v>578.69878968472506</v>
+        <v>572.85377108391424</v>
       </c>
       <c r="F59">
-        <v>66.507293303794029</v>
+        <v>55.656707705561857</v>
       </c>
       <c r="G59">
-        <v>16.793420335186969</v>
+        <v>12.53501409940066</v>
       </c>
       <c r="H59">
-        <v>16.51926250742159</v>
+        <v>15.16673746101776</v>
       </c>
       <c r="I59">
-        <v>1.076864265618541</v>
+        <v>0.98524889591953013</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>15</v>
@@ -3172,11 +3171,11 @@
       <c r="K59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
+      <c r="L59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3187,34 +3186,34 @@
         <v>14</v>
       </c>
       <c r="C60">
-        <v>109.73000335693359</v>
+        <v>109.75</v>
       </c>
       <c r="D60">
-        <v>110.9036293170673</v>
+        <v>111.5487148354956</v>
       </c>
       <c r="E60">
-        <v>108.0849396700978</v>
+        <v>108.6769997117979</v>
       </c>
       <c r="F60">
-        <v>28.34071438414253</v>
+        <v>36.067883269179511</v>
       </c>
       <c r="G60">
-        <v>-1.972480618724973</v>
+        <v>-1.626100034611639</v>
       </c>
       <c r="H60">
-        <v>-1.6148923780638611</v>
+        <v>-1.673478209864131</v>
       </c>
       <c r="I60">
-        <v>0.97473667067452663</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>0.95324376087791962</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>18</v>
+      <c r="L60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>18</v>
@@ -3228,25 +3227,25 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>110.4599990844727</v>
+        <v>119.44000244140619</v>
       </c>
       <c r="D61">
-        <v>111.45843504226271</v>
+        <v>122.3609245540719</v>
       </c>
       <c r="E61">
-        <v>104.3015638242273</v>
+        <v>103.6476487055542</v>
       </c>
       <c r="F61">
-        <v>82.88064551576899</v>
+        <v>91.908166917364738</v>
       </c>
       <c r="G61">
-        <v>2.3420827470103092</v>
+        <v>3.9930545375284798</v>
       </c>
       <c r="H61">
-        <v>1.7627680726038539</v>
+        <v>2.7068790825815712</v>
       </c>
       <c r="I61">
-        <v>1.172324098554377</v>
+        <v>1.034154119484975</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>18</v>
@@ -3269,25 +3268,25 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>416.32000732421881</v>
+        <v>416.72000122070313</v>
       </c>
       <c r="D62">
-        <v>420.47508665156801</v>
+        <v>419.8020619957648</v>
       </c>
       <c r="E62">
-        <v>409.94491369720441</v>
+        <v>414.58079410077539</v>
       </c>
       <c r="F62">
-        <v>30.65493035140258</v>
+        <v>35.696217983583857</v>
       </c>
       <c r="G62">
-        <v>-1.992017695028153</v>
+        <v>-1.7827545852659341</v>
       </c>
       <c r="H62">
-        <v>-0.54889716257753807</v>
+        <v>-1.2685478789054121</v>
       </c>
       <c r="I62">
-        <v>1.00172902645763</v>
+        <v>0.93555678499937045</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>15</v>
@@ -3298,8 +3297,8 @@
       <c r="L62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
+      <c r="M62" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3310,25 +3309,25 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>106.9199981689453</v>
+        <v>112.0500030517578</v>
       </c>
       <c r="D63">
-        <v>107.5130551249495</v>
+        <v>113.68802761852599</v>
       </c>
       <c r="E63">
-        <v>99.2955168267804</v>
+        <v>100.10054224056999</v>
       </c>
       <c r="F63">
-        <v>68.629632918262871</v>
+        <v>57.505775532282819</v>
       </c>
       <c r="G63">
-        <v>2.4196292656671399</v>
+        <v>3.310318329421932</v>
       </c>
       <c r="H63">
-        <v>1.4817891763614031</v>
+        <v>2.3484300130693239</v>
       </c>
       <c r="I63">
-        <v>1.0320643202549009</v>
+        <v>0.78634500185057099</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -3339,8 +3338,8 @@
       <c r="L63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>16</v>
+      <c r="M63" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3351,25 +3350,25 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>81.860000610351563</v>
+        <v>83.779998779296875</v>
       </c>
       <c r="D64">
-        <v>85.603018999095482</v>
+        <v>85.290751574388352</v>
       </c>
       <c r="E64">
-        <v>78.131268807824156</v>
+        <v>79.637822034010085</v>
       </c>
       <c r="F64">
-        <v>36.194045518695198</v>
+        <v>46.545447231329327</v>
       </c>
       <c r="G64">
-        <v>4.2738124135112798E-2</v>
+        <v>0.30022200507320917</v>
       </c>
       <c r="H64">
-        <v>0.64300687882569096</v>
+        <v>0.3829013363109029</v>
       </c>
       <c r="I64">
-        <v>1.3400465992432069</v>
+        <v>1.303455061299996</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>15</v>
@@ -3392,25 +3391,25 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>722.78997802734375</v>
+        <v>687.6500244140625</v>
       </c>
       <c r="D65">
-        <v>739.65895583742088</v>
+        <v>743.452562262171</v>
       </c>
       <c r="E65">
-        <v>697.68102742150779</v>
+        <v>682.01599591305228</v>
       </c>
       <c r="F65">
-        <v>57.731204204082182</v>
+        <v>41.508650671964801</v>
       </c>
       <c r="G65">
-        <v>10.344652772332321</v>
+        <v>3.8558934496861639</v>
       </c>
       <c r="H65">
-        <v>9.9669930880764142</v>
+        <v>7.8196210818006877</v>
       </c>
       <c r="I65">
-        <v>1.157572406967929</v>
+        <v>1.069149356906423</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>15</v>
@@ -3418,8 +3417,8 @@
       <c r="K65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>16</v>
+      <c r="L65" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>16</v>
@@ -3433,25 +3432,25 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>82.150001525878906</v>
+        <v>83.400001525878906</v>
       </c>
       <c r="D66">
-        <v>83.204506546846446</v>
+        <v>84.193112886931928</v>
       </c>
       <c r="E66">
-        <v>80.409777423577665</v>
+        <v>80.881173437705357</v>
       </c>
       <c r="F66">
-        <v>37.142877903104321</v>
+        <v>31.053961419411088</v>
       </c>
       <c r="G66">
-        <v>9.0450862130324994E-2</v>
+        <v>4.9316677371692201E-2</v>
       </c>
       <c r="H66">
-        <v>0.72559105253856626</v>
+        <v>0.29395933041570038</v>
       </c>
       <c r="I66">
-        <v>0.83621035934570975</v>
+        <v>0.79974208983812622</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>15</v>
@@ -3474,25 +3473,25 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>938.59002685546875</v>
+        <v>917.11999511718761</v>
       </c>
       <c r="D67">
-        <v>961.93605803999822</v>
+        <v>956.2006357796048</v>
       </c>
       <c r="E67">
-        <v>883.24396079370717</v>
+        <v>909.65938444919004</v>
       </c>
       <c r="F67">
-        <v>53.421863227975578</v>
+        <v>59.789419423621162</v>
       </c>
       <c r="G67">
-        <v>20.259420982885899</v>
+        <v>16.870685537408011</v>
       </c>
       <c r="H67">
-        <v>17.94862126561587</v>
+        <v>18.4368479918829</v>
       </c>
       <c r="I67">
-        <v>1.149332622045498</v>
+        <v>1.0670736256018321</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>15</v>
@@ -3500,8 +3499,8 @@
       <c r="K67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>16</v>
+      <c r="L67" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>16</v>
@@ -3515,25 +3514,25 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>134.80000305175781</v>
+        <v>136.92999267578119</v>
       </c>
       <c r="D68">
-        <v>139.87643265789609</v>
+        <v>139.47149049229171</v>
       </c>
       <c r="E68">
-        <v>120.3064221307479</v>
+        <v>130.40851003086669</v>
       </c>
       <c r="F68">
-        <v>77.921684275934936</v>
+        <v>70.515180681606296</v>
       </c>
       <c r="G68">
-        <v>4.3131636620243512</v>
+        <v>4.9681754333454649</v>
       </c>
       <c r="H68">
-        <v>2.6982323140183602</v>
+        <v>3.9607005935671769</v>
       </c>
       <c r="I68">
-        <v>1.358994563610036</v>
+        <v>1.1246240999258379</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>18</v>
@@ -3556,25 +3555,25 @@
         <v>14</v>
       </c>
       <c r="C69">
-        <v>120.0400009155273</v>
+        <v>118.2200012207031</v>
       </c>
       <c r="D69">
-        <v>120.5015891651249</v>
+        <v>120.6255970638105</v>
       </c>
       <c r="E69">
-        <v>113.70983879595219</v>
+        <v>116.06297323125089</v>
       </c>
       <c r="F69">
-        <v>41.535619447556712</v>
+        <v>41.430496059947899</v>
       </c>
       <c r="G69">
-        <v>-4.0116622047399488</v>
+        <v>-3.217132581201525</v>
       </c>
       <c r="H69">
-        <v>-4.0153196512721108</v>
+        <v>-3.6659664974642392</v>
       </c>
       <c r="I69">
-        <v>1.051295677233429</v>
+        <v>1.0100900988994701</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>15</v>
@@ -3597,25 +3596,25 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>175.77000427246091</v>
+        <v>175.67999267578119</v>
       </c>
       <c r="D70">
-        <v>181.02395966272209</v>
+        <v>178.36892688775339</v>
       </c>
       <c r="E70">
-        <v>165.1274685599341</v>
+        <v>173.09678443339621</v>
       </c>
       <c r="F70">
-        <v>69.00158729408875</v>
+        <v>62.986524616545189</v>
       </c>
       <c r="G70">
-        <v>6.4115576777948888</v>
+        <v>5.5402240839300703</v>
       </c>
       <c r="H70">
-        <v>6.5038607275684237</v>
+        <v>6.1034779343191579</v>
       </c>
       <c r="I70">
-        <v>1.1254579596602301</v>
+        <v>1.099217142832136</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>15</v>
@@ -3638,28 +3637,28 @@
         <v>14</v>
       </c>
       <c r="C71">
-        <v>373.20001220703131</v>
+        <v>376.14999389648438</v>
       </c>
       <c r="D71">
-        <v>384.4408068251962</v>
+        <v>380.82263297317428</v>
       </c>
       <c r="E71">
-        <v>323.22776355705821</v>
+        <v>362.94879908597761</v>
       </c>
       <c r="F71">
-        <v>68.205203187180842</v>
+        <v>76.343274642239834</v>
       </c>
       <c r="G71">
-        <v>5.619048441636096</v>
+        <v>9.1782987255224384</v>
       </c>
       <c r="H71">
-        <v>1.718351299637074</v>
+        <v>5.6424279496700311</v>
       </c>
       <c r="I71">
-        <v>1.2855117540155181</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>15</v>
+        <v>1.1675416389922191</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>15</v>
@@ -3679,25 +3678,25 @@
         <v>14</v>
       </c>
       <c r="C72">
-        <v>174.80999755859381</v>
+        <v>174.66999816894531</v>
       </c>
       <c r="D72">
-        <v>176.4072005008903</v>
+        <v>177.17776094264431</v>
       </c>
       <c r="E72">
-        <v>164.8699427050249</v>
+        <v>171.81937912431991</v>
       </c>
       <c r="F72">
-        <v>58.201688477950313</v>
+        <v>64.369211642492075</v>
       </c>
       <c r="G72">
-        <v>-0.60445716902478352</v>
+        <v>0.35509614999955369</v>
       </c>
       <c r="H72">
-        <v>-1.074466414202538</v>
+        <v>-0.33522116530839091</v>
       </c>
       <c r="I72">
-        <v>1.0499210557384111</v>
+        <v>1.028356042193008</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>15</v>
@@ -3720,25 +3719,25 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>29.159999847412109</v>
+        <v>29.270000457763668</v>
       </c>
       <c r="D73">
-        <v>30.325119886678952</v>
+        <v>30.207892365053929</v>
       </c>
       <c r="E73">
-        <v>27.957737735740132</v>
+        <v>28.69210807091147</v>
       </c>
       <c r="F73">
-        <v>48.36601796065046</v>
+        <v>51.898736724013183</v>
       </c>
       <c r="G73">
-        <v>3.2066086187089803E-2</v>
+        <v>6.9035282587929403E-2</v>
       </c>
       <c r="H73">
-        <v>-1.0578432149642301E-2</v>
+        <v>2.9081832084804499E-2</v>
       </c>
       <c r="I73">
-        <v>1.038296337665418</v>
+        <v>1.0325379473425591</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>15</v>
@@ -3761,25 +3760,25 @@
         <v>14</v>
       </c>
       <c r="C74">
-        <v>171.0899963378906</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="D74">
-        <v>171.6536637733752</v>
+        <v>174.9287933302376</v>
       </c>
       <c r="E74">
-        <v>166.51490660887919</v>
+        <v>167.94263611312181</v>
       </c>
       <c r="F74">
-        <v>40.317919871755997</v>
+        <v>45.712354637535277</v>
       </c>
       <c r="G74">
-        <v>-0.8313124440135482</v>
+        <v>-0.1362361324791265</v>
       </c>
       <c r="H74">
-        <v>-0.41511593000851299</v>
+        <v>-0.338874312183988</v>
       </c>
       <c r="I74">
-        <v>1.0629569221459501</v>
+        <v>1.084826366463395</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>15</v>
@@ -3787,8 +3786,8 @@
       <c r="K74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="4" t="s">
-        <v>18</v>
+      <c r="L74" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>16</v>
@@ -3802,25 +3801,25 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <v>120.09999847412109</v>
+        <v>120.13999938964839</v>
       </c>
       <c r="D75">
-        <v>120.6080429993754</v>
+        <v>121.06707866533159</v>
       </c>
       <c r="E75">
-        <v>117.92338574643929</v>
+        <v>119.2757776055947</v>
       </c>
       <c r="F75">
-        <v>44.717195445163242</v>
+        <v>47.413772550102877</v>
       </c>
       <c r="G75">
-        <v>-0.4877730643827789</v>
+        <v>-0.27310124701322991</v>
       </c>
       <c r="H75">
-        <v>-0.2503912697847373</v>
+        <v>-0.29794777280976392</v>
       </c>
       <c r="I75">
-        <v>1.307839241602385</v>
+        <v>1.3645336412453359</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>15</v>
@@ -3828,8 +3827,8 @@
       <c r="K75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="4" t="s">
-        <v>18</v>
+      <c r="L75" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>16</v>
@@ -3843,25 +3842,25 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <v>80.510002136230469</v>
+        <v>79.819999694824219</v>
       </c>
       <c r="D76">
-        <v>82.833607605579132</v>
+        <v>82.076015507697363</v>
       </c>
       <c r="E76">
-        <v>76.946395533371756</v>
+        <v>78.495415243558213</v>
       </c>
       <c r="F76">
-        <v>58.88611818111071</v>
+        <v>57.484582255052707</v>
       </c>
       <c r="G76">
-        <v>2.4708028750804938</v>
+        <v>2.0776024379922968</v>
       </c>
       <c r="H76">
-        <v>2.51140028474869</v>
+        <v>2.337144888029798</v>
       </c>
       <c r="I76">
-        <v>1.152426444926635</v>
+        <v>1.0415784702960009</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>15</v>
@@ -3884,25 +3883,25 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>169.97999572753909</v>
+        <v>171.1000061035156</v>
       </c>
       <c r="D77">
-        <v>171.44055519279041</v>
+        <v>178.30828945517129</v>
       </c>
       <c r="E77">
-        <v>165.65087111161799</v>
+        <v>165.52885130933771</v>
       </c>
       <c r="F77">
-        <v>57.630959704973527</v>
+        <v>51.510435476819559</v>
       </c>
       <c r="G77">
-        <v>-0.12772571742965511</v>
+        <v>0.85999826398506229</v>
       </c>
       <c r="H77">
-        <v>-0.40991152069360848</v>
+        <v>0.3296481525562388</v>
       </c>
       <c r="I77">
-        <v>1.04844501346506</v>
+        <v>0.92589989341622347</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>15</v>
@@ -3913,8 +3912,8 @@
       <c r="L77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M77" s="3" t="s">
-        <v>16</v>
+      <c r="M77" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3925,25 +3924,25 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>493.3599853515625</v>
+        <v>491.25</v>
       </c>
       <c r="D78">
-        <v>498.57704317394843</v>
+        <v>497.44522011255782</v>
       </c>
       <c r="E78">
-        <v>478.39723486734619</v>
+        <v>488.15763284503163</v>
       </c>
       <c r="F78">
-        <v>62.391889544662703</v>
+        <v>55.1510925670785</v>
       </c>
       <c r="G78">
-        <v>5.1930693771734013</v>
+        <v>4.8734204606727189</v>
       </c>
       <c r="H78">
-        <v>4.590245345481331</v>
+        <v>4.9343382953804813</v>
       </c>
       <c r="I78">
-        <v>1.0975985764090379</v>
+        <v>1.006324729977575</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>15</v>
@@ -3951,8 +3950,8 @@
       <c r="K78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>16</v>
+      <c r="L78" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>16</v>
@@ -3966,28 +3965,28 @@
         <v>14</v>
       </c>
       <c r="C79">
-        <v>123.9300003051758</v>
+        <v>125.75</v>
       </c>
       <c r="D79">
-        <v>125.5028583026488</v>
+        <v>126.9102817064858</v>
       </c>
       <c r="E79">
-        <v>122.4828572909616</v>
+        <v>122.3640037462207</v>
       </c>
       <c r="F79">
-        <v>65.456101326638716</v>
+        <v>70.839814758784186</v>
       </c>
       <c r="G79">
-        <v>1.483457783673771</v>
+        <v>1.6461965691275251</v>
       </c>
       <c r="H79">
-        <v>1.457133959071726</v>
+        <v>1.53503934863497</v>
       </c>
       <c r="I79">
-        <v>1.3272355098767941</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>15</v>
+        <v>1.2565245041075781</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>15</v>
@@ -4007,25 +4006,25 @@
         <v>14</v>
       </c>
       <c r="C80">
-        <v>95.550003051757798</v>
+        <v>95.269996643066406</v>
       </c>
       <c r="D80">
-        <v>97.424096734253183</v>
+        <v>96.430012694856558</v>
       </c>
       <c r="E80">
-        <v>93.933043943062657</v>
+        <v>93.809986258826456</v>
       </c>
       <c r="F80">
-        <v>50.295356639520691</v>
+        <v>38.847385532839297</v>
       </c>
       <c r="G80">
-        <v>0.73717882682598201</v>
+        <v>0.40119991339690841</v>
       </c>
       <c r="H80">
-        <v>1.2757171895478201</v>
+        <v>0.80156602242401676</v>
       </c>
       <c r="I80">
-        <v>1.04937857093453</v>
+        <v>0.99443593589510959</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>15</v>
@@ -4036,8 +4035,8 @@
       <c r="L80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M80" s="3" t="s">
-        <v>16</v>
+      <c r="M80" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4048,28 +4047,28 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>67.680000305175781</v>
+        <v>71.910003662109375</v>
       </c>
       <c r="D81">
-        <v>68.570017948738439</v>
+        <v>74.434051974393185</v>
       </c>
       <c r="E81">
-        <v>62.392839978856422</v>
+        <v>64.080234611823329</v>
       </c>
       <c r="F81">
-        <v>65.501712960613517</v>
+        <v>81.818234853336577</v>
       </c>
       <c r="G81">
-        <v>0.55809226096643272</v>
+        <v>1.7415288554086881</v>
       </c>
       <c r="H81">
-        <v>0.1562537679084002</v>
+        <v>0.87396038154491262</v>
       </c>
       <c r="I81">
-        <v>0.97106201648399859</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>15</v>
+        <v>0.87543497371867318</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>15</v>
@@ -4089,25 +4088,25 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>522.010009765625</v>
+        <v>518.96002197265625</v>
       </c>
       <c r="D82">
-        <v>526.69628680835217</v>
+        <v>533.78694831275868</v>
       </c>
       <c r="E82">
-        <v>504.77226264756302</v>
+        <v>512.65020291491999</v>
       </c>
       <c r="F82">
-        <v>50.804909435142378</v>
+        <v>54.844758465781467</v>
       </c>
       <c r="G82">
-        <v>2.322775045218918</v>
+        <v>3.6128546628134468</v>
       </c>
       <c r="H82">
-        <v>2.7235966726713201</v>
+        <v>3.2674428443883561</v>
       </c>
       <c r="I82">
-        <v>1.21387855821278</v>
+        <v>1.1915529791010659</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>15</v>
@@ -4115,8 +4114,8 @@
       <c r="K82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>18</v>
+      <c r="L82" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>16</v>
@@ -4130,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>579.58001708984375</v>
+        <v>582.3499755859375</v>
       </c>
       <c r="D83">
-        <v>582.54535611036067</v>
+        <v>586.14410495610616</v>
       </c>
       <c r="E83">
-        <v>564.48892820883566</v>
+        <v>574.31304836420634</v>
       </c>
       <c r="F83">
-        <v>62.760770333484231</v>
+        <v>62.17004112708981</v>
       </c>
       <c r="G83">
-        <v>5.0722516855482809</v>
+        <v>5.8322399528857432</v>
       </c>
       <c r="H83">
-        <v>4.7885537386289858</v>
+        <v>5.350601045308383</v>
       </c>
       <c r="I83">
-        <v>1.105623457862031</v>
+        <v>1.034775895672196</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>15</v>
@@ -4171,25 +4170,25 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>355.60000610351563</v>
+        <v>359.73001098632813</v>
       </c>
       <c r="D84">
-        <v>358.3632898513759</v>
+        <v>363.83466910560549</v>
       </c>
       <c r="E84">
-        <v>344.97671084616871</v>
+        <v>351.21104622642582</v>
       </c>
       <c r="F84">
-        <v>35.882218455595407</v>
+        <v>49.280028125045781</v>
       </c>
       <c r="G84">
-        <v>-0.92560360673843445</v>
+        <v>0.46899144339931809</v>
       </c>
       <c r="H84">
-        <v>0.26683186271316639</v>
+        <v>0.1763823868794348</v>
       </c>
       <c r="I84">
-        <v>1.0232518586887931</v>
+        <v>1.015303678856778</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>15</v>
@@ -4197,8 +4196,8 @@
       <c r="K84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="4" t="s">
-        <v>18</v>
+      <c r="L84" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>16</v>
@@ -4212,25 +4211,25 @@
         <v>14</v>
       </c>
       <c r="C85">
-        <v>21.370000839233398</v>
+        <v>21.729999542236332</v>
       </c>
       <c r="D85">
-        <v>22.355333392500128</v>
+        <v>22.06661271169952</v>
       </c>
       <c r="E85">
-        <v>21.107523990137981</v>
+        <v>20.99910144322514</v>
       </c>
       <c r="F85">
-        <v>47.247736121440127</v>
+        <v>46.288212516689278</v>
       </c>
       <c r="G85">
-        <v>0.2384429811828106</v>
+        <v>0.15702458486262211</v>
       </c>
       <c r="H85">
-        <v>0.37618312572132262</v>
+        <v>0.25121412658620068</v>
       </c>
       <c r="I85">
-        <v>1.1671554550732679</v>
+        <v>1.2220279428800209</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>15</v>
@@ -4253,25 +4252,25 @@
         <v>14</v>
       </c>
       <c r="C86">
-        <v>113.73000335693359</v>
+        <v>117.48000335693359</v>
       </c>
       <c r="D86">
-        <v>115.7682589833959</v>
+        <v>119.2142588939231</v>
       </c>
       <c r="E86">
-        <v>111.5545973747235</v>
+        <v>111.40860051595421</v>
       </c>
       <c r="F86">
-        <v>35.165849137999899</v>
+        <v>49.926374791357787</v>
       </c>
       <c r="G86">
-        <v>-0.89700357976373368</v>
+        <v>-0.16644102981349809</v>
       </c>
       <c r="H86">
-        <v>-0.36129607482070791</v>
+        <v>-0.39271167517968142</v>
       </c>
       <c r="I86">
-        <v>1.202152670162866</v>
+        <v>1.1657592497562059</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>15</v>
@@ -4279,8 +4278,8 @@
       <c r="K86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>18</v>
+      <c r="L86" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>16</v>
@@ -4294,25 +4293,25 @@
         <v>14</v>
       </c>
       <c r="C87">
-        <v>596.91998291015625</v>
+        <v>599.25</v>
       </c>
       <c r="D87">
-        <v>602.57499428724532</v>
+        <v>606.16850663612865</v>
       </c>
       <c r="E87">
-        <v>592.79355342480835</v>
+        <v>589.56576373217501</v>
       </c>
       <c r="F87">
-        <v>41.416345678973833</v>
+        <v>38.670664567434493</v>
       </c>
       <c r="G87">
-        <v>-3.1690226959462962</v>
+        <v>-3.2475803455895398</v>
       </c>
       <c r="H87">
-        <v>-0.92897401390354339</v>
+        <v>-2.213871690936188</v>
       </c>
       <c r="I87">
-        <v>1.052931578563522</v>
+        <v>1.0465649974828599</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>15</v>
@@ -4335,31 +4334,31 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>217.80000305175781</v>
+        <v>220.88999938964841</v>
       </c>
       <c r="D88">
-        <v>259.30992757855898</v>
+        <v>245.36256339534719</v>
       </c>
       <c r="E88">
-        <v>218.8872203357825</v>
+        <v>205.65744305694079</v>
       </c>
       <c r="F88">
-        <v>31.545159224739951</v>
+        <v>23.672663177145481</v>
       </c>
       <c r="G88">
-        <v>2.2774371950536652</v>
+        <v>-2.7613726878188629</v>
       </c>
       <c r="H88">
-        <v>6.1648842982674692</v>
+        <v>1.566509392346346</v>
       </c>
       <c r="I88">
-        <v>1.3089808095805451</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>16</v>
+        <v>1.219361108648719</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>18</v>
@@ -4376,31 +4375,31 @@
         <v>14</v>
       </c>
       <c r="C89">
-        <v>190.80999755859369</v>
+        <v>205.83999633789071</v>
       </c>
       <c r="D89">
-        <v>192.53992159358609</v>
+        <v>204.84574048482651</v>
       </c>
       <c r="E89">
-        <v>177.44007631378</v>
+        <v>176.97997362650159</v>
       </c>
       <c r="F89">
-        <v>66.618352954261866</v>
+        <v>76.517603797537447</v>
       </c>
       <c r="G89">
-        <v>4.6715574138757461</v>
+        <v>6.1083285066912083</v>
       </c>
       <c r="H89">
-        <v>3.6441661077947818</v>
+        <v>4.6368657175359758</v>
       </c>
       <c r="I89">
-        <v>1.253467676329638</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>15</v>
+        <v>1.124560851603486</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
@@ -4417,25 +4416,25 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>205.11000061035159</v>
+        <v>198.30000305175781</v>
       </c>
       <c r="D90">
-        <v>205.97449193905939</v>
+        <v>210.07070482539339</v>
       </c>
       <c r="E90">
-        <v>199.85694203834021</v>
+        <v>195.65501190172711</v>
       </c>
       <c r="F90">
-        <v>52.251601275021201</v>
+        <v>35.759331275307702</v>
       </c>
       <c r="G90">
-        <v>0.31956382869316258</v>
+        <v>-0.37105571753656358</v>
       </c>
       <c r="H90">
-        <v>0.45834267921160587</v>
+        <v>0.2252079975332566</v>
       </c>
       <c r="I90">
-        <v>1.2424066254912871</v>
+        <v>1.1440407969050621</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>15</v>
@@ -4458,31 +4457,31 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>86.339996337890625</v>
+        <v>79.900001525878906</v>
       </c>
       <c r="D91">
-        <v>86.067061822618257</v>
+        <v>88.383131018308461</v>
       </c>
       <c r="E91">
-        <v>68.250079029083764</v>
+        <v>75.065440323069879</v>
       </c>
       <c r="F91">
-        <v>77.997109131214955</v>
+        <v>59.104879635261817</v>
       </c>
       <c r="G91">
-        <v>2.048230195732188</v>
+        <v>2.5660316656445592</v>
       </c>
       <c r="H91">
-        <v>1.2917158402961999</v>
+        <v>2.0861692182805101</v>
       </c>
       <c r="I91">
-        <v>0.9613513546312491</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>18</v>
+        <v>0.86704052125924846</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -4499,34 +4498,34 @@
         <v>14</v>
       </c>
       <c r="C92">
-        <v>598.04998779296875</v>
+        <v>566.030029296875</v>
       </c>
       <c r="D92">
-        <v>603.55972482336244</v>
+        <v>621.53979717310619</v>
       </c>
       <c r="E92">
-        <v>578.17170305052139</v>
+        <v>545.89735405457247</v>
       </c>
       <c r="F92">
-        <v>73.359896862834049</v>
+        <v>43.303449630027693</v>
       </c>
       <c r="G92">
-        <v>3.2564985447904742</v>
+        <v>-1.51955158348494</v>
       </c>
       <c r="H92">
-        <v>2.0382602786205091</v>
+        <v>1.1066049465060419</v>
       </c>
       <c r="I92">
-        <v>1.2024774935818081</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>18</v>
+        <v>1.2139356137385391</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>16</v>
+      <c r="L92" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>16</v>
@@ -4540,25 +4539,25 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>242.30999755859369</v>
+        <v>241.7200012207031</v>
       </c>
       <c r="D93">
-        <v>242.79179169498721</v>
+        <v>250.4107170544257</v>
       </c>
       <c r="E93">
-        <v>235.13106422716689</v>
+        <v>235.21499792883321</v>
       </c>
       <c r="F93">
-        <v>47.085199669454553</v>
+        <v>45.759838757930893</v>
       </c>
       <c r="G93">
-        <v>-2.2408306123005839</v>
+        <v>-0.86333796118498185</v>
       </c>
       <c r="H93">
-        <v>-1.6629239105235061</v>
+        <v>-1.3302939192956309</v>
       </c>
       <c r="I93">
-        <v>1.048990256076139</v>
+        <v>1.00612633214591</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>15</v>
@@ -4566,8 +4565,8 @@
       <c r="K93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>18</v>
+      <c r="L93" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>16</v>
@@ -4581,25 +4580,25 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>134.6000061035156</v>
+        <v>135.4100036621094</v>
       </c>
       <c r="D94">
-        <v>134.94984356979819</v>
+        <v>136.58018396827171</v>
       </c>
       <c r="E94">
-        <v>129.21301566569289</v>
+        <v>132.00839112240911</v>
       </c>
       <c r="F94">
-        <v>66.277793272055106</v>
+        <v>53.650826252118073</v>
       </c>
       <c r="G94">
-        <v>0.93877887235592539</v>
+        <v>1.2903629580671061</v>
       </c>
       <c r="H94">
-        <v>0.8203692835153138</v>
+        <v>1.030490676840409</v>
       </c>
       <c r="I94">
-        <v>0.83816918005073193</v>
+        <v>0.8211434129622287</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>15</v>
@@ -4622,34 +4621,34 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>277.83999633789063</v>
+        <v>290.3900146484375</v>
       </c>
       <c r="D95">
-        <v>279.68115632409399</v>
+        <v>292.13308798437669</v>
       </c>
       <c r="E95">
-        <v>273.39883460782562</v>
+        <v>270.75833919196259</v>
       </c>
       <c r="F95">
-        <v>35.57871225785189</v>
+        <v>76.985835289381498</v>
       </c>
       <c r="G95">
-        <v>-8.6831935902978302E-2</v>
+        <v>1.8573236303678871</v>
       </c>
       <c r="H95">
-        <v>0.34501440863900579</v>
+        <v>0.74348267392865208</v>
       </c>
       <c r="I95">
-        <v>0.97643437949983047</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>15</v>
+        <v>0.96211729798197432</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L95" s="4" t="s">
-        <v>18</v>
+      <c r="L95" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>18</v>
@@ -4663,25 +4662,25 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>532.71002197265625</v>
+        <v>535.29998779296875</v>
       </c>
       <c r="D96">
-        <v>535.44940368121297</v>
+        <v>538.77107047960135</v>
       </c>
       <c r="E96">
-        <v>518.82774824401031</v>
+        <v>527.88320895678248</v>
       </c>
       <c r="F96">
-        <v>60.074833793296918</v>
+        <v>62.038774975074922</v>
       </c>
       <c r="G96">
-        <v>4.5913014599418602</v>
+        <v>5.2799080694524037</v>
       </c>
       <c r="H96">
-        <v>4.4175377137302254</v>
+        <v>4.8775302847137656</v>
       </c>
       <c r="I96">
-        <v>1.1021892454708979</v>
+        <v>1.0317648454368851</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>15</v>
@@ -4704,25 +4703,25 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>43</v>
+        <v>43.849998474121087</v>
       </c>
       <c r="D97">
-        <v>45.003395100840969</v>
+        <v>44.487894870072488</v>
       </c>
       <c r="E97">
-        <v>42.599462216402337</v>
+        <v>42.583533701356082</v>
       </c>
       <c r="F97">
-        <v>34.328380869959638</v>
+        <v>37.439600617723052</v>
       </c>
       <c r="G97">
-        <v>0.22423471291020999</v>
+        <v>0.12622862646838939</v>
       </c>
       <c r="H97">
-        <v>0.53199232873072322</v>
+        <v>0.29686391453018529</v>
       </c>
       <c r="I97">
-        <v>1.057989288516004</v>
+        <v>1.0150468820072951</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>15</v>
@@ -4745,25 +4744,25 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>60.990001678466797</v>
+        <v>64.379997253417969</v>
       </c>
       <c r="D98">
-        <v>61.088221583727403</v>
+        <v>66.971431468931456</v>
       </c>
       <c r="E98">
-        <v>53.96320707489425</v>
+        <v>55.811425063574113</v>
       </c>
       <c r="F98">
-        <v>72.826089210005279</v>
+        <v>86.869546641474187</v>
       </c>
       <c r="G98">
-        <v>0.83075969560412943</v>
+        <v>2.0457208925868571</v>
       </c>
       <c r="H98">
-        <v>0.30990639883624782</v>
+        <v>1.132489542444612</v>
       </c>
       <c r="I98">
-        <v>1.016692799985885</v>
+        <v>0.93344859851909301</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>18</v>
@@ -4774,8 +4773,8 @@
       <c r="L98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M98" s="3" t="s">
-        <v>16</v>
+      <c r="M98" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -4786,25 +4785,25 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>80.099998474121094</v>
+        <v>80.889999389648438</v>
       </c>
       <c r="D99">
-        <v>81.272334657949742</v>
+        <v>81.993565807760348</v>
       </c>
       <c r="E99">
-        <v>78.810522746486654</v>
+        <v>79.195006667128041</v>
       </c>
       <c r="F99">
-        <v>48.844204768254379</v>
+        <v>55.799371791192321</v>
       </c>
       <c r="G99">
-        <v>0.8894499449579456</v>
+        <v>0.88527247747784088</v>
       </c>
       <c r="H99">
-        <v>1.2144031255045931</v>
+        <v>1.02447664394189</v>
       </c>
       <c r="I99">
-        <v>1.272742303370525</v>
+        <v>1.247192814289924</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>15</v>
@@ -4827,25 +4826,25 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>123.61000061035161</v>
+        <v>120.34999847412109</v>
       </c>
       <c r="D100">
-        <v>125.99697344113891</v>
+        <v>125.2499435308092</v>
       </c>
       <c r="E100">
-        <v>120.7630276051781</v>
+        <v>118.8300561204184</v>
       </c>
       <c r="F100">
-        <v>64.185202783291942</v>
+        <v>61.754006714810593</v>
       </c>
       <c r="G100">
-        <v>2.296448338864693</v>
+        <v>1.630771486834774</v>
       </c>
       <c r="H100">
-        <v>1.7070107232634739</v>
+        <v>1.8265840178389561</v>
       </c>
       <c r="I100">
-        <v>1.0599443335990739</v>
+        <v>0.99251036663916947</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>15</v>
@@ -4853,11 +4852,11 @@
       <c r="K100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
+      <c r="L100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/portfolios/portfolio.xlsx
+++ b/portfolios/portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Quantitative-Momentum-Strategy\portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F31867-760B-455D-A41D-1F8692502B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37274E-122B-4AAA-9099-9CC882AB635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,19 +64,19 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>2024-10-17</t>
+    <t>2024-10-28</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>Buy</t>
   </si>
   <si>
     <t>ABBV</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
   <si>
     <t>ABT</t>
@@ -403,14 +403,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,25 +808,25 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>232.1499938964844</v>
+        <v>233.3999938964844</v>
       </c>
       <c r="D2">
-        <v>235.03080698491721</v>
+        <v>238.3223109154824</v>
       </c>
       <c r="E2">
-        <v>226.45776200224799</v>
+        <v>228.38625929238589</v>
       </c>
       <c r="F2">
-        <v>55.662340699169867</v>
+        <v>63.837505015704338</v>
       </c>
       <c r="G2">
-        <v>2.0404405663424261</v>
+        <v>2.03389805344105</v>
       </c>
       <c r="H2">
-        <v>1.551990904683876</v>
+        <v>2.1252774112597099</v>
       </c>
       <c r="I2">
-        <v>1.288557003069388</v>
+        <v>1.283996671335401</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -837,37 +837,37 @@
       <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>188.57000732421881</v>
+        <v>189.67999267578119</v>
       </c>
       <c r="D3">
-        <v>198.02927104609509</v>
+        <v>190.70341465463221</v>
       </c>
       <c r="E3">
-        <v>187.63644812243169</v>
+        <v>186.21658133448611</v>
       </c>
       <c r="F3">
-        <v>32.72224657037232</v>
+        <v>42.414552269673301</v>
       </c>
       <c r="G3">
-        <v>-0.53537616020426526</v>
+        <v>-1.4348580288950641</v>
       </c>
       <c r="H3">
-        <v>0.1775356592968155</v>
+        <v>-1.0580821061270971</v>
       </c>
       <c r="I3">
-        <v>1.089577430402729</v>
+        <v>1.0706181544879541</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -875,11 +875,11 @@
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -890,28 +890,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>117.88999938964839</v>
+        <v>114.0699996948242</v>
       </c>
       <c r="D4">
-        <v>118.57844702486619</v>
+        <v>119.9774866327146</v>
       </c>
       <c r="E4">
-        <v>114.7644114258872</v>
+        <v>112.69108592936681</v>
       </c>
       <c r="F4">
-        <v>72.303949526247578</v>
+        <v>48.12333042884201</v>
       </c>
       <c r="G4">
-        <v>1.0197127393970931</v>
+        <v>0.47233126797631542</v>
       </c>
       <c r="H4">
-        <v>0.66890361347619809</v>
+        <v>0.79955744766581904</v>
       </c>
       <c r="I4">
-        <v>1.0210743290207289</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>1.054543838541792</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -919,8 +919,8 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
+      <c r="M4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -931,25 +931,25 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>496.82998657226563</v>
+        <v>481.04000854492188</v>
       </c>
       <c r="D5">
-        <v>513.78105752248314</v>
+        <v>501.73388413564732</v>
       </c>
       <c r="E5">
-        <v>489.1103696538562</v>
+        <v>474.94610854013388</v>
       </c>
       <c r="F5">
-        <v>40.806483689832582</v>
+        <v>39.136661273598669</v>
       </c>
       <c r="G5">
-        <v>-10.180892214531299</v>
+        <v>-11.128578164880651</v>
       </c>
       <c r="H5">
-        <v>-11.4035318877892</v>
+        <v>-10.76499177279406</v>
       </c>
       <c r="I5">
-        <v>1.102024397348716</v>
+        <v>1.0316901466568911</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -960,8 +960,8 @@
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -972,28 +972,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>291.95999145507813</v>
+        <v>286.44000244140619</v>
       </c>
       <c r="D6">
-        <v>293.27822351249603</v>
+        <v>293.82817573994862</v>
       </c>
       <c r="E6">
-        <v>285.79034512589692</v>
+        <v>285.71753959208257</v>
       </c>
       <c r="F6">
-        <v>83.125025828717725</v>
+        <v>52.961650861389103</v>
       </c>
       <c r="G6">
-        <v>4.7029341318441311</v>
+        <v>3.1492188579904341</v>
       </c>
       <c r="H6">
-        <v>4.1800733141943027</v>
+        <v>3.96233121282321</v>
       </c>
       <c r="I6">
-        <v>1.0827877118417339</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>1.1281999496508031</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -1001,8 +1001,8 @@
       <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1013,25 +1013,25 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>183.24000549316409</v>
+        <v>185.33999633789071</v>
       </c>
       <c r="D7">
-        <v>221.696948952757</v>
+        <v>187.67145305525639</v>
       </c>
       <c r="E7">
-        <v>174.53733885416261</v>
+        <v>181.50854833983291</v>
       </c>
       <c r="F7">
-        <v>33.078361044191439</v>
+        <v>36.519766808365539</v>
       </c>
       <c r="G7">
-        <v>-0.54718464737294426</v>
+        <v>-3.49123105814067</v>
       </c>
       <c r="H7">
-        <v>1.4214710275386111</v>
+        <v>-2.1574864370622562</v>
       </c>
       <c r="I7">
-        <v>0.8289848077331079</v>
+        <v>0.91499682586687148</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1039,11 +1039,11 @@
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
+      <c r="L7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1054,25 +1054,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>156.25</v>
+        <v>159.91999816894531</v>
       </c>
       <c r="D8">
-        <v>174.76060880855931</v>
+        <v>160.84235234987841</v>
       </c>
       <c r="E8">
-        <v>150.20510687224419</v>
+        <v>150.7176452087154</v>
       </c>
       <c r="F8">
-        <v>40.324888876252217</v>
+        <v>33.237883118100378</v>
       </c>
       <c r="G8">
-        <v>2.0309823185914411</v>
+        <v>-0.32897820626652668</v>
       </c>
       <c r="H8">
-        <v>3.7996473792094139</v>
+        <v>0.75229151546709616</v>
       </c>
       <c r="I8">
-        <v>0.75190290805135995</v>
+        <v>0.84398438668077613</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>18</v>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1095,25 +1095,25 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>321.32998657226563</v>
+        <v>317.17001342773438</v>
       </c>
       <c r="D9">
-        <v>328.83923256755929</v>
+        <v>322.22982075224382</v>
       </c>
       <c r="E9">
-        <v>318.14362527284248</v>
+        <v>312.85589876505531</v>
       </c>
       <c r="F9">
-        <v>47.855270047437067</v>
+        <v>49.303879462965362</v>
       </c>
       <c r="G9">
-        <v>-1.209873813986746</v>
+        <v>-2.2754383132669891</v>
       </c>
       <c r="H9">
-        <v>-1.5199798637140629</v>
+        <v>-1.9296233016080491</v>
       </c>
       <c r="I9">
-        <v>1.1574651866018419</v>
+        <v>1.2048803377451109</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -1124,8 +1124,8 @@
       <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>16</v>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1136,25 +1136,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>187.5299987792969</v>
+        <v>188.38999938964841</v>
       </c>
       <c r="D10">
-        <v>189.4362182201385</v>
+        <v>191.38101422120229</v>
       </c>
       <c r="E10">
-        <v>184.93235129018521</v>
+        <v>184.3532779453713</v>
       </c>
       <c r="F10">
-        <v>49.189980887189471</v>
+        <v>64.310940182658612</v>
       </c>
       <c r="G10">
-        <v>1.1040431269647679</v>
+        <v>0.91860702078926681</v>
       </c>
       <c r="H10">
-        <v>1.2643591652444011</v>
+        <v>1.073912560932188</v>
       </c>
       <c r="I10">
-        <v>0.96205447803291033</v>
+        <v>1.034257581259447</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -1162,11 +1162,11 @@
       <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>18</v>
+      <c r="L10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1177,37 +1177,37 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>700.5999755859375</v>
+        <v>708.6500244140625</v>
       </c>
       <c r="D11">
-        <v>944.25263483310823</v>
+        <v>725.7413616839907</v>
       </c>
       <c r="E11">
-        <v>629.28450941912388</v>
+        <v>702.2729205425718</v>
       </c>
       <c r="F11">
-        <v>28.664856863089671</v>
+        <v>32.731897954725881</v>
       </c>
       <c r="G11">
-        <v>-23.67146729881506</v>
+        <v>-33.676119922547969</v>
       </c>
       <c r="H11">
-        <v>-10.431964842020991</v>
+        <v>-27.850465533340319</v>
       </c>
       <c r="I11">
-        <v>0.7597876388759438</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>0.83343503649349304</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
+      <c r="L11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1218,25 +1218,25 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>181.5299987792969</v>
+        <v>172.02000427246091</v>
       </c>
       <c r="D12">
-        <v>189.1536035560506</v>
+        <v>183.50644198700249</v>
       </c>
       <c r="E12">
-        <v>173.6349663030453</v>
+        <v>167.67641934112251</v>
       </c>
       <c r="F12">
-        <v>60.045450383966617</v>
+        <v>37.70122768386171</v>
       </c>
       <c r="G12">
-        <v>4.6278189660090447</v>
+        <v>1.465649592577023</v>
       </c>
       <c r="H12">
-        <v>4.9114659879248714</v>
+        <v>3.1123298999123938</v>
       </c>
       <c r="I12">
-        <v>1.016320451768814</v>
+        <v>1.213585651113134</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -1244,11 +1244,11 @@
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>16</v>
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1259,25 +1259,25 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>285.77999877929688</v>
+        <v>271.47000122070313</v>
       </c>
       <c r="D13">
-        <v>287.81219585754411</v>
+        <v>277.13464636830901</v>
       </c>
       <c r="E13">
-        <v>266.28494595328169</v>
+        <v>265.71107419530699</v>
       </c>
       <c r="F13">
-        <v>68.308411974095037</v>
+        <v>52.655281411828369</v>
       </c>
       <c r="G13">
-        <v>5.8721903483511264</v>
+        <v>1.9939105400252399</v>
       </c>
       <c r="H13">
-        <v>5.1992890406501422</v>
+        <v>3.5280390595516482</v>
       </c>
       <c r="I13">
-        <v>1.065206017631787</v>
+        <v>1.1767835557707971</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -1288,8 +1288,8 @@
       <c r="L13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>16</v>
+      <c r="M13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1300,37 +1300,37 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>42.599998474121087</v>
+        <v>42.619998931884773</v>
       </c>
       <c r="D14">
-        <v>43.898898023129483</v>
+        <v>42.941717003237407</v>
       </c>
       <c r="E14">
-        <v>39.403958422183017</v>
+        <v>41.595425069167717</v>
       </c>
       <c r="F14">
-        <v>79.629634862416424</v>
+        <v>69.750353041478249</v>
       </c>
       <c r="G14">
-        <v>0.71166403614893881</v>
+        <v>0.7149672877916089</v>
       </c>
       <c r="H14">
-        <v>0.37648022746498733</v>
+        <v>0.65394259633470564</v>
       </c>
       <c r="I14">
-        <v>1.0333244483053581</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>18</v>
+        <v>1.0603217170515229</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1341,25 +1341,25 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4370.77001953125</v>
+        <v>4347.58984375</v>
       </c>
       <c r="D15">
-        <v>4374.5574980614192</v>
+        <v>4388.9154293924703</v>
       </c>
       <c r="E15">
-        <v>4247.8654930100101</v>
+        <v>4308.0757815450297</v>
       </c>
       <c r="F15">
-        <v>62.05080729491447</v>
+        <v>69.141648081431924</v>
       </c>
       <c r="G15">
-        <v>104.5102264844372</v>
+        <v>82.698409216272012</v>
       </c>
       <c r="H15">
-        <v>101.0993411010803</v>
+        <v>93.411761473616167</v>
       </c>
       <c r="I15">
-        <v>1.022901422420746</v>
+        <v>1.133574820604647</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -1370,8 +1370,8 @@
       <c r="L15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>16</v>
+      <c r="M15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1382,25 +1382,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>53.180000305175781</v>
+        <v>52.639999389648438</v>
       </c>
       <c r="D16">
-        <v>53.585428033094459</v>
+        <v>53.625750741090741</v>
       </c>
       <c r="E16">
-        <v>51.951714039310673</v>
+        <v>51.699962280323867</v>
       </c>
       <c r="F16">
-        <v>65.569282308117778</v>
+        <v>51.286171365629848</v>
       </c>
       <c r="G16">
-        <v>0.94785669703187381</v>
+        <v>0.53054821126344365</v>
       </c>
       <c r="H16">
-        <v>1.0268456427560559</v>
+        <v>0.73860786035924064</v>
       </c>
       <c r="I16">
-        <v>0.94398140373908357</v>
+        <v>0.93837694545757022</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -1408,11 +1408,11 @@
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>18</v>
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1423,37 +1423,37 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>169.72999572753909</v>
+        <v>169.9700012207031</v>
       </c>
       <c r="D17">
-        <v>170.50999417192031</v>
+        <v>173.1775362009476</v>
       </c>
       <c r="E17">
-        <v>141.4157216832694</v>
+        <v>165.58818035178669</v>
       </c>
       <c r="F17">
-        <v>74.064424572761297</v>
+        <v>77.17763855312657</v>
       </c>
       <c r="G17">
-        <v>3.5564018126480899</v>
+        <v>5.5984219251640752</v>
       </c>
       <c r="H17">
-        <v>2.5831678156553441</v>
+        <v>4.8678464059598774</v>
       </c>
       <c r="I17">
-        <v>1.0414703881452909</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
+        <v>1.2275354765946529</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1464,25 +1464,25 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>63.970001220703118</v>
+        <v>64.160003662109375</v>
       </c>
       <c r="D18">
-        <v>66.70566218517699</v>
+        <v>64.630178094631361</v>
       </c>
       <c r="E18">
-        <v>61.925767214585839</v>
+        <v>61.158393944291632</v>
       </c>
       <c r="F18">
-        <v>57.619745622303533</v>
+        <v>52.646723588568832</v>
       </c>
       <c r="G18">
-        <v>0.94319145207241917</v>
+        <v>0.41425308869844452</v>
       </c>
       <c r="H18">
-        <v>0.82195567919576396</v>
+        <v>0.56487847733457108</v>
       </c>
       <c r="I18">
-        <v>0.96347624960721001</v>
+        <v>0.94350733245639007</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -1493,8 +1493,8 @@
       <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
+      <c r="M18" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1505,25 +1505,25 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>0.95599997043609619</v>
+        <v>1.059999942779541</v>
       </c>
       <c r="D19">
-        <v>1.0226803530283599</v>
+        <v>1.0649269820172049</v>
       </c>
       <c r="E19">
-        <v>0.92189107390819858</v>
+        <v>0.9370730092634868</v>
       </c>
       <c r="F19">
-        <v>39.256195192020662</v>
+        <v>53.663001743600361</v>
       </c>
       <c r="G19">
-        <v>-2.9610825686307999E-3</v>
+        <v>4.8373497549367003E-3</v>
       </c>
       <c r="H19">
-        <v>2.4529956021754999E-3</v>
+        <v>9.4715654319920003E-4</v>
       </c>
       <c r="I19">
-        <v>0.59096776565329534</v>
+        <v>0.82442754968661602</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -1532,10 +1532,10 @@
         <v>15</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1546,25 +1546,25 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>394.489990234375</v>
+        <v>390.6099853515625</v>
       </c>
       <c r="D20">
-        <v>403.38380071908171</v>
+        <v>394.78241271894098</v>
       </c>
       <c r="E20">
-        <v>386.58762610848521</v>
+        <v>382.98043954110358</v>
       </c>
       <c r="F20">
-        <v>52.941179567278972</v>
+        <v>52.628443674390809</v>
       </c>
       <c r="G20">
-        <v>9.7898903088823204</v>
+        <v>4.7264398728224251</v>
       </c>
       <c r="H20">
-        <v>11.374179752897289</v>
+        <v>7.1801851088656843</v>
       </c>
       <c r="I20">
-        <v>0.90344521493646945</v>
+        <v>0.96946527275478556</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -1572,11 +1572,11 @@
       <c r="K20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>18</v>
+      <c r="L20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1587,25 +1587,25 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>42.229999542236328</v>
+        <v>41.840000152587891</v>
       </c>
       <c r="D21">
-        <v>42.740749025108443</v>
+        <v>42.456715591770603</v>
       </c>
       <c r="E21">
-        <v>40.779250887698481</v>
+        <v>40.603284146650161</v>
       </c>
       <c r="F21">
-        <v>56.689344365103743</v>
+        <v>59.02634845075567</v>
       </c>
       <c r="G21">
-        <v>0.53072592408228303</v>
+        <v>0.32288008758244041</v>
       </c>
       <c r="H21">
-        <v>0.45510756388636281</v>
+        <v>0.37362032019916991</v>
       </c>
       <c r="I21">
-        <v>0.92352532464506154</v>
+        <v>0.93948810067223909</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -1616,8 +1616,8 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1628,37 +1628,37 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>106.15000152587891</v>
+        <v>103.2600021362305</v>
       </c>
       <c r="D22">
-        <v>114.2341379226845</v>
+        <v>106.10868585785769</v>
       </c>
       <c r="E22">
-        <v>102.71157784531221</v>
+        <v>103.13702860224279</v>
       </c>
       <c r="F22">
-        <v>53.153949938093177</v>
+        <v>18.687666536764031</v>
       </c>
       <c r="G22">
-        <v>-0.28515192833307879</v>
+        <v>-1.3166469094907001</v>
       </c>
       <c r="H22">
-        <v>0.25962899461074501</v>
+        <v>-0.78183586940605054</v>
       </c>
       <c r="I22">
-        <v>0.85839199100755625</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>15</v>
+        <v>0.82872887757691316</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1669,25 +1669,25 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>885.28997802734375</v>
+        <v>890.96002197265625</v>
       </c>
       <c r="D23">
-        <v>908.57687831922794</v>
+        <v>899.85566689853852</v>
       </c>
       <c r="E23">
-        <v>876.79454676447733</v>
+        <v>884.31289476440782</v>
       </c>
       <c r="F23">
-        <v>49.837413873254377</v>
+        <v>50.332046378412777</v>
       </c>
       <c r="G23">
-        <v>0.3083545093286375</v>
+        <v>0.91079646307753137</v>
       </c>
       <c r="H23">
-        <v>1.2074971585404739</v>
+        <v>0.90393160928889438</v>
       </c>
       <c r="I23">
-        <v>1.180618395224831</v>
+        <v>1.261450913721103</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -1696,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1710,25 +1710,25 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>291.1099853515625</v>
+        <v>293.76998901367188</v>
       </c>
       <c r="D24">
-        <v>292.88321201883991</v>
+        <v>296.46719779757342</v>
       </c>
       <c r="E24">
-        <v>286.58822352803509</v>
+        <v>282.95565376492658</v>
       </c>
       <c r="F24">
-        <v>64.357974297169307</v>
+        <v>52.953786873679093</v>
       </c>
       <c r="G24">
-        <v>8.1672915874472665</v>
+        <v>5.7820033958946624</v>
       </c>
       <c r="H24">
-        <v>7.9368738381856181</v>
+        <v>6.6879892718991982</v>
       </c>
       <c r="I24">
-        <v>0.79110862749180533</v>
+        <v>0.83944079750462586</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>15</v>
@@ -1739,8 +1739,8 @@
       <c r="L24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>18</v>
+      <c r="M24" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1751,25 +1751,25 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>310.33999633789063</v>
+        <v>301.32000732421881</v>
       </c>
       <c r="D25">
-        <v>323.83375313523538</v>
+        <v>313.96989902248441</v>
       </c>
       <c r="E25">
-        <v>294.1319538262602</v>
+        <v>295.7215246661317</v>
       </c>
       <c r="F25">
-        <v>63.269742886645211</v>
+        <v>55.623220944082917</v>
       </c>
       <c r="G25">
-        <v>10.04471559392454</v>
+        <v>6.3315578386699372</v>
       </c>
       <c r="H25">
-        <v>8.5832073621382481</v>
+        <v>7.9957748824816353</v>
       </c>
       <c r="I25">
-        <v>0.74786015231000735</v>
+        <v>0.8409325973587658</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -1780,8 +1780,8 @@
       <c r="L25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>18</v>
+      <c r="M25" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1792,28 +1792,28 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>56.400001525878913</v>
+        <v>55.279998779296882</v>
       </c>
       <c r="D26">
-        <v>57.103630016898968</v>
+        <v>57.250675426815363</v>
       </c>
       <c r="E26">
-        <v>52.176372032138417</v>
+        <v>55.095037507406197</v>
       </c>
       <c r="F26">
-        <v>78.839577779730689</v>
+        <v>71.428589746466599</v>
       </c>
       <c r="G26">
-        <v>1.304037877670126</v>
+        <v>1.225168056139204</v>
       </c>
       <c r="H26">
-        <v>1.0710590829375159</v>
+        <v>1.310063518334498</v>
       </c>
       <c r="I26">
-        <v>0.97233357982028246</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>18</v>
+        <v>1.025324148795449</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1833,37 +1833,37 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>63.669998168945313</v>
+        <v>57.360000610351563</v>
       </c>
       <c r="D27">
-        <v>68.428205006802798</v>
+        <v>60.316888328378667</v>
       </c>
       <c r="E27">
-        <v>63.171792377404792</v>
+        <v>54.57168218466542</v>
       </c>
       <c r="F27">
-        <v>58.78740593166625</v>
+        <v>20.793420766989229</v>
       </c>
       <c r="G27">
-        <v>1.8292325933960001</v>
+        <v>-0.98830294957065956</v>
       </c>
       <c r="H27">
-        <v>1.864901640407163</v>
+        <v>0.1085680648986823</v>
       </c>
       <c r="I27">
-        <v>0.7378306180765094</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>15</v>
+        <v>0.78339206272185002</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>18</v>
+      <c r="L27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1874,25 +1874,25 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>151.19999694824219</v>
+        <v>150.53999328613281</v>
       </c>
       <c r="D28">
-        <v>153.18523107455329</v>
+        <v>151.08260110498179</v>
       </c>
       <c r="E28">
-        <v>147.1376187440851</v>
+        <v>150.29739505852271</v>
       </c>
       <c r="F28">
-        <v>64.588651564320116</v>
+        <v>57.294183630197722</v>
       </c>
       <c r="G28">
-        <v>1.3280682793629519</v>
+        <v>1.080089144628118</v>
       </c>
       <c r="H28">
-        <v>1.2695348617560529</v>
+        <v>1.206726638477476</v>
       </c>
       <c r="I28">
-        <v>0.89474362012453557</v>
+        <v>0.89754665638845532</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>15</v>
@@ -1903,8 +1903,8 @@
       <c r="L28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>18</v>
+      <c r="M28" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,25 +1915,25 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>405.1400146484375</v>
+        <v>412.35000610351563</v>
       </c>
       <c r="D29">
-        <v>412.6665870785277</v>
+        <v>413.1054712161008</v>
       </c>
       <c r="E29">
-        <v>400.6305582200215</v>
+        <v>404.70310509528321</v>
       </c>
       <c r="F29">
-        <v>36.962693272017603</v>
+        <v>62.278739907162027</v>
       </c>
       <c r="G29">
-        <v>3.502517388897274</v>
+        <v>2.833766705959079</v>
       </c>
       <c r="H29">
-        <v>5.1876368551300427</v>
+        <v>3.354519425332156</v>
       </c>
       <c r="I29">
-        <v>0.95956137084427873</v>
+        <v>0.98485149723468446</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -1941,11 +1941,11 @@
       <c r="K29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>18</v>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1956,37 +1956,37 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>271.98001098632813</v>
+        <v>244.1199951171875</v>
       </c>
       <c r="D30">
-        <v>274.56202591709967</v>
+        <v>282.2232972526466</v>
       </c>
       <c r="E30">
-        <v>265.51226258736472</v>
+        <v>232.42241546359219</v>
       </c>
       <c r="F30">
-        <v>44.206301593028172</v>
+        <v>25.646082805040312</v>
       </c>
       <c r="G30">
-        <v>-0.1614659424360525</v>
+        <v>-5.5315040995149616</v>
       </c>
       <c r="H30">
-        <v>8.7678180181884793E-2</v>
+        <v>-2.410384648182625</v>
       </c>
       <c r="I30">
-        <v>1.0475778661510391</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>15</v>
+        <v>1.107871832625591</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>16</v>
+      <c r="L30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1997,25 +1997,25 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>96.540000915527344</v>
+        <v>96.199996948242202</v>
       </c>
       <c r="D31">
-        <v>97.610789733668597</v>
+        <v>97.774167694219059</v>
       </c>
       <c r="E31">
-        <v>91.874923680114875</v>
+        <v>94.65725930773408</v>
       </c>
       <c r="F31">
-        <v>51.826321235677163</v>
+        <v>65.946412168537961</v>
       </c>
       <c r="G31">
-        <v>0.97297886974433823</v>
+        <v>0.91383470533834565</v>
       </c>
       <c r="H31">
-        <v>0.8254261106429942</v>
+        <v>0.98744824905998696</v>
       </c>
       <c r="I31">
-        <v>0.75355616744710507</v>
+        <v>0.75606579417916087</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
@@ -2026,8 +2026,8 @@
       <c r="L31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>18</v>
+      <c r="M31" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2038,37 +2038,37 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>444.35000610351563</v>
+        <v>417.260009765625</v>
       </c>
       <c r="D32">
-        <v>531.09508781179125</v>
+        <v>431.84974856265592</v>
       </c>
       <c r="E32">
-        <v>446.55348047782928</v>
+        <v>411.0016831477235</v>
       </c>
       <c r="F32">
-        <v>23.024264100106919</v>
+        <v>27.379233165567229</v>
       </c>
       <c r="G32">
-        <v>-15.044449548957971</v>
+        <v>-28.409014169487651</v>
       </c>
       <c r="H32">
-        <v>-11.77907176013032</v>
+        <v>-23.479174670027419</v>
       </c>
       <c r="I32">
-        <v>1.0529271011306101</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>16</v>
+        <v>1.0887184176047091</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2079,28 +2079,28 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>348.489990234375</v>
+        <v>345.510009765625</v>
       </c>
       <c r="D33">
-        <v>349.93458712084839</v>
+        <v>348.71571749149678</v>
       </c>
       <c r="E33">
-        <v>332.87112925749977</v>
+        <v>342.44142187792278</v>
       </c>
       <c r="F33">
-        <v>71.05926496055416</v>
+        <v>62.675542238043263</v>
       </c>
       <c r="G33">
-        <v>8.8745439602399756</v>
+        <v>7.1426581030851821</v>
       </c>
       <c r="H33">
-        <v>8.5870768798310824</v>
+        <v>8.0296121155519664</v>
       </c>
       <c r="I33">
-        <v>0.90317574525636479</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>18</v>
+        <v>0.99040511830445788</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>15</v>
@@ -2108,8 +2108,8 @@
       <c r="L33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>18</v>
+      <c r="M33" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2120,37 +2120,37 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>274.260009765625</v>
+        <v>275.45001220703119</v>
       </c>
       <c r="D34">
-        <v>275.49320112319919</v>
+        <v>277.30985424906743</v>
       </c>
       <c r="E34">
-        <v>259.56394522166681</v>
+        <v>265.97300010361113</v>
       </c>
       <c r="F34">
-        <v>59.099554859546522</v>
+        <v>70.655654887688286</v>
       </c>
       <c r="G34">
-        <v>-3.3809305256650082</v>
+        <v>-0.81813714481916122</v>
       </c>
       <c r="H34">
-        <v>-5.1040541202450349</v>
+        <v>-2.3668917512156691</v>
       </c>
       <c r="I34">
-        <v>1.068680392758975</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>15</v>
+        <v>1.0800973050548279</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>16</v>
+      <c r="L34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2161,25 +2161,25 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>192.6199951171875</v>
+        <v>175.36000061035159</v>
       </c>
       <c r="D35">
-        <v>194.411750645523</v>
+        <v>197.91845365109961</v>
       </c>
       <c r="E35">
-        <v>187.462534371218</v>
+        <v>167.62155053416831</v>
       </c>
       <c r="F35">
-        <v>64.151669341032317</v>
+        <v>35.634630192289798</v>
       </c>
       <c r="G35">
-        <v>4.0443313435145569</v>
+        <v>-0.33879489963865689</v>
       </c>
       <c r="H35">
-        <v>4.1234186155770436</v>
+        <v>1.900259797024296</v>
       </c>
       <c r="I35">
-        <v>1.1436887707885719</v>
+        <v>1.3213893179309051</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>15</v>
@@ -2187,11 +2187,11 @@
       <c r="K35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>16</v>
+      <c r="L35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2202,37 +2202,37 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>248.6300048828125</v>
+        <v>253.33000183105469</v>
       </c>
       <c r="D36">
-        <v>250.26088902930201</v>
+        <v>254.87092999472799</v>
       </c>
       <c r="E36">
-        <v>240.05625836188099</v>
+        <v>249.91192871760461</v>
       </c>
       <c r="F36">
-        <v>60.284900235359167</v>
+        <v>76.576181909807303</v>
       </c>
       <c r="G36">
-        <v>2.730885816676448</v>
+        <v>3.681211337600558</v>
       </c>
       <c r="H36">
-        <v>2.8576728512013831</v>
+        <v>3.3981154094001971</v>
       </c>
       <c r="I36">
-        <v>1.1419022799865759</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>15</v>
+        <v>1.1254208213988</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2243,25 +2243,25 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>164.50999450683591</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="D37">
-        <v>168.3028214894465</v>
+        <v>168.89301557469679</v>
       </c>
       <c r="E37">
-        <v>161.77146265536379</v>
+        <v>163.1098443583389</v>
       </c>
       <c r="F37">
-        <v>48.053893127446059</v>
+        <v>57.594926151233913</v>
       </c>
       <c r="G37">
-        <v>0.73157992027648788</v>
+        <v>0.75047968344418337</v>
       </c>
       <c r="H37">
-        <v>0.72604663744117182</v>
+        <v>0.64843037934177183</v>
       </c>
       <c r="I37">
-        <v>1.022791443219385</v>
+        <v>1.0282928324902669</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>15</v>
@@ -2269,11 +2269,11 @@
       <c r="K37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>16</v>
+      <c r="L37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2284,25 +2284,25 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>162.92999267578119</v>
+        <v>166.7200012207031</v>
       </c>
       <c r="D38">
-        <v>166.68386498444431</v>
+        <v>167.2622454621177</v>
       </c>
       <c r="E38">
-        <v>160.6561400727544</v>
+        <v>161.34347178816139</v>
       </c>
       <c r="F38">
-        <v>47.38461056922975</v>
+        <v>56.770811257576398</v>
       </c>
       <c r="G38">
-        <v>0.69382469740202168</v>
+        <v>0.64597845193904391</v>
       </c>
       <c r="H38">
-        <v>0.72544834346108733</v>
+        <v>0.57168288894349162</v>
       </c>
       <c r="I38">
-        <v>1.0224931702448661</v>
+        <v>1.0307971651191341</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>15</v>
@@ -2311,10 +2311,10 @@
         <v>15</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2325,28 +2325,28 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>529</v>
+        <v>523.58001708984375</v>
       </c>
       <c r="D39">
-        <v>539.63924927354083</v>
+        <v>531.14836450664575</v>
       </c>
       <c r="E39">
-        <v>497.27217127612431</v>
+        <v>509.56020134156842</v>
       </c>
       <c r="F39">
-        <v>73.306857669668815</v>
+        <v>66.716188334946281</v>
       </c>
       <c r="G39">
-        <v>8.9614939241313323</v>
+        <v>7.176977306061076</v>
       </c>
       <c r="H39">
-        <v>5.242877693609028</v>
+        <v>7.3511249264047329</v>
       </c>
       <c r="I39">
-        <v>1.159290312677014</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>18</v>
+        <v>1.1834451343937911</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>15</v>
@@ -2354,8 +2354,8 @@
       <c r="L39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>16</v>
+      <c r="M39" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2366,25 +2366,25 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>415.60000610351563</v>
+        <v>402.8900146484375</v>
       </c>
       <c r="D40">
-        <v>420.48274410555689</v>
+        <v>414.84062642187132</v>
       </c>
       <c r="E40">
-        <v>408.98582278897442</v>
+        <v>392.97938090234749</v>
       </c>
       <c r="F40">
-        <v>69.431701103209249</v>
+        <v>37.83668976473637</v>
       </c>
       <c r="G40">
-        <v>9.7304306923342665</v>
+        <v>3.0672226353605079</v>
       </c>
       <c r="H40">
-        <v>10.233880859767149</v>
+        <v>6.0568695289357359</v>
       </c>
       <c r="I40">
-        <v>0.9110576332784911</v>
+        <v>1.055757548855027</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>15</v>
@@ -2392,11 +2392,11 @@
       <c r="K40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>18</v>
+      <c r="L40" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2407,28 +2407,28 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>219.55000305175781</v>
+        <v>206.1000061035156</v>
       </c>
       <c r="D41">
-        <v>221.3909576351258</v>
+        <v>230.55894787874851</v>
       </c>
       <c r="E41">
-        <v>211.94333627530941</v>
+        <v>200.70105752722239</v>
       </c>
       <c r="F41">
-        <v>75.711841634943312</v>
+        <v>48.65672552763526</v>
       </c>
       <c r="G41">
-        <v>3.7733405242629199</v>
+        <v>1.7409058694419171</v>
       </c>
       <c r="H41">
-        <v>2.3890778033174782</v>
+        <v>3.0726221017319721</v>
       </c>
       <c r="I41">
-        <v>0.98386135703049937</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>18</v>
+        <v>1.0200270181850359</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>15</v>
@@ -2437,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2448,37 +2448,37 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>232.8800048828125</v>
+        <v>212.91000366210929</v>
       </c>
       <c r="D42">
-        <v>235.37779963705731</v>
+        <v>243.36601384501029</v>
       </c>
       <c r="E42">
-        <v>231.8650592496615</v>
+        <v>206.61112848897409</v>
       </c>
       <c r="F42">
-        <v>74.83504239608709</v>
+        <v>27.53788301905233</v>
       </c>
       <c r="G42">
-        <v>6.7179271002390237</v>
+        <v>1.2626622410247419</v>
       </c>
       <c r="H42">
-        <v>6.794048516270327</v>
+        <v>4.3609553530123071</v>
       </c>
       <c r="I42">
-        <v>1.0460657210934989</v>
+        <v>1.1336827580858331</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2489,25 +2489,25 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>22.440000534057621</v>
+        <v>22.920000076293949</v>
       </c>
       <c r="D43">
-        <v>24.068426840055519</v>
+        <v>23.23318586544692</v>
       </c>
       <c r="E43">
-        <v>21.957286944298559</v>
+        <v>21.889671364603309</v>
       </c>
       <c r="F43">
-        <v>35.946473174771803</v>
+        <v>45.348842882863543</v>
       </c>
       <c r="G43">
-        <v>0.25843866734766863</v>
+        <v>9.9509702273334E-2</v>
       </c>
       <c r="H43">
-        <v>0.33043040230946469</v>
+        <v>0.1641801455071884</v>
       </c>
       <c r="I43">
-        <v>0.44530882142935518</v>
+        <v>0.48862084625337082</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>15</v>
@@ -2515,11 +2515,11 @@
       <c r="K43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>18</v>
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2530,25 +2530,25 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>609.22998046875</v>
+        <v>612.09002685546875</v>
       </c>
       <c r="D44">
-        <v>625.45770767648673</v>
+        <v>618.35072024398835</v>
       </c>
       <c r="E44">
-        <v>606.3308491036471</v>
+        <v>599.98071809306532</v>
       </c>
       <c r="F44">
-        <v>43.023882267477227</v>
+        <v>48.713342438286944</v>
       </c>
       <c r="G44">
-        <v>-5.5967183955908686</v>
+        <v>-5.0941456305558859</v>
       </c>
       <c r="H44">
-        <v>-5.4777408221851349</v>
+        <v>-5.4366557399156559</v>
       </c>
       <c r="I44">
-        <v>0.94446408799393855</v>
+        <v>1.029093952484748</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>15</v>
@@ -2557,10 +2557,10 @@
         <v>15</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2571,25 +2571,25 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>585.25</v>
+        <v>583.6500244140625</v>
       </c>
       <c r="D45">
-        <v>589.03355764102309</v>
+        <v>589.36322438118293</v>
       </c>
       <c r="E45">
-        <v>576.96644235897691</v>
+        <v>578.79394986546879</v>
       </c>
       <c r="F45">
-        <v>62.168068990897837</v>
+        <v>61.799812056412968</v>
       </c>
       <c r="G45">
-        <v>5.7256421879491199</v>
+        <v>4.1729735776727921</v>
       </c>
       <c r="H45">
-        <v>5.2493548421748617</v>
+        <v>4.9470556559271959</v>
       </c>
       <c r="I45">
-        <v>1.035740155111343</v>
+        <v>1.085818389016036</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>15</v>
@@ -2600,8 +2600,8 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
+      <c r="M45" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2612,25 +2612,25 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>226.1199951171875</v>
+        <v>222.46000671386719</v>
       </c>
       <c r="D46">
-        <v>229.61728717053009</v>
+        <v>226.05377609574211</v>
       </c>
       <c r="E46">
-        <v>214.66557154180251</v>
+        <v>216.609083139749</v>
       </c>
       <c r="F46">
-        <v>62.918331732101556</v>
+        <v>60.183653220331642</v>
       </c>
       <c r="G46">
-        <v>2.1330076004384182</v>
+        <v>1.010311378252283</v>
       </c>
       <c r="H46">
-        <v>1.444885887585337</v>
+        <v>1.38748490061865</v>
       </c>
       <c r="I46">
-        <v>0.99980759572736311</v>
+        <v>1.072961992117722</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>15</v>
@@ -2642,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2653,25 +2653,25 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>164.4700012207031</v>
+        <v>161.6000061035156</v>
       </c>
       <c r="D47">
-        <v>165.98419194159521</v>
+        <v>166.90133633356351</v>
       </c>
       <c r="E47">
-        <v>158.89295300818151</v>
+        <v>159.78723614132491</v>
       </c>
       <c r="F47">
-        <v>68.252116452995324</v>
+        <v>55.708326036832737</v>
       </c>
       <c r="G47">
-        <v>7.1047101140976496E-2</v>
+        <v>0.1091075502482112</v>
       </c>
       <c r="H47">
-        <v>-0.3274171687400424</v>
+        <v>0.15913805295999131</v>
       </c>
       <c r="I47">
-        <v>1.055409341141653</v>
+        <v>1.05921518956238</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>15</v>
@@ -2682,8 +2682,8 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
+      <c r="M47" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2694,37 +2694,37 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>224.41999816894531</v>
+        <v>225.5</v>
       </c>
       <c r="D48">
-        <v>229.74540345106439</v>
+        <v>226.58021814193839</v>
       </c>
       <c r="E48">
-        <v>210.3917338257213</v>
+        <v>221.61692105309501</v>
       </c>
       <c r="F48">
-        <v>73.673458901710077</v>
+        <v>75.404781477922825</v>
       </c>
       <c r="G48">
-        <v>3.0530373590365798</v>
+        <v>3.542789778060921</v>
       </c>
       <c r="H48">
-        <v>1.3407751396608121</v>
+        <v>3.0945001542348241</v>
       </c>
       <c r="I48">
-        <v>1.0673164338371359</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>18</v>
+        <v>1.0522478093018151</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
+      <c r="L48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2735,25 +2735,25 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>69.900001525878906</v>
+        <v>66.669998168945313</v>
       </c>
       <c r="D49">
-        <v>70.923616326664956</v>
+        <v>71.248844766071073</v>
       </c>
       <c r="E49">
-        <v>68.944953183658697</v>
+        <v>65.391154623577364</v>
       </c>
       <c r="F49">
-        <v>33.678742821904173</v>
+        <v>32.096994498348423</v>
       </c>
       <c r="G49">
-        <v>-0.21312149653870449</v>
+        <v>-0.84633689848128313</v>
       </c>
       <c r="H49">
-        <v>-0.1394013402698035</v>
+        <v>-0.47276886518518391</v>
       </c>
       <c r="I49">
-        <v>1.176451098950734</v>
+        <v>1.1936824809699571</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>15</v>
@@ -2761,11 +2761,11 @@
       <c r="K49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2776,25 +2776,25 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>486.05999755859381</v>
+        <v>476</v>
       </c>
       <c r="D50">
-        <v>490.64206650236918</v>
+        <v>488.81305159614368</v>
       </c>
       <c r="E50">
-        <v>464.03222374595668</v>
+        <v>469.30409230731613</v>
       </c>
       <c r="F50">
-        <v>57.981943841151029</v>
+        <v>60.173696565824848</v>
       </c>
       <c r="G50">
-        <v>3.433263839794392</v>
+        <v>1.9705228278430129</v>
       </c>
       <c r="H50">
-        <v>2.4329541508969661</v>
+        <v>2.7940988725928868</v>
       </c>
       <c r="I50">
-        <v>0.97973411551181755</v>
+        <v>1.02236963498968</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>15</v>
@@ -2806,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2817,25 +2817,25 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>917.11999511718761</v>
+        <v>895.59002685546875</v>
       </c>
       <c r="D51">
-        <v>935.92388638934403</v>
+        <v>921.72283205275755</v>
       </c>
       <c r="E51">
-        <v>903.75039513967397</v>
+        <v>882.88003834344772</v>
       </c>
       <c r="F51">
-        <v>68.062825757529041</v>
+        <v>40.634389935219097</v>
       </c>
       <c r="G51">
-        <v>2.1584597968183061</v>
+        <v>-3.0194319756457162</v>
       </c>
       <c r="H51">
-        <v>3.0968144046042399E-2</v>
+        <v>-0.79667536978738496</v>
       </c>
       <c r="I51">
-        <v>1.171954937979103</v>
+        <v>1.1861615354372761</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>15</v>
@@ -2846,8 +2846,8 @@
       <c r="L51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>16</v>
+      <c r="M51" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2858,37 +2858,37 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>609.6199951171875</v>
+        <v>555.16998291015625</v>
       </c>
       <c r="D52">
-        <v>616.75864945469277</v>
+        <v>627.58779775786354</v>
       </c>
       <c r="E52">
-        <v>596.12419792253934</v>
+        <v>531.31789420642224</v>
       </c>
       <c r="F52">
-        <v>68.610058301749064</v>
+        <v>24.88602290672894</v>
       </c>
       <c r="G52">
-        <v>11.0574062345122</v>
+        <v>-3.2987456642865709</v>
       </c>
       <c r="H52">
-        <v>11.25808398242736</v>
+        <v>4.1926740201984654</v>
       </c>
       <c r="I52">
-        <v>1.2786126911282449</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>15</v>
+        <v>1.2510149633363521</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2899,25 +2899,25 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>281.30999755859369</v>
+        <v>267.97000122070313</v>
       </c>
       <c r="D53">
-        <v>286.85613623459813</v>
+        <v>282.65911656495672</v>
       </c>
       <c r="E53">
-        <v>271.44957142444213</v>
+        <v>262.42088308627098</v>
       </c>
       <c r="F53">
-        <v>68.969199695395972</v>
+        <v>43.138285262742002</v>
       </c>
       <c r="G53">
-        <v>7.3659955618722961</v>
+        <v>2.6531245041485931</v>
       </c>
       <c r="H53">
-        <v>6.9234910334303912</v>
+        <v>4.8599635452476146</v>
       </c>
       <c r="I53">
-        <v>0.93413792168043575</v>
+        <v>1.050194331870083</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>15</v>
@@ -2929,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2940,25 +2940,25 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>73.139999389648438</v>
+        <v>75.449996948242188</v>
       </c>
       <c r="D54">
-        <v>89.48405451602919</v>
+        <v>78.605395976929628</v>
       </c>
       <c r="E54">
-        <v>69.701658025823477</v>
+        <v>70.320315518606094</v>
       </c>
       <c r="F54">
-        <v>31.271031670325531</v>
+        <v>39.509427193860553</v>
       </c>
       <c r="G54">
-        <v>-0.7884354899298387</v>
+        <v>-1.459838210712306</v>
       </c>
       <c r="H54">
-        <v>-3.3838142020219099E-2</v>
+        <v>-1.2729802003031989</v>
       </c>
       <c r="I54">
-        <v>0.74684755700517969</v>
+        <v>0.79191170462500637</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -2966,11 +2966,11 @@
       <c r="K54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>18</v>
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2981,28 +2981,28 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>513.760009765625</v>
+        <v>508.20999145507813</v>
       </c>
       <c r="D55">
-        <v>518.68305367555877</v>
+        <v>518.85883708781455</v>
       </c>
       <c r="E55">
-        <v>493.30267281718687</v>
+        <v>505.22402249644892</v>
       </c>
       <c r="F55">
-        <v>75.012367861164307</v>
+        <v>65.923994668800546</v>
       </c>
       <c r="G55">
-        <v>7.0011273714534923</v>
+        <v>5.9173500861834327</v>
       </c>
       <c r="H55">
-        <v>5.9359503590531624</v>
+        <v>6.6610832621931158</v>
       </c>
       <c r="I55">
-        <v>0.9743778258924255</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>18</v>
+        <v>1.044970064217851</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>15</v>
@@ -3011,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3022,28 +3022,28 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>314.70001220703119</v>
+        <v>296.79000854492188</v>
       </c>
       <c r="D56">
-        <v>318.56497136362691</v>
+        <v>325.08576411286498</v>
       </c>
       <c r="E56">
-        <v>299.63789205713209</v>
+        <v>285.11137944182252</v>
       </c>
       <c r="F56">
-        <v>75.784595680935851</v>
+        <v>44.853988800993292</v>
       </c>
       <c r="G56">
-        <v>5.5125467442572926</v>
+        <v>1.221006210935911</v>
       </c>
       <c r="H56">
-        <v>5.008386502799679</v>
+        <v>3.6912350277971142</v>
       </c>
       <c r="I56">
-        <v>1.0210912813884749</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>18</v>
+        <v>1.05764387675003</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>15</v>
@@ -3051,8 +3051,8 @@
       <c r="L56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="3" t="s">
-        <v>16</v>
+      <c r="M56" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3063,37 +3063,37 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>71.120002746582031</v>
+        <v>69.540000915527344</v>
       </c>
       <c r="D57">
-        <v>72.215915245688436</v>
+        <v>72.133794282554703</v>
       </c>
       <c r="E57">
-        <v>70.129803138100627</v>
+        <v>68.620491257344838</v>
       </c>
       <c r="F57">
-        <v>28.370835579110459</v>
+        <v>41.843102380219442</v>
       </c>
       <c r="G57">
-        <v>-0.51464915143468204</v>
+        <v>-0.75507657139276319</v>
       </c>
       <c r="H57">
-        <v>-0.3674779954287411</v>
+        <v>-0.57545084523518031</v>
       </c>
       <c r="I57">
-        <v>1.0429303214710559</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>1.084319898321743</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3104,25 +3104,25 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>89.790000915527344</v>
+        <v>90.599998474121094</v>
       </c>
       <c r="D58">
-        <v>90.733934813259339</v>
+        <v>92.679504115030383</v>
       </c>
       <c r="E58">
-        <v>88.177492275886863</v>
+        <v>89.846206944539929</v>
       </c>
       <c r="F58">
-        <v>52.876379732177867</v>
+        <v>63.697094459175538</v>
       </c>
       <c r="G58">
-        <v>0.39701150738130758</v>
+        <v>0.69212714085071525</v>
       </c>
       <c r="H58">
-        <v>0.37933151818804028</v>
+        <v>0.65501076281778992</v>
       </c>
       <c r="I58">
-        <v>1.0776884719222559</v>
+        <v>1.040258220986316</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -3130,11 +3130,11 @@
       <c r="K58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
+      <c r="L58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3145,25 +3145,25 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>576.92999267578125</v>
+        <v>578.15997314453125</v>
       </c>
       <c r="D59">
-        <v>597.06051811809459</v>
+        <v>586.28244611753848</v>
       </c>
       <c r="E59">
-        <v>572.85377108391424</v>
+        <v>561.29468488134535</v>
       </c>
       <c r="F59">
-        <v>55.656707705561857</v>
+        <v>39.601836827723723</v>
       </c>
       <c r="G59">
-        <v>12.53501409940066</v>
+        <v>5.3349918571635726</v>
       </c>
       <c r="H59">
-        <v>15.16673746101776</v>
+        <v>8.7193122713655544</v>
       </c>
       <c r="I59">
-        <v>0.98524889591953013</v>
+        <v>1.078311946014866</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>15</v>
@@ -3171,11 +3171,11 @@
       <c r="K59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>18</v>
+      <c r="L59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3186,25 +3186,25 @@
         <v>14</v>
       </c>
       <c r="C60">
-        <v>109.75</v>
+        <v>104.23000335693359</v>
       </c>
       <c r="D60">
-        <v>111.5487148354956</v>
+        <v>109.2030456685152</v>
       </c>
       <c r="E60">
-        <v>108.6769997117979</v>
+        <v>102.8398097304803</v>
       </c>
       <c r="F60">
-        <v>36.067883269179511</v>
+        <v>33.786868210384512</v>
       </c>
       <c r="G60">
-        <v>-1.626100034611639</v>
+        <v>-2.4464525789020541</v>
       </c>
       <c r="H60">
-        <v>-1.673478209864131</v>
+        <v>-2.073583772223659</v>
       </c>
       <c r="I60">
-        <v>0.95324376087791962</v>
+        <v>0.90747982644196423</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -3215,8 +3215,8 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>18</v>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3227,37 +3227,37 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>119.44000244140619</v>
+        <v>119.129997253418</v>
       </c>
       <c r="D61">
-        <v>122.3609245540719</v>
+        <v>121.284605609715</v>
       </c>
       <c r="E61">
-        <v>103.6476487055542</v>
+        <v>116.1782479582258</v>
       </c>
       <c r="F61">
-        <v>91.908166917364738</v>
+        <v>74.209656074161302</v>
       </c>
       <c r="G61">
-        <v>3.9930545375284798</v>
+        <v>4.2543936537022944</v>
       </c>
       <c r="H61">
-        <v>2.7068790825815712</v>
+        <v>4.0677163983143547</v>
       </c>
       <c r="I61">
-        <v>1.034154119484975</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>18</v>
+        <v>1.076906453714032</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>16</v>
+      <c r="L61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3268,25 +3268,25 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>416.72000122070313</v>
+        <v>426.58999633789063</v>
       </c>
       <c r="D62">
-        <v>419.8020619957648</v>
+        <v>432.17609738840179</v>
       </c>
       <c r="E62">
-        <v>414.58079410077539</v>
+        <v>415.97247962052671</v>
       </c>
       <c r="F62">
-        <v>35.696217983583857</v>
+        <v>69.734203370515388</v>
       </c>
       <c r="G62">
-        <v>-1.7827545852659341</v>
+        <v>1.0173988910035521</v>
       </c>
       <c r="H62">
-        <v>-1.2685478789054121</v>
+        <v>-0.18018396493480329</v>
       </c>
       <c r="I62">
-        <v>0.93555678499937045</v>
+        <v>1.0325313007205199</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>15</v>
@@ -3295,10 +3295,10 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3309,25 +3309,25 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>112.0500030517578</v>
+        <v>106.38999938964839</v>
       </c>
       <c r="D63">
-        <v>113.68802761852599</v>
+        <v>111.6919975640382</v>
       </c>
       <c r="E63">
-        <v>100.10054224056999</v>
+        <v>103.8080046157888</v>
       </c>
       <c r="F63">
-        <v>57.505775532282819</v>
+        <v>56.288790326299221</v>
       </c>
       <c r="G63">
-        <v>3.310318329421932</v>
+        <v>2.387332536737603</v>
       </c>
       <c r="H63">
-        <v>2.3484300130693239</v>
+        <v>2.7192862415335051</v>
       </c>
       <c r="I63">
-        <v>0.78634500185057099</v>
+        <v>0.72285135117664845</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -3338,8 +3338,8 @@
       <c r="L63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>18</v>
+      <c r="M63" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3350,25 +3350,25 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>83.779998779296875</v>
+        <v>82.870002746582031</v>
       </c>
       <c r="D64">
-        <v>85.290751574388352</v>
+        <v>85.816509520661057</v>
       </c>
       <c r="E64">
-        <v>79.637822034010085</v>
+        <v>81.092059815276443</v>
       </c>
       <c r="F64">
-        <v>46.545447231329327</v>
+        <v>59.673474573579398</v>
       </c>
       <c r="G64">
-        <v>0.30022200507320917</v>
+        <v>0.1847526276363709</v>
       </c>
       <c r="H64">
-        <v>0.3829013363109029</v>
+        <v>0.34484209935993509</v>
       </c>
       <c r="I64">
-        <v>1.303455061299996</v>
+        <v>1.351304067706022</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>15</v>
@@ -3376,11 +3376,11 @@
       <c r="K64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>16</v>
+      <c r="L64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3391,25 +3391,25 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>687.6500244140625</v>
+        <v>749.1199951171875</v>
       </c>
       <c r="D65">
-        <v>743.452562262171</v>
+        <v>775.55938794318945</v>
       </c>
       <c r="E65">
-        <v>682.01599591305228</v>
+        <v>740.96631657689977</v>
       </c>
       <c r="F65">
-        <v>41.508650671964801</v>
+        <v>58.079374566081427</v>
       </c>
       <c r="G65">
-        <v>3.8558934496861639</v>
+        <v>14.81114864894244</v>
       </c>
       <c r="H65">
-        <v>7.8196210818006877</v>
+        <v>12.757571893650679</v>
       </c>
       <c r="I65">
-        <v>1.069149356906423</v>
+        <v>1.150925494302667</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>15</v>
@@ -3418,10 +3418,10 @@
         <v>15</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3432,25 +3432,25 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>83.400001525878906</v>
+        <v>78.910003662109375</v>
       </c>
       <c r="D66">
-        <v>84.193112886931928</v>
+        <v>83.559423463892998</v>
       </c>
       <c r="E66">
-        <v>80.881173437705357</v>
+        <v>77.203435335632676</v>
       </c>
       <c r="F66">
-        <v>31.053961419411088</v>
+        <v>40.810327709052203</v>
       </c>
       <c r="G66">
-        <v>4.9316677371692201E-2</v>
+        <v>-0.90264756519782441</v>
       </c>
       <c r="H66">
-        <v>0.29395933041570038</v>
+        <v>-0.37451100709339541</v>
       </c>
       <c r="I66">
-        <v>0.79974208983812622</v>
+        <v>0.88664103458452037</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>15</v>
@@ -3458,11 +3458,11 @@
       <c r="K66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>18</v>
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3473,25 +3473,25 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>917.11999511718761</v>
+        <v>945</v>
       </c>
       <c r="D67">
-        <v>956.2006357796048</v>
+        <v>969.49732292408657</v>
       </c>
       <c r="E67">
-        <v>909.65938444919004</v>
+        <v>892.83125547993131</v>
       </c>
       <c r="F67">
-        <v>59.789419423621162</v>
+        <v>58.126058799377567</v>
       </c>
       <c r="G67">
-        <v>16.870685537408011</v>
+        <v>14.92034691855395</v>
       </c>
       <c r="H67">
-        <v>18.4368479918829</v>
+        <v>14.923425791235379</v>
       </c>
       <c r="I67">
-        <v>1.0670736256018321</v>
+        <v>1.170184963130573</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>15</v>
@@ -3499,11 +3499,11 @@
       <c r="K67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>16</v>
+      <c r="L67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3514,37 +3514,37 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>136.92999267578119</v>
+        <v>140.52000427246091</v>
       </c>
       <c r="D68">
-        <v>139.47149049229171</v>
+        <v>145.20890167822969</v>
       </c>
       <c r="E68">
-        <v>130.40851003086669</v>
+        <v>136.88538455921449</v>
       </c>
       <c r="F68">
-        <v>70.515180681606296</v>
+        <v>62.145819791827577</v>
       </c>
       <c r="G68">
-        <v>4.9681754333454649</v>
+        <v>5.4896039088574753</v>
       </c>
       <c r="H68">
-        <v>3.9607005935671769</v>
+        <v>5.2946120049522962</v>
       </c>
       <c r="I68">
-        <v>1.1246240999258379</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>18</v>
+        <v>1.292201312908791</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>16</v>
+      <c r="L68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3555,28 +3555,28 @@
         <v>14</v>
       </c>
       <c r="C69">
-        <v>118.2200012207031</v>
+        <v>112.36000061035161</v>
       </c>
       <c r="D69">
-        <v>120.6255970638105</v>
+        <v>119.6241752319535</v>
       </c>
       <c r="E69">
-        <v>116.06297323125089</v>
+        <v>111.0301085640844</v>
       </c>
       <c r="F69">
-        <v>41.430496059947899</v>
+        <v>29.38673733709561</v>
       </c>
       <c r="G69">
-        <v>-3.217132581201525</v>
+        <v>-3.1909646460375711</v>
       </c>
       <c r="H69">
-        <v>-3.6659664974642392</v>
+        <v>-3.1659734807158459</v>
       </c>
       <c r="I69">
-        <v>1.0100900988994701</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>15</v>
+        <v>1.043808326392812</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>15</v>
@@ -3584,8 +3584,8 @@
       <c r="L69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="3" t="s">
-        <v>16</v>
+      <c r="M69" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3596,25 +3596,25 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>175.67999267578119</v>
+        <v>172.41999816894531</v>
       </c>
       <c r="D70">
-        <v>178.36892688775339</v>
+        <v>175.85515621444739</v>
       </c>
       <c r="E70">
-        <v>173.09678443339621</v>
+        <v>171.91056033828701</v>
       </c>
       <c r="F70">
-        <v>62.986524616545189</v>
+        <v>45.137158056156991</v>
       </c>
       <c r="G70">
-        <v>5.5402240839300703</v>
+        <v>3.302108839975062</v>
       </c>
       <c r="H70">
-        <v>6.1034779343191579</v>
+        <v>4.4539092658500028</v>
       </c>
       <c r="I70">
-        <v>1.099217142832136</v>
+        <v>1.346871530907946</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>15</v>
@@ -3622,11 +3622,11 @@
       <c r="K70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>16</v>
+      <c r="L70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3637,28 +3637,28 @@
         <v>14</v>
       </c>
       <c r="C71">
-        <v>376.14999389648438</v>
+        <v>362.35000610351563</v>
       </c>
       <c r="D71">
-        <v>380.82263297317428</v>
+        <v>384.18085973297821</v>
       </c>
       <c r="E71">
-        <v>362.94879908597761</v>
+        <v>353.2191385231601</v>
       </c>
       <c r="F71">
-        <v>76.343274642239834</v>
+        <v>55.927752006819098</v>
       </c>
       <c r="G71">
-        <v>9.1782987255224384</v>
+        <v>6.1215383806066939</v>
       </c>
       <c r="H71">
-        <v>5.6424279496700311</v>
+        <v>7.2796065913159032</v>
       </c>
       <c r="I71">
-        <v>1.1675416389922191</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>18</v>
+        <v>1.2360277989023269</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>15</v>
@@ -3666,8 +3666,8 @@
       <c r="L71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>16</v>
+      <c r="M71" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3678,25 +3678,25 @@
         <v>14</v>
       </c>
       <c r="C72">
-        <v>174.66999816894531</v>
+        <v>169.8399963378906</v>
       </c>
       <c r="D72">
-        <v>177.17776094264431</v>
+        <v>176.88263216454001</v>
       </c>
       <c r="E72">
-        <v>171.81937912431991</v>
+        <v>169.16878995460061</v>
       </c>
       <c r="F72">
-        <v>64.369211642492075</v>
+        <v>47.786256163201223</v>
       </c>
       <c r="G72">
-        <v>0.35509614999955369</v>
+        <v>-0.15302880098934679</v>
       </c>
       <c r="H72">
-        <v>-0.33522116530839091</v>
+        <v>0.107188078308239</v>
       </c>
       <c r="I72">
-        <v>1.028356042193008</v>
+        <v>1.0316728453013011</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>15</v>
@@ -3707,8 +3707,8 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
+      <c r="M72" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3719,25 +3719,25 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>29.270000457763668</v>
+        <v>28.860000610351559</v>
       </c>
       <c r="D73">
-        <v>30.207892365053929</v>
+        <v>29.307796641071899</v>
       </c>
       <c r="E73">
-        <v>28.69210807091147</v>
+        <v>28.349346543045009</v>
       </c>
       <c r="F73">
-        <v>51.898736724013183</v>
+        <v>46.347036338030868</v>
       </c>
       <c r="G73">
-        <v>6.9035282587929403E-2</v>
+        <v>-0.1052197593906036</v>
       </c>
       <c r="H73">
-        <v>2.9081832084804499E-2</v>
+        <v>-3.8304721378537403E-2</v>
       </c>
       <c r="I73">
-        <v>1.0325379473425591</v>
+        <v>1.0827586479050939</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>15</v>
@@ -3748,8 +3748,8 @@
       <c r="L73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>16</v>
+      <c r="M73" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3760,25 +3760,25 @@
         <v>14</v>
       </c>
       <c r="C74">
-        <v>172.2799987792969</v>
+        <v>169.30000305175781</v>
       </c>
       <c r="D74">
-        <v>174.9287933302376</v>
+        <v>171.4003274574647</v>
       </c>
       <c r="E74">
-        <v>167.94263611312181</v>
+        <v>167.8110983237853</v>
       </c>
       <c r="F74">
-        <v>45.712354637535277</v>
+        <v>54.425456548652122</v>
       </c>
       <c r="G74">
-        <v>-0.1362361324791265</v>
+        <v>-0.69791075544324599</v>
       </c>
       <c r="H74">
-        <v>-0.338874312183988</v>
+        <v>-0.49276726806716681</v>
       </c>
       <c r="I74">
-        <v>1.084826366463395</v>
+        <v>1.095347803825407</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>15</v>
@@ -3789,8 +3789,8 @@
       <c r="L74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>16</v>
+      <c r="M74" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3801,37 +3801,37 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <v>120.13999938964839</v>
+        <v>130.5</v>
       </c>
       <c r="D75">
-        <v>121.06707866533159</v>
+        <v>139.376642147545</v>
       </c>
       <c r="E75">
-        <v>119.2757776055947</v>
+        <v>116.38050332539019</v>
       </c>
       <c r="F75">
-        <v>47.413772550102877</v>
+        <v>75.215513981196167</v>
       </c>
       <c r="G75">
-        <v>-0.27310124701322991</v>
+        <v>2.4847921604521161</v>
       </c>
       <c r="H75">
-        <v>-0.29794777280976392</v>
+        <v>1.200055777571942</v>
       </c>
       <c r="I75">
-        <v>1.3645336412453359</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>15</v>
+        <v>1.342082376023793</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>16</v>
+      <c r="L75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3842,37 +3842,37 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <v>79.819999694824219</v>
+        <v>83.589996337890625</v>
       </c>
       <c r="D76">
-        <v>82.076015507697363</v>
+        <v>83.477291658178302</v>
       </c>
       <c r="E76">
-        <v>78.495415243558213</v>
+        <v>79.356993532948934</v>
       </c>
       <c r="F76">
-        <v>57.484582255052707</v>
+        <v>59.396728740352607</v>
       </c>
       <c r="G76">
-        <v>2.0776024379922968</v>
+        <v>1.8527063687027121</v>
       </c>
       <c r="H76">
-        <v>2.337144888029798</v>
+        <v>1.9375647967292089</v>
       </c>
       <c r="I76">
-        <v>1.0415784702960009</v>
+        <v>1.1099596748882259</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
+      <c r="K76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3883,25 +3883,25 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>171.1000061035156</v>
+        <v>172.2200012207031</v>
       </c>
       <c r="D77">
-        <v>178.30828945517129</v>
+        <v>174.66867257373761</v>
       </c>
       <c r="E77">
-        <v>165.52885130933771</v>
+        <v>165.41704258390749</v>
       </c>
       <c r="F77">
-        <v>51.510435476819559</v>
+        <v>57.259270757431793</v>
       </c>
       <c r="G77">
-        <v>0.85999826398506229</v>
+        <v>0.32771442855826649</v>
       </c>
       <c r="H77">
-        <v>0.3296481525562388</v>
+        <v>0.3593300936827456</v>
       </c>
       <c r="I77">
-        <v>0.92589989341622347</v>
+        <v>0.98631901058382265</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>15</v>
@@ -3912,8 +3912,8 @@
       <c r="L77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>18</v>
+      <c r="M77" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3924,25 +3924,25 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>491.25</v>
+        <v>495.39999389648438</v>
       </c>
       <c r="D78">
-        <v>497.44522011255782</v>
+        <v>499.32934445944551</v>
       </c>
       <c r="E78">
-        <v>488.15763284503163</v>
+        <v>488.45636982626883</v>
       </c>
       <c r="F78">
-        <v>55.1510925670785</v>
+        <v>58.538642070342497</v>
       </c>
       <c r="G78">
-        <v>4.8734204606727189</v>
+        <v>4.0098174919373264</v>
       </c>
       <c r="H78">
-        <v>4.9343382953804813</v>
+        <v>4.4254408553356006</v>
       </c>
       <c r="I78">
-        <v>1.006324729977575</v>
+        <v>1.07340573996983</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>15</v>
@@ -3950,11 +3950,11 @@
       <c r="K78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>16</v>
+      <c r="L78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3965,28 +3965,28 @@
         <v>14</v>
       </c>
       <c r="C79">
-        <v>125.75</v>
+        <v>125.4300003051758</v>
       </c>
       <c r="D79">
-        <v>126.9102817064858</v>
+        <v>127.1783547104575</v>
       </c>
       <c r="E79">
-        <v>122.3640037462207</v>
+        <v>124.3416452023494</v>
       </c>
       <c r="F79">
-        <v>70.839814758784186</v>
+        <v>59.877195407361249</v>
       </c>
       <c r="G79">
-        <v>1.6461965691275251</v>
+        <v>1.330316718808092</v>
       </c>
       <c r="H79">
-        <v>1.53503934863497</v>
+        <v>1.50577602817067</v>
       </c>
       <c r="I79">
-        <v>1.2565245041075781</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>18</v>
+        <v>1.204769149470015</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>15</v>
@@ -3994,8 +3994,8 @@
       <c r="L79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M79" s="3" t="s">
-        <v>16</v>
+      <c r="M79" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4006,25 +4006,25 @@
         <v>14</v>
       </c>
       <c r="C80">
-        <v>95.269996643066406</v>
+        <v>98.019996643066406</v>
       </c>
       <c r="D80">
-        <v>96.430012694856558</v>
+        <v>98.248696417948423</v>
       </c>
       <c r="E80">
-        <v>93.809986258826456</v>
+        <v>96.105586506158716</v>
       </c>
       <c r="F80">
-        <v>38.847385532839297</v>
+        <v>58.863841177182671</v>
       </c>
       <c r="G80">
-        <v>0.40119991339690841</v>
+        <v>0.75626988600198786</v>
       </c>
       <c r="H80">
-        <v>0.80156602242401676</v>
+        <v>0.68171726290894463</v>
       </c>
       <c r="I80">
-        <v>0.99443593589510959</v>
+        <v>1.0799551975996029</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>15</v>
@@ -4033,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4047,37 +4047,37 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>71.910003662109375</v>
+        <v>72.040000915527344</v>
       </c>
       <c r="D81">
-        <v>74.434051974393185</v>
+        <v>72.852390939492963</v>
       </c>
       <c r="E81">
-        <v>64.080234611823329</v>
+        <v>70.376181361009273</v>
       </c>
       <c r="F81">
-        <v>81.818234853336577</v>
+        <v>81.875049386786415</v>
       </c>
       <c r="G81">
-        <v>1.7415288554086881</v>
+        <v>2.0135489088758618</v>
       </c>
       <c r="H81">
-        <v>0.87396038154491262</v>
+        <v>1.7533126230220659</v>
       </c>
       <c r="I81">
-        <v>0.87543497371867318</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>18</v>
+        <v>0.89336693213671625</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>18</v>
+      <c r="L81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -4088,28 +4088,28 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>518.96002197265625</v>
+        <v>487.239990234375</v>
       </c>
       <c r="D82">
-        <v>533.78694831275868</v>
+        <v>537.64267846134089</v>
       </c>
       <c r="E82">
-        <v>512.65020291491999</v>
+        <v>474.78303303419472</v>
       </c>
       <c r="F82">
-        <v>54.844758465781467</v>
+        <v>29.743443820412271</v>
       </c>
       <c r="G82">
-        <v>3.6128546628134468</v>
+        <v>-4.1664154450921274</v>
       </c>
       <c r="H82">
-        <v>3.2674428443883561</v>
+        <v>0.20366958364866369</v>
       </c>
       <c r="I82">
-        <v>1.1915529791010659</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>15</v>
+        <v>1.225927630989033</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>15</v>
@@ -4117,8 +4117,8 @@
       <c r="L82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>16</v>
+      <c r="M82" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -4129,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>582.3499755859375</v>
+        <v>580.83001708984375</v>
       </c>
       <c r="D83">
-        <v>586.14410495610616</v>
+        <v>586.45168118825575</v>
       </c>
       <c r="E83">
-        <v>574.31304836420634</v>
+        <v>576.01689442558347</v>
       </c>
       <c r="F83">
-        <v>62.17004112708981</v>
+        <v>61.835613027831641</v>
       </c>
       <c r="G83">
-        <v>5.8322399528857432</v>
+        <v>4.2367067123088873</v>
       </c>
       <c r="H83">
-        <v>5.350601045308383</v>
+        <v>5.0256995394605664</v>
       </c>
       <c r="I83">
-        <v>1.034775895672196</v>
+        <v>1.0852478185555849</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>15</v>
@@ -4158,8 +4158,8 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -4170,25 +4170,25 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>359.73001098632813</v>
+        <v>356.010009765625</v>
       </c>
       <c r="D84">
-        <v>363.83466910560549</v>
+        <v>374.41292343247198</v>
       </c>
       <c r="E84">
-        <v>351.21104622642582</v>
+        <v>349.81564450837618</v>
       </c>
       <c r="F84">
-        <v>49.280028125045781</v>
+        <v>55.865181977721441</v>
       </c>
       <c r="G84">
-        <v>0.46899144339931809</v>
+        <v>0.70371435933532211</v>
       </c>
       <c r="H84">
-        <v>0.1763823868794348</v>
+        <v>1.21559752792416</v>
       </c>
       <c r="I84">
-        <v>1.015303678856778</v>
+        <v>1.0417024647106119</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>15</v>
@@ -4199,8 +4199,8 @@
       <c r="L84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M84" s="3" t="s">
-        <v>16</v>
+      <c r="M84" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -4211,25 +4211,25 @@
         <v>14</v>
       </c>
       <c r="C85">
-        <v>21.729999542236332</v>
+        <v>22.110000610351559</v>
       </c>
       <c r="D85">
-        <v>22.06661271169952</v>
+        <v>22.627141717382919</v>
       </c>
       <c r="E85">
-        <v>20.99910144322514</v>
+        <v>21.27000151033053</v>
       </c>
       <c r="F85">
-        <v>46.288212516689278</v>
+        <v>53.196927952046082</v>
       </c>
       <c r="G85">
-        <v>0.15702458486262211</v>
+        <v>0.1957842033964354</v>
       </c>
       <c r="H85">
-        <v>0.25121412658620068</v>
+        <v>0.19530435765005591</v>
       </c>
       <c r="I85">
-        <v>1.2220279428800209</v>
+        <v>1.2431506916424819</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>15</v>
@@ -4238,10 +4238,10 @@
         <v>15</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -4252,25 +4252,25 @@
         <v>14</v>
       </c>
       <c r="C86">
-        <v>117.48000335693359</v>
+        <v>114.1699981689453</v>
       </c>
       <c r="D86">
-        <v>119.2142588939231</v>
+        <v>117.7215634381745</v>
       </c>
       <c r="E86">
-        <v>111.40860051595421</v>
+        <v>112.2698654820264</v>
       </c>
       <c r="F86">
-        <v>49.926374791357787</v>
+        <v>53.191490800774297</v>
       </c>
       <c r="G86">
-        <v>-0.16644102981349809</v>
+        <v>-0.47084776550369151</v>
       </c>
       <c r="H86">
-        <v>-0.39271167517968142</v>
+        <v>-0.31791804571515159</v>
       </c>
       <c r="I86">
-        <v>1.1657592497562059</v>
+        <v>1.1846787462727411</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>15</v>
@@ -4281,8 +4281,8 @@
       <c r="L86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>16</v>
+      <c r="M86" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -4293,37 +4293,37 @@
         <v>14</v>
       </c>
       <c r="C87">
-        <v>599.25</v>
+        <v>552.53997802734375</v>
       </c>
       <c r="D87">
-        <v>606.16850663612865</v>
+        <v>615.71856157292791</v>
       </c>
       <c r="E87">
-        <v>589.56576373217501</v>
+        <v>534.06715271278631</v>
       </c>
       <c r="F87">
-        <v>38.670664567434493</v>
+        <v>26.378951188044301</v>
       </c>
       <c r="G87">
-        <v>-3.2475803455895398</v>
+        <v>-11.76888503128578</v>
       </c>
       <c r="H87">
-        <v>-2.213871690936188</v>
+        <v>-6.6586476578272986</v>
       </c>
       <c r="I87">
-        <v>1.0465649974828599</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>15</v>
+        <v>1.0681118217546191</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>16</v>
+      <c r="L87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -4334,37 +4334,37 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>220.88999938964841</v>
+        <v>262.510009765625</v>
       </c>
       <c r="D88">
-        <v>245.36256339534719</v>
+        <v>287.54163826676262</v>
       </c>
       <c r="E88">
-        <v>205.65744305694079</v>
+        <v>187.7012249796102</v>
       </c>
       <c r="F88">
-        <v>23.672663177145481</v>
+        <v>58.993313136608293</v>
       </c>
       <c r="G88">
-        <v>-2.7613726878188629</v>
+        <v>3.5119825952548069</v>
       </c>
       <c r="H88">
-        <v>1.566509392346346</v>
+        <v>-0.2693595070500831</v>
       </c>
       <c r="I88">
-        <v>1.219361108648719</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>16</v>
+        <v>1.3675207852117861</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4375,37 +4375,37 @@
         <v>14</v>
       </c>
       <c r="C89">
-        <v>205.83999633789071</v>
+        <v>194.67999267578119</v>
       </c>
       <c r="D89">
-        <v>204.84574048482651</v>
+        <v>205.58388957269719</v>
       </c>
       <c r="E89">
-        <v>176.97997362650159</v>
+        <v>193.8789618154166</v>
       </c>
       <c r="F89">
-        <v>76.517603797537447</v>
+        <v>56.96528312984595</v>
       </c>
       <c r="G89">
-        <v>6.1083285066912083</v>
+        <v>6.4924500170338604</v>
       </c>
       <c r="H89">
-        <v>4.6368657175359758</v>
+        <v>6.4352514568088024</v>
       </c>
       <c r="I89">
-        <v>1.124560851603486</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
+        <v>1.193481704796953</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -4416,25 +4416,25 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>198.30000305175781</v>
+        <v>205.83000183105469</v>
       </c>
       <c r="D90">
-        <v>210.07070482539339</v>
+        <v>212.0682559219656</v>
       </c>
       <c r="E90">
-        <v>195.65501190172711</v>
+        <v>190.59460331352551</v>
       </c>
       <c r="F90">
-        <v>35.759331275307702</v>
+        <v>54.285033089616498</v>
       </c>
       <c r="G90">
-        <v>-0.37105571753656358</v>
+        <v>0.13840917384189311</v>
       </c>
       <c r="H90">
-        <v>0.2252079975332566</v>
+        <v>-0.4111858717405607</v>
       </c>
       <c r="I90">
-        <v>1.1440407969050621</v>
+        <v>1.182143687885215</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>15</v>
@@ -4443,10 +4443,10 @@
         <v>15</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -4457,25 +4457,25 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>79.900001525878906</v>
+        <v>77.69000244140625</v>
       </c>
       <c r="D91">
-        <v>88.383131018308461</v>
+        <v>81.500126908672982</v>
       </c>
       <c r="E91">
-        <v>75.065440323069879</v>
+        <v>76.657019000227692</v>
       </c>
       <c r="F91">
-        <v>59.104879635261817</v>
+        <v>53.52505918447509</v>
       </c>
       <c r="G91">
-        <v>2.5660316656445592</v>
+        <v>1.2069178777543359</v>
       </c>
       <c r="H91">
-        <v>2.0861692182805101</v>
+        <v>1.7775907270648099</v>
       </c>
       <c r="I91">
-        <v>0.86704052125924846</v>
+        <v>0.94544031703710718</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>15</v>
@@ -4486,8 +4486,8 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>18</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -4498,25 +4498,25 @@
         <v>14</v>
       </c>
       <c r="C92">
-        <v>566.030029296875</v>
+        <v>565.239990234375</v>
       </c>
       <c r="D92">
-        <v>621.53979717310619</v>
+        <v>574.20474580096663</v>
       </c>
       <c r="E92">
-        <v>545.89735405457247</v>
+        <v>558.9923803151047</v>
       </c>
       <c r="F92">
-        <v>43.303449630027693</v>
+        <v>42.821988313125033</v>
       </c>
       <c r="G92">
-        <v>-1.51955158348494</v>
+        <v>-5.2446941593390193</v>
       </c>
       <c r="H92">
-        <v>1.1066049465060419</v>
+        <v>-3.230743259208996</v>
       </c>
       <c r="I92">
-        <v>1.2139356137385391</v>
+        <v>1.261535782715171</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>15</v>
@@ -4524,11 +4524,11 @@
       <c r="K92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L92" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>16</v>
+      <c r="L92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -4539,25 +4539,25 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>241.7200012207031</v>
+        <v>231.97999572753901</v>
       </c>
       <c r="D93">
-        <v>250.4107170544257</v>
+        <v>248.99461863418631</v>
       </c>
       <c r="E93">
-        <v>235.21499792883321</v>
+        <v>225.3710996624097</v>
       </c>
       <c r="F93">
-        <v>45.759838757930893</v>
+        <v>42.455377939782643</v>
       </c>
       <c r="G93">
-        <v>-0.86333796118498185</v>
+        <v>-2.9038270250306368</v>
       </c>
       <c r="H93">
-        <v>-1.3302939192956309</v>
+        <v>-1.7748800589455429</v>
       </c>
       <c r="I93">
-        <v>1.00612633214591</v>
+        <v>1.0454376956579681</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>15</v>
@@ -4568,8 +4568,8 @@
       <c r="L93" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M93" s="3" t="s">
-        <v>16</v>
+      <c r="M93" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -4580,25 +4580,25 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>135.4100036621094</v>
+        <v>135.3399963378906</v>
       </c>
       <c r="D94">
-        <v>136.58018396827171</v>
+        <v>140.54397028040279</v>
       </c>
       <c r="E94">
-        <v>132.00839112240911</v>
+        <v>128.34745689593649</v>
       </c>
       <c r="F94">
-        <v>53.650826252118073</v>
+        <v>59.785504143669947</v>
       </c>
       <c r="G94">
-        <v>1.2903629580671061</v>
+        <v>1.191124532362323</v>
       </c>
       <c r="H94">
-        <v>1.030490676840409</v>
+        <v>1.0411817055323711</v>
       </c>
       <c r="I94">
-        <v>0.8211434129622287</v>
+        <v>0.87596378976160272</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>15</v>
@@ -4606,11 +4606,11 @@
       <c r="K94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>18</v>
+      <c r="L94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -4621,28 +4621,28 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>290.3900146484375</v>
+        <v>284.19000244140619</v>
       </c>
       <c r="D95">
-        <v>292.13308798437669</v>
+        <v>290.85965344082189</v>
       </c>
       <c r="E95">
-        <v>270.75833919196259</v>
+        <v>279.18607061051739</v>
       </c>
       <c r="F95">
-        <v>76.985835289381498</v>
+        <v>65.491821500025097</v>
       </c>
       <c r="G95">
-        <v>1.8573236303678871</v>
+        <v>1.8394015374361741</v>
       </c>
       <c r="H95">
-        <v>0.74348267392865208</v>
+        <v>1.8693221857282669</v>
       </c>
       <c r="I95">
-        <v>0.96211729798197432</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>18</v>
+        <v>1.0471196487650809</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>15</v>
@@ -4651,7 +4651,7 @@
         <v>16</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -4662,25 +4662,25 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>535.29998779296875</v>
+        <v>533.91998291015625</v>
       </c>
       <c r="D96">
-        <v>538.77107047960135</v>
+        <v>539.08624056402448</v>
       </c>
       <c r="E96">
-        <v>527.88320895678248</v>
+        <v>529.47660820829685</v>
       </c>
       <c r="F96">
-        <v>62.038774975074922</v>
+        <v>61.930510838241076</v>
       </c>
       <c r="G96">
-        <v>5.2799080694524037</v>
+        <v>3.8330958806539002</v>
       </c>
       <c r="H96">
-        <v>4.8775302847137656</v>
+        <v>4.556877426095749</v>
       </c>
       <c r="I96">
-        <v>1.0317648454368851</v>
+        <v>1.0852536741326899</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>15</v>
@@ -4691,8 +4691,8 @@
       <c r="L96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M96" s="3" t="s">
-        <v>16</v>
+      <c r="M96" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -4703,25 +4703,25 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>43.849998474121087</v>
+        <v>41.619998931884773</v>
       </c>
       <c r="D97">
-        <v>44.487894870072488</v>
+        <v>44.603312886566847</v>
       </c>
       <c r="E97">
-        <v>42.583533701356082</v>
+        <v>40.228116731178687</v>
       </c>
       <c r="F97">
-        <v>37.439600617723052</v>
+        <v>35.043818857864203</v>
       </c>
       <c r="G97">
-        <v>0.12622862646838939</v>
+        <v>-0.43284585010614052</v>
       </c>
       <c r="H97">
-        <v>0.29686391453018529</v>
+        <v>-0.1180103216015197</v>
       </c>
       <c r="I97">
-        <v>1.0150468820072951</v>
+        <v>1.0362012431213941</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>15</v>
@@ -4729,11 +4729,11 @@
       <c r="K97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>16</v>
+      <c r="L97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -4744,37 +4744,37 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>64.379997253417969</v>
+        <v>65.610000610351563</v>
       </c>
       <c r="D98">
-        <v>66.971431468931456</v>
+        <v>65.907287618423979</v>
       </c>
       <c r="E98">
-        <v>55.811425063574113</v>
+        <v>63.612710114555917</v>
       </c>
       <c r="F98">
-        <v>86.869546641474187</v>
+        <v>86.672538536672079</v>
       </c>
       <c r="G98">
-        <v>2.0457208925868571</v>
+        <v>2.4845012735506771</v>
       </c>
       <c r="H98">
-        <v>1.132489542444612</v>
+        <v>2.1650254755820808</v>
       </c>
       <c r="I98">
-        <v>0.93344859851909301</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>18</v>
+        <v>0.9504795077916276</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>18</v>
+      <c r="L98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -4785,25 +4785,25 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>80.889999389648438</v>
+        <v>82.75</v>
       </c>
       <c r="D99">
-        <v>81.993565807760348</v>
+        <v>84.068561556871785</v>
       </c>
       <c r="E99">
-        <v>79.195006667128041</v>
+        <v>80.420007430293381</v>
       </c>
       <c r="F99">
-        <v>55.799371791192321</v>
+        <v>67.551976375295908</v>
       </c>
       <c r="G99">
-        <v>0.88527247747784088</v>
+        <v>1.0815073956273551</v>
       </c>
       <c r="H99">
-        <v>1.02447664394189</v>
+        <v>1.016673184472606</v>
       </c>
       <c r="I99">
-        <v>1.247192814289924</v>
+        <v>1.3286003833138851</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>15</v>
@@ -4812,10 +4812,10 @@
         <v>15</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -4826,25 +4826,25 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>120.34999847412109</v>
+        <v>118.90000152587891</v>
       </c>
       <c r="D100">
-        <v>125.2499435308092</v>
+        <v>121.0392736524668</v>
       </c>
       <c r="E100">
-        <v>118.8300561204184</v>
+        <v>118.6864387149998</v>
       </c>
       <c r="F100">
-        <v>61.754006714810593</v>
+        <v>32.971805998258972</v>
       </c>
       <c r="G100">
-        <v>1.630771486834774</v>
+        <v>0.51085615271848894</v>
       </c>
       <c r="H100">
-        <v>1.8265840178389561</v>
+        <v>1.050363867075091</v>
       </c>
       <c r="I100">
-        <v>0.99251036663916947</v>
+        <v>0.95724347311943225</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>15</v>
@@ -4852,11 +4852,11 @@
       <c r="K100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>18</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
